--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342951.7125289321</v>
+        <v>222098.6454585081</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21153596.70640419</v>
+        <v>21153596.70640421</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3800630.471584482</v>
+        <v>3800630.47158448</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.78681539902033</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.50120808708941</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>81.28802348610962</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.90967274370948</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,28 +1493,28 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.42701010228137</v>
+        <v>14.42701010228139</v>
       </c>
       <c r="R12" t="n">
         <v>84.61046744136135</v>
       </c>
       <c r="S12" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>40.62972820115284</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>74.53940094486201</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>57.50120808708941</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.78681539902033</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>81.28802348610968</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.90967274370948</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,28 +1730,28 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.42701010228137</v>
+        <v>14.42701010228139</v>
       </c>
       <c r="R15" t="n">
         <v>84.61046744136135</v>
       </c>
       <c r="S15" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>40.62972820115291</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>74.53940094486207</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1888,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.63950041187345</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>81.38664663458714</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.89110334874525</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>81.38664663458714</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>47.49554328584184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>81.38664663458697</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>81.38664663458711</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="S20" t="n">
         <v>92.40082497114798</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>74.7872862967218</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="G21" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.65068379064653</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R21" t="n">
         <v>84.59826427738969</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>23.53852353769889</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2317,65 +2317,65 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>23.74714622271367</v>
+      </c>
+      <c r="R23" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="C23" t="n">
+      <c r="S23" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D23" t="n">
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>57.52307403836417</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.27022026107805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,20 +2396,20 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="C24" t="n">
+      <c r="E24" t="n">
+        <v>81.4852697830646</v>
+      </c>
+      <c r="F24" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>81.48526978306461</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>92.51279493990077</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>81.27022026107788</v>
+      </c>
+      <c r="E26" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>24.98883196809552</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>32.53424207026885</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>81.4852697830646</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>67.08334875144099</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>92.51279493990077</v>
@@ -2693,7 +2693,7 @@
         <v>92.51279493990077</v>
       </c>
       <c r="V27" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2791,64 +2791,64 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>23.74714622271367</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="T29" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="I29" t="n">
-        <v>56.28138829298245</v>
-      </c>
-      <c r="J29" t="n">
-        <v>24.98883196809552</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>57.52307403836417</v>
       </c>
       <c r="Y29" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,64 +2873,64 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>74.99787941395205</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>14.40192103162362</v>
+      </c>
+      <c r="R30" t="n">
+        <v>84.59826427738969</v>
+      </c>
+      <c r="S30" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D30" t="n">
-        <v>81.4852697830646</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3037,61 +3037,61 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>56.28138829298245</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>92.51279493990077</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>24.98883196809552</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>81.27022026107787</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,64 +3110,64 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>33.19224540269565</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>33.89110334874526</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>14.40192103162362</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D33" t="n">
+      <c r="T33" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>81.48526978306461</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.27022026107798</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>92.51279493990077</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>57.52307403836419</v>
       </c>
       <c r="V35" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>81.4852697830646</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>81.48526978306461</v>
       </c>
       <c r="S36" t="n">
         <v>92.51279493990077</v>
@@ -3407,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="X36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="E38" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="F38" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>81.27022026107785</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>92.51279493990074</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.27022026107805</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>81.48526978306455</v>
       </c>
       <c r="V39" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="W39" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="X39" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="Y39" t="n">
-        <v>81.48526978306454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.38664663458719</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="V41" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="W41" t="n">
-        <v>92.40082497114798</v>
+        <v>81.38664663458714</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>81.38664663458708</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="U42" t="n">
-        <v>92.40082497114798</v>
+        <v>81.38664663458711</v>
       </c>
       <c r="V42" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.63950041187345</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>92.40082497114798</v>
@@ -4036,10 +4036,10 @@
         <v>92.40082497114798</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>81.38664663458708</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
         <v>92.40082497114798</v>
       </c>
-      <c r="E45" t="n">
-        <v>66.98472560296351</v>
-      </c>
       <c r="F45" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>92.40082497114798</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>81.38664663458708</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>193.8252397181619</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="C11" t="n">
-        <v>193.8252397181619</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="D11" t="n">
-        <v>193.8252397181619</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="E11" t="n">
-        <v>193.8252397181619</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="F11" t="n">
-        <v>193.8252397181619</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="G11" t="n">
-        <v>193.8252397181619</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="H11" t="n">
-        <v>100.6041740591768</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="I11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="J11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="K11" t="n">
-        <v>20.99810258477137</v>
+        <v>20.9981025847712</v>
       </c>
       <c r="L11" t="n">
-        <v>74.7904686488213</v>
+        <v>74.79046864882113</v>
       </c>
       <c r="M11" t="n">
-        <v>166.1564351011926</v>
+        <v>166.1564351011924</v>
       </c>
       <c r="N11" t="n">
-        <v>257.522401553564</v>
+        <v>257.5224015535636</v>
       </c>
       <c r="O11" t="n">
-        <v>336.3655865638286</v>
+        <v>336.3655865638281</v>
       </c>
       <c r="P11" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095807</v>
       </c>
       <c r="Q11" t="n">
-        <v>345.1283337479445</v>
+        <v>369.1554200095807</v>
       </c>
       <c r="R11" t="n">
-        <v>251.9072680889593</v>
+        <v>369.1554200095807</v>
       </c>
       <c r="S11" t="n">
-        <v>193.8252397181619</v>
+        <v>369.1554200095807</v>
       </c>
       <c r="T11" t="n">
-        <v>193.8252397181619</v>
+        <v>275.9343543505956</v>
       </c>
       <c r="U11" t="n">
-        <v>193.8252397181619</v>
+        <v>275.9343543505956</v>
       </c>
       <c r="V11" t="n">
-        <v>193.8252397181619</v>
+        <v>182.7132886916106</v>
       </c>
       <c r="W11" t="n">
-        <v>193.8252397181619</v>
+        <v>89.49222303262559</v>
       </c>
       <c r="X11" t="n">
-        <v>193.8252397181619</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="Y11" t="n">
-        <v>193.8252397181619</v>
+        <v>7.383108400191613</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="C12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="D12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="E12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="F12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="G12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="H12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="I12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="J12" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="K12" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="L12" t="n">
-        <v>81.64337855833423</v>
+        <v>81.64337855833419</v>
       </c>
       <c r="M12" t="n">
-        <v>173.0093450107056</v>
+        <v>173.0093450107054</v>
       </c>
       <c r="N12" t="n">
-        <v>264.3753114630769</v>
+        <v>264.3753114630766</v>
       </c>
       <c r="O12" t="n">
-        <v>315.8452207473479</v>
+        <v>315.8452207473474</v>
       </c>
       <c r="P12" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095807</v>
       </c>
       <c r="Q12" t="n">
-        <v>354.5826825325293</v>
+        <v>354.5826825325287</v>
       </c>
       <c r="R12" t="n">
-        <v>269.1175639048915</v>
+        <v>269.117563904891</v>
       </c>
       <c r="S12" t="n">
-        <v>175.8964982459064</v>
+        <v>269.117563904891</v>
       </c>
       <c r="T12" t="n">
-        <v>82.67543258692125</v>
+        <v>269.117563904891</v>
       </c>
       <c r="U12" t="n">
-        <v>41.63530309080726</v>
+        <v>175.8964982459059</v>
       </c>
       <c r="V12" t="n">
-        <v>41.63530309080726</v>
+        <v>82.67543258692092</v>
       </c>
       <c r="W12" t="n">
-        <v>41.63530309080726</v>
+        <v>82.67543258692092</v>
       </c>
       <c r="X12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191613</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="C13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="D13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="E13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="F13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="G13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="H13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="I13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="J13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="K13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="L13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="M13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="N13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="O13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="P13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="R13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="S13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="T13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="U13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="V13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="W13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="X13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>345.1283337479446</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="C14" t="n">
-        <v>345.1283337479446</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="D14" t="n">
-        <v>345.1283337479446</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="E14" t="n">
-        <v>287.0463053771472</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="F14" t="n">
-        <v>193.825239718162</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="G14" t="n">
-        <v>100.6041740591768</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="H14" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="I14" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="J14" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="K14" t="n">
-        <v>20.99810258477132</v>
+        <v>20.9981025847712</v>
       </c>
       <c r="L14" t="n">
-        <v>74.79046864882125</v>
+        <v>74.79046864882113</v>
       </c>
       <c r="M14" t="n">
-        <v>166.1564351011926</v>
+        <v>166.1564351011924</v>
       </c>
       <c r="N14" t="n">
-        <v>257.522401553564</v>
+        <v>257.5224015535637</v>
       </c>
       <c r="O14" t="n">
-        <v>336.3655865638286</v>
+        <v>336.3655865638282</v>
       </c>
       <c r="P14" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="Q14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="R14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="S14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="T14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="U14" t="n">
-        <v>345.1283337479446</v>
+        <v>275.9343543505958</v>
       </c>
       <c r="V14" t="n">
-        <v>345.1283337479446</v>
+        <v>182.7132886916107</v>
       </c>
       <c r="W14" t="n">
-        <v>345.1283337479446</v>
+        <v>100.6041740591767</v>
       </c>
       <c r="X14" t="n">
-        <v>345.1283337479446</v>
+        <v>100.6041740591767</v>
       </c>
       <c r="Y14" t="n">
-        <v>345.1283337479446</v>
+        <v>100.6041740591767</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="C15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="D15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="E15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="F15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="G15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="H15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="I15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="J15" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="K15" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="L15" t="n">
-        <v>81.64337855833423</v>
+        <v>42.60202816422095</v>
       </c>
       <c r="M15" t="n">
-        <v>173.0093450107056</v>
+        <v>133.9679946165922</v>
       </c>
       <c r="N15" t="n">
-        <v>225.3339610689638</v>
+        <v>225.3339610689634</v>
       </c>
       <c r="O15" t="n">
-        <v>315.845220747348</v>
+        <v>315.8452207473475</v>
       </c>
       <c r="P15" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="Q15" t="n">
-        <v>354.5826825325294</v>
+        <v>354.5826825325288</v>
       </c>
       <c r="R15" t="n">
-        <v>269.1175639048917</v>
+        <v>269.1175639048911</v>
       </c>
       <c r="S15" t="n">
-        <v>175.8964982459065</v>
+        <v>269.1175639048911</v>
       </c>
       <c r="T15" t="n">
-        <v>82.67543258692132</v>
+        <v>269.1175639048911</v>
       </c>
       <c r="U15" t="n">
-        <v>41.63530309080726</v>
+        <v>175.896498245906</v>
       </c>
       <c r="V15" t="n">
-        <v>41.63530309080726</v>
+        <v>82.67543258692098</v>
       </c>
       <c r="W15" t="n">
-        <v>41.63530309080726</v>
+        <v>82.67543258692098</v>
       </c>
       <c r="X15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="Y15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191616</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="C16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="D16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="E16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="F16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="G16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="H16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="I16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="J16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="K16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="L16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="M16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="N16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="O16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="P16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="R16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="S16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="T16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="U16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="V16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="W16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="X16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.392065997691839</v>
+        <v>100.726232635215</v>
       </c>
       <c r="C17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="D17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="E17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="F17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="G17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="H17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="I17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="J17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="K17" t="n">
-        <v>21.05332062426899</v>
+        <v>21.05332062426911</v>
       </c>
       <c r="L17" t="n">
-        <v>74.903076857245</v>
+        <v>74.90307685724511</v>
       </c>
       <c r="M17" t="n">
-        <v>166.3798935786815</v>
+        <v>166.3798935786816</v>
       </c>
       <c r="N17" t="n">
-        <v>257.856710300118</v>
+        <v>257.8567103001181</v>
       </c>
       <c r="O17" t="n">
         <v>336.7611699508442</v>
@@ -5536,31 +5536,31 @@
         <v>369.6032998845919</v>
       </c>
       <c r="Q17" t="n">
-        <v>345.6162834980125</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="R17" t="n">
-        <v>252.2821168604893</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S17" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="T17" t="n">
-        <v>100.7262326352151</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="U17" t="n">
-        <v>7.392065997691839</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="V17" t="n">
-        <v>7.392065997691839</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="W17" t="n">
-        <v>7.392065997691839</v>
+        <v>182.9349666095455</v>
       </c>
       <c r="X17" t="n">
-        <v>7.392065997691839</v>
+        <v>100.726232635215</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.392065997691839</v>
+        <v>100.726232635215</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>228.2938369987436</v>
+        <v>100.726232635215</v>
       </c>
       <c r="C18" t="n">
-        <v>134.9596703612204</v>
+        <v>100.726232635215</v>
       </c>
       <c r="D18" t="n">
-        <v>41.62550372369714</v>
+        <v>100.726232635215</v>
       </c>
       <c r="E18" t="n">
-        <v>41.62550372369714</v>
+        <v>100.726232635215</v>
       </c>
       <c r="F18" t="n">
-        <v>41.62550372369714</v>
+        <v>100.726232635215</v>
       </c>
       <c r="G18" t="n">
-        <v>41.62550372369714</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="H18" t="n">
-        <v>41.62550372369714</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="I18" t="n">
-        <v>41.62550372369714</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="J18" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="K18" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="L18" t="n">
-        <v>81.69458512843215</v>
+        <v>42.74475500568762</v>
       </c>
       <c r="M18" t="n">
         <v>134.2215717271241</v>
@@ -5621,25 +5621,25 @@
         <v>369.6032998845919</v>
       </c>
       <c r="S18" t="n">
-        <v>369.6032998845919</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="T18" t="n">
-        <v>369.6032998845919</v>
+        <v>182.9349666095455</v>
       </c>
       <c r="U18" t="n">
-        <v>369.6032998845919</v>
+        <v>100.726232635215</v>
       </c>
       <c r="V18" t="n">
-        <v>369.6032998845919</v>
+        <v>100.726232635215</v>
       </c>
       <c r="W18" t="n">
-        <v>369.6032998845919</v>
+        <v>100.726232635215</v>
       </c>
       <c r="X18" t="n">
-        <v>276.2691332470687</v>
+        <v>100.726232635215</v>
       </c>
       <c r="Y18" t="n">
-        <v>228.2938369987436</v>
+        <v>100.726232635215</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="C19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="D19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="E19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="F19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="G19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="H19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="I19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="J19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="K19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="L19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="M19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="N19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="O19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="P19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="R19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="S19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="T19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="U19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="V19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="W19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="X19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="C20" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="D20" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="E20" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="F20" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="G20" t="n">
         <v>7.392065997691839</v>
@@ -5755,49 +5755,49 @@
         <v>7.392065997691839</v>
       </c>
       <c r="K20" t="n">
-        <v>21.05332062426909</v>
+        <v>21.05332062426906</v>
       </c>
       <c r="L20" t="n">
-        <v>74.90307685724508</v>
+        <v>74.903076857245</v>
       </c>
       <c r="M20" t="n">
-        <v>166.3798935786816</v>
+        <v>166.3798935786815</v>
       </c>
       <c r="N20" t="n">
-        <v>257.8567103001181</v>
+        <v>257.856710300118</v>
       </c>
       <c r="O20" t="n">
-        <v>336.7611699508443</v>
+        <v>336.7611699508442</v>
       </c>
       <c r="P20" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845918</v>
       </c>
       <c r="Q20" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845918</v>
       </c>
       <c r="R20" t="n">
-        <v>287.3945659102615</v>
+        <v>276.2691332470686</v>
       </c>
       <c r="S20" t="n">
-        <v>194.0603992727383</v>
+        <v>182.9349666095453</v>
       </c>
       <c r="T20" t="n">
-        <v>194.0603992727383</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="U20" t="n">
-        <v>194.0603992727383</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="V20" t="n">
-        <v>100.7262326352151</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="W20" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="X20" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202212</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>260.3742212834924</v>
+        <v>176.2689460662472</v>
       </c>
       <c r="C21" t="n">
-        <v>260.3742212834924</v>
+        <v>176.2689460662472</v>
       </c>
       <c r="D21" t="n">
-        <v>260.3742212834924</v>
+        <v>176.2689460662472</v>
       </c>
       <c r="E21" t="n">
-        <v>260.3742212834924</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="F21" t="n">
-        <v>260.3742212834924</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G21" t="n">
-        <v>167.0400546459691</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H21" t="n">
-        <v>73.70588800844591</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I21" t="n">
         <v>7.392065997691839</v>
@@ -5834,49 +5834,49 @@
         <v>7.392065997691839</v>
       </c>
       <c r="K21" t="n">
-        <v>7.392065997691839</v>
+        <v>28.20084994127632</v>
       </c>
       <c r="L21" t="n">
-        <v>81.69458512843215</v>
+        <v>102.5033690720166</v>
       </c>
       <c r="M21" t="n">
-        <v>173.1714018498687</v>
+        <v>193.9801857934531</v>
       </c>
       <c r="N21" t="n">
-        <v>264.6482185713052</v>
+        <v>285.4570025148896</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2559440569822</v>
+        <v>316.2559440569823</v>
       </c>
       <c r="P21" t="n">
         <v>369.6032998845919</v>
       </c>
       <c r="Q21" t="n">
-        <v>369.6032998845919</v>
+        <v>355.0559049031539</v>
       </c>
       <c r="R21" t="n">
-        <v>284.1505076852084</v>
+        <v>269.6031127037704</v>
       </c>
       <c r="S21" t="n">
-        <v>284.1505076852084</v>
+        <v>176.2689460662472</v>
       </c>
       <c r="T21" t="n">
-        <v>284.1505076852084</v>
+        <v>176.2689460662472</v>
       </c>
       <c r="U21" t="n">
-        <v>284.1505076852084</v>
+        <v>176.2689460662472</v>
       </c>
       <c r="V21" t="n">
-        <v>260.3742212834924</v>
+        <v>176.2689460662472</v>
       </c>
       <c r="W21" t="n">
-        <v>260.3742212834924</v>
+        <v>176.2689460662472</v>
       </c>
       <c r="X21" t="n">
-        <v>260.3742212834924</v>
+        <v>176.2689460662472</v>
       </c>
       <c r="Y21" t="n">
-        <v>260.3742212834924</v>
+        <v>176.2689460662472</v>
       </c>
     </row>
     <row r="22">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>194.2955588273148</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C23" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D23" t="n">
         <v>7.401023595192062</v>
@@ -5992,49 +5992,49 @@
         <v>7.401023595192062</v>
       </c>
       <c r="K23" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L23" t="n">
-        <v>74.91203445474531</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M23" t="n">
-        <v>166.4997014452471</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N23" t="n">
         <v>258.0873684357488</v>
       </c>
       <c r="O23" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P23" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.8339580202227</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="R23" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="S23" t="n">
-        <v>369.8339580202227</v>
+        <v>158.9524064015203</v>
       </c>
       <c r="T23" t="n">
-        <v>369.8339580202227</v>
+        <v>158.9524064015203</v>
       </c>
       <c r="U23" t="n">
-        <v>369.8339580202227</v>
+        <v>65.50513878545891</v>
       </c>
       <c r="V23" t="n">
-        <v>369.8339580202227</v>
+        <v>65.50513878545891</v>
       </c>
       <c r="W23" t="n">
-        <v>369.8339580202227</v>
+        <v>65.50513878545891</v>
       </c>
       <c r="X23" t="n">
-        <v>369.8339580202227</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y23" t="n">
-        <v>287.7428264433762</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>276.6039121435417</v>
+      </c>
+      <c r="C24" t="n">
+        <v>276.6039121435417</v>
+      </c>
+      <c r="D24" t="n">
+        <v>183.1566445274803</v>
+      </c>
+      <c r="E24" t="n">
         <v>100.8482912112535</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7.401023595192062</v>
       </c>
       <c r="F24" t="n">
         <v>7.401023595192062</v>
@@ -6071,16 +6071,16 @@
         <v>7.401023595192062</v>
       </c>
       <c r="K24" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L24" t="n">
-        <v>102.5123266695169</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M24" t="n">
         <v>194.0999936600186</v>
       </c>
       <c r="N24" t="n">
-        <v>226.1462683235717</v>
+        <v>285.6876606505203</v>
       </c>
       <c r="O24" t="n">
         <v>316.7038239319934</v>
@@ -6095,25 +6095,25 @@
         <v>370.0511797596031</v>
       </c>
       <c r="S24" t="n">
-        <v>287.7428264433762</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="T24" t="n">
-        <v>287.7428264433762</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="U24" t="n">
-        <v>194.2955588273148</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="V24" t="n">
-        <v>194.2955588273148</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="W24" t="n">
-        <v>194.2955588273148</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="X24" t="n">
-        <v>194.2955588273148</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.2955588273148</v>
+        <v>276.6039121435417</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="L25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="M25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="N25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="O25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="P25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Q25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="R25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="S25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="T25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="U25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="V25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="W25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>126.0895356234712</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="C26" t="n">
-        <v>32.64226800740977</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="D26" t="n">
-        <v>32.64226800740977</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="E26" t="n">
-        <v>32.64226800740977</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="F26" t="n">
-        <v>32.64226800740977</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G26" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H26" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I26" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J26" t="n">
         <v>7.401023595192062</v>
       </c>
       <c r="K26" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L26" t="n">
-        <v>74.91203445474531</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M26" t="n">
-        <v>166.4997014452471</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N26" t="n">
         <v>258.0873684357488</v>
       </c>
       <c r="O26" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P26" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="R26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="S26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="T26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="U26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="V26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="W26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="X26" t="n">
-        <v>312.9840708555939</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Y26" t="n">
-        <v>219.5368032395326</v>
+        <v>369.8339580202226</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="C27" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="D27" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="E27" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="F27" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G27" t="n">
         <v>7.401023595192062</v>
@@ -6308,16 +6308,16 @@
         <v>7.401023595192062</v>
       </c>
       <c r="K27" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L27" t="n">
-        <v>42.9709343425682</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M27" t="n">
-        <v>134.55860133307</v>
+        <v>194.0999936600186</v>
       </c>
       <c r="N27" t="n">
-        <v>226.1462683235717</v>
+        <v>226.1462683235718</v>
       </c>
       <c r="O27" t="n">
         <v>316.7038239319934</v>
@@ -6326,31 +6326,31 @@
         <v>370.0511797596031</v>
       </c>
       <c r="Q27" t="n">
-        <v>355.5037847781651</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="R27" t="n">
-        <v>355.5037847781651</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="S27" t="n">
-        <v>287.7428264433762</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="T27" t="n">
-        <v>194.2955588273148</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="U27" t="n">
-        <v>100.8482912112535</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="V27" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="W27" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="X27" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274803</v>
       </c>
     </row>
     <row r="28">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G29" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H29" t="n">
-        <v>89.49215517203851</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I29" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J29" t="n">
         <v>7.401023595192062</v>
       </c>
       <c r="K29" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L29" t="n">
-        <v>74.91203445474531</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M29" t="n">
-        <v>166.4997014452471</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N29" t="n">
         <v>258.0873684357488</v>
       </c>
       <c r="O29" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P29" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q29" t="n">
-        <v>369.8339580202227</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="R29" t="n">
-        <v>369.8339580202227</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="S29" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="T29" t="n">
-        <v>369.8339580202227</v>
+        <v>158.9524064015203</v>
       </c>
       <c r="U29" t="n">
-        <v>369.8339580202227</v>
+        <v>65.50513878545891</v>
       </c>
       <c r="V29" t="n">
-        <v>369.8339580202227</v>
+        <v>65.50513878545891</v>
       </c>
       <c r="W29" t="n">
-        <v>369.8339580202227</v>
+        <v>65.50513878545891</v>
       </c>
       <c r="X29" t="n">
-        <v>369.8339580202227</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.3866904041613</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>183.1566445274803</v>
+        <v>83.15645734665878</v>
       </c>
       <c r="C30" t="n">
-        <v>89.70937691141893</v>
+        <v>83.15645734665878</v>
       </c>
       <c r="D30" t="n">
-        <v>7.401023595192062</v>
+        <v>83.15645734665878</v>
       </c>
       <c r="E30" t="n">
-        <v>7.401023595192062</v>
+        <v>83.15645734665878</v>
       </c>
       <c r="F30" t="n">
         <v>7.401023595192062</v>
@@ -6545,49 +6545,49 @@
         <v>7.401023595192062</v>
       </c>
       <c r="K30" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L30" t="n">
-        <v>102.5123266695169</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M30" t="n">
-        <v>134.55860133307</v>
+        <v>194.0999936600186</v>
       </c>
       <c r="N30" t="n">
-        <v>226.1462683235717</v>
+        <v>279.4936241511815</v>
       </c>
       <c r="O30" t="n">
-        <v>316.7038239319934</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="P30" t="n">
         <v>370.0511797596031</v>
       </c>
       <c r="Q30" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781651</v>
       </c>
       <c r="R30" t="n">
-        <v>370.0511797596031</v>
+        <v>270.0509925787816</v>
       </c>
       <c r="S30" t="n">
-        <v>370.0511797596031</v>
+        <v>176.6037249627202</v>
       </c>
       <c r="T30" t="n">
-        <v>370.0511797596031</v>
+        <v>83.15645734665878</v>
       </c>
       <c r="U30" t="n">
-        <v>370.0511797596031</v>
+        <v>83.15645734665878</v>
       </c>
       <c r="V30" t="n">
-        <v>276.6039121435417</v>
+        <v>83.15645734665878</v>
       </c>
       <c r="W30" t="n">
-        <v>276.6039121435417</v>
+        <v>83.15645734665878</v>
       </c>
       <c r="X30" t="n">
-        <v>276.6039121435417</v>
+        <v>83.15645734665878</v>
       </c>
       <c r="Y30" t="n">
-        <v>183.1566445274803</v>
+        <v>83.15645734665878</v>
       </c>
     </row>
     <row r="31">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="C32" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="D32" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="E32" t="n">
-        <v>276.3866904041613</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="F32" t="n">
-        <v>219.5368032395326</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G32" t="n">
-        <v>126.0895356234712</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H32" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I32" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J32" t="n">
         <v>7.401023595192062</v>
       </c>
       <c r="K32" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L32" t="n">
-        <v>74.91203445474531</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M32" t="n">
-        <v>166.4997014452471</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N32" t="n">
         <v>258.0873684357488</v>
       </c>
       <c r="O32" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P32" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q32" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="R32" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="S32" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="T32" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="U32" t="n">
-        <v>369.8339580202227</v>
+        <v>276.3866904041612</v>
       </c>
       <c r="V32" t="n">
-        <v>369.8339580202227</v>
+        <v>182.9394227880998</v>
       </c>
       <c r="W32" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="X32" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="Y32" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.2955588273148</v>
+        <v>75.16198192998087</v>
       </c>
       <c r="C33" t="n">
-        <v>100.8482912112535</v>
+        <v>41.63446132119739</v>
       </c>
       <c r="D33" t="n">
-        <v>7.401023595192062</v>
+        <v>41.63446132119739</v>
       </c>
       <c r="E33" t="n">
-        <v>7.401023595192062</v>
+        <v>41.63446132119739</v>
       </c>
       <c r="F33" t="n">
-        <v>7.401023595192062</v>
+        <v>41.63446132119739</v>
       </c>
       <c r="G33" t="n">
-        <v>7.401023595192062</v>
+        <v>41.63446132119739</v>
       </c>
       <c r="H33" t="n">
-        <v>7.401023595192062</v>
+        <v>41.63446132119739</v>
       </c>
       <c r="I33" t="n">
-        <v>7.401023595192062</v>
+        <v>41.63446132119739</v>
       </c>
       <c r="J33" t="n">
         <v>7.401023595192062</v>
       </c>
       <c r="K33" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L33" t="n">
-        <v>102.5123266695169</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M33" t="n">
         <v>194.0999936600186</v>
       </c>
       <c r="N33" t="n">
-        <v>226.1462683235717</v>
+        <v>285.6876606505203</v>
       </c>
       <c r="O33" t="n">
-        <v>316.7038239319934</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="P33" t="n">
         <v>370.0511797596031</v>
       </c>
       <c r="Q33" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781651</v>
       </c>
       <c r="R33" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781651</v>
       </c>
       <c r="S33" t="n">
-        <v>370.0511797596031</v>
+        <v>262.0565171621037</v>
       </c>
       <c r="T33" t="n">
-        <v>370.0511797596031</v>
+        <v>168.6092495460423</v>
       </c>
       <c r="U33" t="n">
-        <v>370.0511797596031</v>
+        <v>168.6092495460423</v>
       </c>
       <c r="V33" t="n">
-        <v>287.7428264433762</v>
+        <v>168.6092495460423</v>
       </c>
       <c r="W33" t="n">
-        <v>287.7428264433762</v>
+        <v>168.6092495460423</v>
       </c>
       <c r="X33" t="n">
-        <v>287.7428264433762</v>
+        <v>168.6092495460423</v>
       </c>
       <c r="Y33" t="n">
-        <v>194.2955588273148</v>
+        <v>75.16198192998087</v>
       </c>
     </row>
     <row r="34">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>194.2955588273148</v>
+      </c>
+      <c r="C35" t="n">
+        <v>194.2955588273148</v>
+      </c>
+      <c r="D35" t="n">
+        <v>194.2955588273148</v>
+      </c>
+      <c r="E35" t="n">
         <v>100.8482912112535</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="D35" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="E35" t="n">
-        <v>7.401023595192062</v>
       </c>
       <c r="F35" t="n">
         <v>7.401023595192062</v>
@@ -6940,49 +6940,49 @@
         <v>7.401023595192062</v>
       </c>
       <c r="K35" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L35" t="n">
-        <v>74.91203445474531</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M35" t="n">
-        <v>166.4997014452471</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N35" t="n">
         <v>258.0873684357488</v>
       </c>
       <c r="O35" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P35" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q35" t="n">
-        <v>369.8339580202227</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="R35" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="S35" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="T35" t="n">
-        <v>369.8339580202227</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="U35" t="n">
-        <v>369.8339580202227</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="V35" t="n">
-        <v>276.3866904041613</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="W35" t="n">
-        <v>276.3866904041613</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="X35" t="n">
-        <v>182.9394227880999</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="Y35" t="n">
-        <v>182.9394227880999</v>
+        <v>194.2955588273148</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.70937691141893</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C36" t="n">
         <v>7.401023595192062</v>
@@ -7019,16 +7019,16 @@
         <v>7.401023595192062</v>
       </c>
       <c r="K36" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L36" t="n">
-        <v>102.5123266695169</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M36" t="n">
         <v>134.55860133307</v>
       </c>
       <c r="N36" t="n">
-        <v>226.1462683235717</v>
+        <v>226.1462683235718</v>
       </c>
       <c r="O36" t="n">
         <v>316.7038239319934</v>
@@ -7040,28 +7040,28 @@
         <v>370.0511797596031</v>
       </c>
       <c r="R36" t="n">
-        <v>370.0511797596031</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="S36" t="n">
-        <v>276.6039121435417</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="T36" t="n">
-        <v>183.1566445274803</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="U36" t="n">
-        <v>183.1566445274803</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="V36" t="n">
-        <v>183.1566445274803</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="W36" t="n">
-        <v>183.1566445274803</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X36" t="n">
-        <v>89.70937691141893</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y36" t="n">
-        <v>89.70937691141893</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="37">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="C38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="D38" t="n">
-        <v>194.2955588273148</v>
+        <v>276.3866904041611</v>
       </c>
       <c r="E38" t="n">
-        <v>100.8482912112534</v>
+        <v>182.9394227880998</v>
       </c>
       <c r="F38" t="n">
-        <v>7.40102359519206</v>
+        <v>89.49215517203838</v>
       </c>
       <c r="G38" t="n">
         <v>7.40102359519206</v>
@@ -7177,49 +7177,49 @@
         <v>7.40102359519206</v>
       </c>
       <c r="K38" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176928</v>
       </c>
       <c r="L38" t="n">
-        <v>74.91203445474531</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M38" t="n">
         <v>166.499701445247</v>
       </c>
       <c r="N38" t="n">
-        <v>258.0873684357488</v>
+        <v>258.0873684357487</v>
       </c>
       <c r="O38" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P38" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="Q38" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="R38" t="n">
-        <v>276.3866904041613</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="S38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="T38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="U38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="V38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="W38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="X38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202225</v>
       </c>
       <c r="Y38" t="n">
-        <v>194.2955588273148</v>
+        <v>369.8339580202225</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>7.40102359519206</v>
       </c>
       <c r="K39" t="n">
-        <v>28.20980753877657</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L39" t="n">
-        <v>102.5123266695169</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M39" t="n">
         <v>194.0999936600186</v>
       </c>
       <c r="N39" t="n">
-        <v>226.1462683235716</v>
+        <v>285.6876606505203</v>
       </c>
       <c r="O39" t="n">
-        <v>316.7038239319933</v>
+        <v>316.7038239319934</v>
       </c>
       <c r="P39" t="n">
         <v>370.051179759603</v>
@@ -7286,16 +7286,16 @@
         <v>370.051179759603</v>
       </c>
       <c r="U39" t="n">
-        <v>370.051179759603</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="V39" t="n">
-        <v>276.6039121435416</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="W39" t="n">
-        <v>183.1566445274802</v>
+        <v>100.8482912112534</v>
       </c>
       <c r="X39" t="n">
-        <v>89.70937691141887</v>
+        <v>7.40102359519206</v>
       </c>
       <c r="Y39" t="n">
         <v>7.40102359519206</v>
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="C41" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="D41" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="E41" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="F41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="G41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="H41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="I41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="J41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="K41" t="n">
-        <v>21.05332062426909</v>
+        <v>21.05332062426911</v>
       </c>
       <c r="L41" t="n">
-        <v>74.90307685724508</v>
+        <v>74.90307685724505</v>
       </c>
       <c r="M41" t="n">
         <v>166.3798935786816</v>
@@ -7426,37 +7426,37 @@
         <v>257.8567103001181</v>
       </c>
       <c r="O41" t="n">
-        <v>336.7611699508443</v>
+        <v>336.7611699508442</v>
       </c>
       <c r="P41" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="Q41" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="R41" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S41" t="n">
-        <v>369.603299884592</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="T41" t="n">
-        <v>369.603299884592</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="U41" t="n">
-        <v>369.603299884592</v>
+        <v>182.9349666095455</v>
       </c>
       <c r="V41" t="n">
-        <v>276.2691332470688</v>
+        <v>89.60079997202227</v>
       </c>
       <c r="W41" t="n">
-        <v>182.9349666095456</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="X41" t="n">
-        <v>182.9349666095456</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="Y41" t="n">
-        <v>182.9349666095456</v>
+        <v>7.392065997691837</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>89.60079997202223</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="C42" t="n">
-        <v>89.60079997202223</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="D42" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="E42" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="F42" t="n">
-        <v>7.392065997691839</v>
+        <v>100.726232635215</v>
       </c>
       <c r="G42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="H42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="I42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="J42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="K42" t="n">
-        <v>28.20084994127635</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="L42" t="n">
-        <v>102.5033690720167</v>
+        <v>81.69458512843212</v>
       </c>
       <c r="M42" t="n">
-        <v>193.9801857934532</v>
+        <v>134.2215717271241</v>
       </c>
       <c r="N42" t="n">
-        <v>285.4570025148897</v>
+        <v>225.6983884485606</v>
       </c>
       <c r="O42" t="n">
         <v>316.2559440569822</v>
@@ -7520,22 +7520,22 @@
         <v>369.6032998845919</v>
       </c>
       <c r="T42" t="n">
-        <v>369.6032998845919</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="U42" t="n">
-        <v>276.2691332470687</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="V42" t="n">
-        <v>182.9349666095455</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="W42" t="n">
-        <v>182.9349666095455</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="X42" t="n">
-        <v>89.60079997202223</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="Y42" t="n">
-        <v>89.60079997202223</v>
+        <v>194.0603992727383</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="C43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="D43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="E43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="F43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="G43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="H43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="I43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="J43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="K43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="L43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="M43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="N43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="O43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="P43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="Q43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="R43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="S43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="T43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="U43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="V43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="W43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="X43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="Y43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691837</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="C44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="D44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="E44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="F44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G44" t="n">
         <v>7.392065997691839</v>
@@ -7651,49 +7651,49 @@
         <v>7.392065997691839</v>
       </c>
       <c r="K44" t="n">
-        <v>21.05332062426896</v>
+        <v>21.05332062426908</v>
       </c>
       <c r="L44" t="n">
-        <v>74.90307685724497</v>
+        <v>74.90307685724511</v>
       </c>
       <c r="M44" t="n">
-        <v>166.3798935786815</v>
+        <v>166.3798935786816</v>
       </c>
       <c r="N44" t="n">
-        <v>257.856710300118</v>
+        <v>257.8567103001182</v>
       </c>
       <c r="O44" t="n">
-        <v>336.7611699508442</v>
+        <v>336.7611699508443</v>
       </c>
       <c r="P44" t="n">
         <v>369.6032998845919</v>
       </c>
       <c r="Q44" t="n">
-        <v>345.6162834980125</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="R44" t="n">
-        <v>287.3945659102615</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S44" t="n">
-        <v>194.0603992727383</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="T44" t="n">
-        <v>194.0603992727383</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="U44" t="n">
-        <v>100.7262326352151</v>
+        <v>182.9349666095455</v>
       </c>
       <c r="V44" t="n">
-        <v>100.7262326352151</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="W44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="X44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Y44" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691839</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>355.0559049031539</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="C45" t="n">
-        <v>355.0559049031539</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="D45" t="n">
-        <v>261.7217382656307</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="E45" t="n">
-        <v>194.0603992727383</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="F45" t="n">
         <v>100.7262326352151</v>
@@ -7733,46 +7733,46 @@
         <v>7.392065997691839</v>
       </c>
       <c r="L45" t="n">
-        <v>81.69458512843215</v>
+        <v>81.69458512843212</v>
       </c>
       <c r="M45" t="n">
-        <v>173.1714018498687</v>
+        <v>173.1714018498686</v>
       </c>
       <c r="N45" t="n">
-        <v>264.6482185713052</v>
+        <v>225.6983884485606</v>
       </c>
       <c r="O45" t="n">
-        <v>355.2057741797269</v>
+        <v>316.2559440569823</v>
       </c>
       <c r="P45" t="n">
         <v>369.6032998845919</v>
       </c>
       <c r="Q45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="R45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="T45" t="n">
-        <v>355.0559049031539</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="U45" t="n">
-        <v>355.0559049031539</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="V45" t="n">
-        <v>355.0559049031539</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="W45" t="n">
-        <v>355.0559049031539</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="X45" t="n">
-        <v>355.0559049031539</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="Y45" t="n">
-        <v>355.0559049031539</v>
+        <v>194.0603992727383</v>
       </c>
     </row>
     <row r="46">
@@ -22570,28 +22570,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K2" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L2" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P2" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R2" t="n">
         <v>134.8218408634681</v>
@@ -22646,13 +22646,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K3" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R3" t="n">
         <v>102.9682853879423</v>
@@ -22728,25 +22728,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K4" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L4" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M4" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N4" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q4" t="n">
         <v>103.2119976362414</v>
@@ -22807,7 +22807,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K5" t="n">
         <v>56.54227989916996</v>
@@ -22816,13 +22816,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P5" t="n">
         <v>46.34579576917247</v>
@@ -22883,10 +22883,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K6" t="n">
         <v>26.75787480980772</v>
@@ -22965,7 +22965,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K7" t="n">
         <v>62.00809140979796</v>
@@ -22980,10 +22980,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q7" t="n">
         <v>103.2119976362414</v>
@@ -23044,7 +23044,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K8" t="n">
         <v>56.54227989916996</v>
@@ -23053,13 +23053,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P8" t="n">
         <v>46.34579576917247</v>
@@ -23120,10 +23120,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I9" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K9" t="n">
         <v>26.75787480980772</v>
@@ -23202,7 +23202,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K10" t="n">
         <v>62.00809140979796</v>
@@ -23217,10 +23217,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q10" t="n">
         <v>103.2119976362414</v>
@@ -23275,13 +23275,13 @@
         <v>413.4644082958837</v>
       </c>
       <c r="H11" t="n">
-        <v>228.359157996714</v>
+        <v>320.6480129991093</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31484734282297</v>
+        <v>139.6037023452183</v>
       </c>
       <c r="J11" t="n">
-        <v>25.02000995425203</v>
+        <v>25.02000995425206</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>23.78681539902036</v>
       </c>
       <c r="R11" t="n">
-        <v>7.819734992939232</v>
+        <v>100.1085899953345</v>
       </c>
       <c r="S11" t="n">
-        <v>109.6279344154658</v>
+        <v>167.1291425025552</v>
       </c>
       <c r="T11" t="n">
-        <v>215.0485634068586</v>
+        <v>122.7597084044634</v>
       </c>
       <c r="U11" t="n">
         <v>251.1985865702964</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>235.4634034677397</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>256.9521137150178</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>288.4430771923594</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23360,7 +23360,7 @@
         <v>65.65745087436915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.90967274370949</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>61.12451038844297</v>
+        <v>153.4133653908383</v>
       </c>
       <c r="T12" t="n">
-        <v>103.9113042826869</v>
+        <v>196.2001592850822</v>
       </c>
       <c r="U12" t="n">
-        <v>185.2469438241679</v>
+        <v>133.5878170229256</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>140.5117321470301</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>131.2335842586155</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23439,28 +23439,28 @@
         <v>130.652167173172</v>
       </c>
       <c r="J13" t="n">
-        <v>68.69540952780942</v>
+        <v>68.69540952780943</v>
       </c>
       <c r="K13" t="n">
-        <v>33.20842954380555</v>
+        <v>33.20842954380556</v>
       </c>
       <c r="L13" t="n">
-        <v>12.28748008706457</v>
+        <v>12.28748008706458</v>
       </c>
       <c r="M13" t="n">
-        <v>9.664229956157271</v>
+        <v>9.6642299561573</v>
       </c>
       <c r="N13" t="n">
-        <v>1.49754131392298</v>
+        <v>1.497541313922994</v>
       </c>
       <c r="O13" t="n">
-        <v>21.90149342145185</v>
+        <v>21.90149342145186</v>
       </c>
       <c r="P13" t="n">
         <v>37.99502751941262</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.45505824284109</v>
+        <v>82.4550582428411</v>
       </c>
       <c r="R13" t="n">
         <v>140.2158731934601</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>290.4449866610854</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>324.4291619851724</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>314.5871907393162</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>321.1755532934884</v>
+        <v>413.4644082958837</v>
       </c>
       <c r="H14" t="n">
-        <v>228.3591579967139</v>
+        <v>320.6480129991093</v>
       </c>
       <c r="I14" t="n">
         <v>139.6037023452183</v>
       </c>
       <c r="J14" t="n">
-        <v>25.02000995425203</v>
+        <v>25.02000995425206</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>23.78681539902036</v>
       </c>
       <c r="R14" t="n">
         <v>100.1085899953345</v>
@@ -23551,13 +23551,13 @@
         <v>215.0485634068586</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1985865702964</v>
+        <v>158.9097315679012</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>235.4634034677397</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>267.9529452313033</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23597,7 +23597,7 @@
         <v>65.65745087436915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.90967274370949</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>61.12451038844296</v>
+        <v>153.4133653908383</v>
       </c>
       <c r="T15" t="n">
-        <v>103.9113042826868</v>
+        <v>196.2001592850822</v>
       </c>
       <c r="U15" t="n">
-        <v>185.2469438241678</v>
+        <v>133.5878170229255</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>140.5117321470301</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>131.2335842586154</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23676,28 +23676,28 @@
         <v>130.652167173172</v>
       </c>
       <c r="J16" t="n">
-        <v>68.69540952780942</v>
+        <v>68.69540952780943</v>
       </c>
       <c r="K16" t="n">
-        <v>33.20842954380555</v>
+        <v>33.20842954380556</v>
       </c>
       <c r="L16" t="n">
-        <v>12.28748008706457</v>
+        <v>12.28748008706458</v>
       </c>
       <c r="M16" t="n">
-        <v>9.664229956157271</v>
+        <v>9.6642299561573</v>
       </c>
       <c r="N16" t="n">
-        <v>1.49754131392298</v>
+        <v>1.497541313922994</v>
       </c>
       <c r="O16" t="n">
-        <v>21.90149342145185</v>
+        <v>21.90149342145186</v>
       </c>
       <c r="P16" t="n">
         <v>37.99502751941262</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.45505824284109</v>
+        <v>82.4550582428411</v>
       </c>
       <c r="R16" t="n">
         <v>140.2158731934601</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>272.8720667998596</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23755,7 +23755,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J17" t="n">
-        <v>24.98883196809552</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R17" t="n">
-        <v>7.684689760363469</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S17" t="n">
-        <v>109.4812712061675</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T17" t="n">
-        <v>122.6461303809893</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U17" t="n">
         <v>158.7977322115121</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>256.840143746265</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>288.3444540438819</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>80.30767401716776</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>55.04424059349077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.3597277701237</v>
+        <v>43.9589027989757</v>
       </c>
       <c r="H18" t="n">
         <v>102.7341098348409</v>
@@ -23834,7 +23834,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R18" t="n">
         <v>84.59826427738969</v>
       </c>
       <c r="S18" t="n">
-        <v>153.4097146138236</v>
+        <v>61.00888964267561</v>
       </c>
       <c r="T18" t="n">
-        <v>196.1993670621597</v>
+        <v>103.7985420910118</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8766590945875</v>
+        <v>144.4900124600004</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23876,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>113.3721602323295</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.1871524914625</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23913,25 +23913,25 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J19" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K19" t="n">
         <v>33.18928527529272</v>
       </c>
       <c r="L19" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M19" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N19" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O19" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P19" t="n">
-        <v>37.97509830593101</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q19" t="n">
         <v>82.44126028843799</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4640409504305</v>
+        <v>332.0773943158435</v>
       </c>
       <c r="H20" t="n">
         <v>320.6442509224869</v>
@@ -23992,7 +23992,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J20" t="n">
-        <v>24.98883196809552</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R20" t="n">
-        <v>18.69886809692434</v>
+        <v>7.684689760363483</v>
       </c>
       <c r="S20" t="n">
         <v>74.71994664689296</v>
       </c>
       <c r="T20" t="n">
-        <v>215.0469553521373</v>
+        <v>122.6461303809893</v>
       </c>
       <c r="U20" t="n">
         <v>251.1985571826601</v>
       </c>
       <c r="V20" t="n">
-        <v>235.3514334989869</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>256.840143746265</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24056,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>82.85779415867914</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>52.6683874222359</v>
       </c>
       <c r="G21" t="n">
-        <v>43.95890279897569</v>
+        <v>136.3597277701237</v>
       </c>
       <c r="H21" t="n">
-        <v>10.3332848636929</v>
+        <v>102.7341098348409</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J21" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,13 +24092,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>153.4097146138236</v>
+        <v>61.0088896426756</v>
       </c>
       <c r="T21" t="n">
         <v>196.1993670621597</v>
@@ -24107,7 +24107,7 @@
         <v>225.8766590945875</v>
       </c>
       <c r="V21" t="n">
-        <v>209.2620636117264</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24150,25 +24150,25 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J22" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K22" t="n">
         <v>33.18928527529272</v>
       </c>
       <c r="L22" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M22" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N22" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O22" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P22" t="n">
-        <v>37.97509830593101</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q22" t="n">
         <v>82.44126028843799</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>262.1702466807822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24229,7 +24229,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J23" t="n">
-        <v>24.98883196809552</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>100.0855147315115</v>
+        <v>7.572719791610695</v>
       </c>
       <c r="S23" t="n">
-        <v>167.1207716180409</v>
+        <v>74.60797667814018</v>
       </c>
       <c r="T23" t="n">
         <v>215.0469553521373</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427594</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>312.2080266401049</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.9677183949755</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.02038870996657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>80.19570404841497</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>54.93227062473798</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>76.15981067233635</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>52.55641745348311</v>
       </c>
       <c r="G24" t="n">
         <v>136.3597277701237</v>
@@ -24308,7 +24308,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J24" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,25 +24329,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R24" t="n">
         <v>84.59826427738969</v>
       </c>
       <c r="S24" t="n">
-        <v>71.92444483075897</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T24" t="n">
         <v>196.1993670621597</v>
       </c>
       <c r="U24" t="n">
-        <v>133.3638641546868</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24387,25 +24387,25 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J25" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K25" t="n">
         <v>33.18928527529272</v>
       </c>
       <c r="L25" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M25" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N25" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O25" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P25" t="n">
-        <v>37.97509830593101</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q25" t="n">
         <v>82.44126028843799</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>273.4128213596051</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>289.417575132361</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>314.3632508018106</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4640409504305</v>
+        <v>320.9512460105298</v>
       </c>
       <c r="H26" t="n">
         <v>320.6442509224869</v>
@@ -24466,7 +24466,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R26" t="n">
         <v>100.0855147315115</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>337.1968586082002</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>293.7251437161528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24533,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>63.58394261031928</v>
       </c>
       <c r="G27" t="n">
-        <v>136.3597277701237</v>
+        <v>43.8469328302229</v>
       </c>
       <c r="H27" t="n">
         <v>102.7341098348409</v>
@@ -24545,7 +24545,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J27" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,13 +24566,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R27" t="n">
         <v>84.59826427738969</v>
       </c>
       <c r="S27" t="n">
-        <v>86.32636586238259</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T27" t="n">
         <v>103.686572122259</v>
@@ -24581,7 +24581,7 @@
         <v>133.3638641546868</v>
       </c>
       <c r="V27" t="n">
-        <v>140.2877922095245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24624,25 +24624,25 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J28" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K28" t="n">
         <v>33.18928527529272</v>
       </c>
       <c r="L28" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M28" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N28" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O28" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P28" t="n">
-        <v>37.97509830593101</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q28" t="n">
         <v>82.44126028843799</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24697,13 +24697,13 @@
         <v>413.4640409504305</v>
       </c>
       <c r="H29" t="n">
-        <v>228.1314559825862</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I29" t="n">
-        <v>83.30815196665222</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>100.0855147315115</v>
       </c>
       <c r="S29" t="n">
-        <v>167.1207716180409</v>
+        <v>74.60797667814018</v>
       </c>
       <c r="T29" t="n">
-        <v>215.0469553521373</v>
+        <v>122.5341604122365</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427594</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>312.2080266401049</v>
       </c>
       <c r="Y29" t="n">
-        <v>293.7251437161528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>80.19570404841497</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>65.95979578157416</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>70.07133297943183</v>
       </c>
       <c r="G30" t="n">
         <v>136.3597277701237</v>
@@ -24782,7 +24782,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J30" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,22 +24803,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>84.59826427738969</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>153.4097146138236</v>
+        <v>60.89691967392281</v>
       </c>
       <c r="T30" t="n">
-        <v>196.1993670621597</v>
+        <v>103.686572122259</v>
       </c>
       <c r="U30" t="n">
         <v>225.8766590945875</v>
       </c>
       <c r="V30" t="n">
-        <v>140.2877922095245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>113.1699008374036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24861,25 +24861,25 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J31" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K31" t="n">
         <v>33.18928527529272</v>
       </c>
       <c r="L31" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M31" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N31" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O31" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P31" t="n">
-        <v>37.97509830593101</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q31" t="n">
         <v>82.44126028843799</v>
@@ -24925,22 +24925,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>289.417575132361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>350.594657448729</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>320.9512460105298</v>
       </c>
       <c r="H32" t="n">
-        <v>228.1314559825862</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I32" t="n">
         <v>139.5895402596347</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R32" t="n">
         <v>100.0855147315115</v>
@@ -24973,13 +24973,13 @@
         <v>215.0469553521373</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427594</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>235.2394635302341</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>267.9707484563352</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,10 +24998,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>80.19570404841497</v>
+        <v>139.5162535856201</v>
       </c>
       <c r="D33" t="n">
-        <v>54.93227062473798</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25019,7 +25019,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J33" t="n">
-        <v>33.89110334874525</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,22 +25040,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>84.59826427738969</v>
       </c>
       <c r="S33" t="n">
-        <v>153.4097146138236</v>
+        <v>60.89691967392281</v>
       </c>
       <c r="T33" t="n">
-        <v>196.1993670621597</v>
+        <v>103.686572122259</v>
       </c>
       <c r="U33" t="n">
         <v>225.8766590945875</v>
       </c>
       <c r="V33" t="n">
-        <v>151.3153173663607</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25098,25 +25098,25 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J34" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K34" t="n">
         <v>33.18928527529272</v>
       </c>
       <c r="L34" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M34" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N34" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O34" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P34" t="n">
-        <v>37.97509830593101</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q34" t="n">
         <v>82.44126028843799</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.4636214024026</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>289.417575132361</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>314.3632508018106</v>
       </c>
       <c r="G35" t="n">
         <v>413.4640409504305</v>
@@ -25177,7 +25177,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J35" t="n">
-        <v>24.98883196809552</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>100.0855147315115</v>
+        <v>7.572719791610695</v>
       </c>
       <c r="S35" t="n">
         <v>167.1207716180409</v>
@@ -25210,16 +25210,16 @@
         <v>215.0469553521373</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1985571826601</v>
+        <v>193.6754831442959</v>
       </c>
       <c r="V35" t="n">
-        <v>235.2394635302341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>277.2183057385682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>91.22322920525114</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25256,7 +25256,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J36" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R36" t="n">
-        <v>84.59826427738969</v>
+        <v>3.112994494325079</v>
       </c>
       <c r="S36" t="n">
         <v>60.89691967392281</v>
@@ -25295,10 +25295,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X36" t="n">
-        <v>113.2601902635767</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25335,25 +25335,25 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J37" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K37" t="n">
         <v>33.18928527529272</v>
       </c>
       <c r="L37" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M37" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N37" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O37" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P37" t="n">
-        <v>37.97509830593101</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q37" t="n">
         <v>82.44126028843799</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>262.1702466807822</v>
       </c>
       <c r="E38" t="n">
         <v>289.417575132361</v>
@@ -25405,7 +25405,7 @@
         <v>314.3632508018107</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4640409504305</v>
+        <v>332.1938206893527</v>
       </c>
       <c r="H38" t="n">
         <v>320.6442509224869</v>
@@ -25414,7 +25414,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J38" t="n">
-        <v>24.98883196809552</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R38" t="n">
-        <v>7.572719791610709</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S38" t="n">
-        <v>85.8505513569629</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T38" t="n">
         <v>215.0469553521373</v>
@@ -25493,7 +25493,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J39" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R39" t="n">
         <v>84.59826427738969</v>
@@ -25526,7 +25526,7 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8766590945875</v>
+        <v>144.391389311523</v>
       </c>
       <c r="V39" t="n">
         <v>140.2877922095245</v>
@@ -25538,7 +25538,7 @@
         <v>113.2601902635767</v>
       </c>
       <c r="Y39" t="n">
-        <v>124.1974259942398</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25572,25 +25572,25 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J40" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K40" t="n">
         <v>33.18928527529272</v>
       </c>
       <c r="L40" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M40" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N40" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O40" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P40" t="n">
-        <v>37.97509830593101</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q40" t="n">
         <v>82.44126028843799</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.3471950288934</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>314.4752207705635</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.4640409504305</v>
@@ -25651,7 +25651,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J41" t="n">
-        <v>24.98883196809552</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R41" t="n">
         <v>100.0855147315115</v>
       </c>
       <c r="S41" t="n">
-        <v>167.1207716180409</v>
+        <v>74.71994664689298</v>
       </c>
       <c r="T41" t="n">
         <v>215.0469553521373</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1985571826601</v>
+        <v>158.7977322115121</v>
       </c>
       <c r="V41" t="n">
         <v>235.3514334989869</v>
       </c>
       <c r="W41" t="n">
-        <v>256.840143746265</v>
+        <v>267.8543220828259</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,16 +25712,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>66.05841893005167</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>52.66838742223591</v>
       </c>
       <c r="G42" t="n">
-        <v>136.3597277701237</v>
+        <v>43.9589027989757</v>
       </c>
       <c r="H42" t="n">
         <v>102.7341098348409</v>
@@ -25730,7 +25730,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J42" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R42" t="n">
         <v>84.59826427738969</v>
@@ -25760,19 +25760,19 @@
         <v>153.4097146138236</v>
       </c>
       <c r="T42" t="n">
-        <v>196.1993670621597</v>
+        <v>103.7985420910118</v>
       </c>
       <c r="U42" t="n">
-        <v>133.4758341234395</v>
+        <v>144.4900124600004</v>
       </c>
       <c r="V42" t="n">
-        <v>140.3997621782773</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>113.3721602323295</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25809,25 +25809,25 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J43" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K43" t="n">
         <v>33.18928527529272</v>
       </c>
       <c r="L43" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M43" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N43" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O43" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P43" t="n">
-        <v>37.97509830593101</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q43" t="n">
         <v>82.44126028843799</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>321.0632159792825</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H44" t="n">
         <v>320.6442509224869</v>
@@ -25888,7 +25888,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J44" t="n">
-        <v>24.98883196809552</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R44" t="n">
-        <v>42.446014319638</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S44" t="n">
         <v>74.71994664689296</v>
@@ -25924,10 +25924,10 @@
         <v>158.7977322115121</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>235.3514334989869</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>267.8543220828259</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25949,13 +25949,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>55.04424059349077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>90.66035485243744</v>
+        <v>65.24425548425296</v>
       </c>
       <c r="F45" t="n">
-        <v>52.6683874222359</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>43.95890279897569</v>
@@ -25967,7 +25967,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J45" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R45" t="n">
         <v>84.59826427738969</v>
@@ -25997,10 +25997,10 @@
         <v>153.4097146138236</v>
       </c>
       <c r="T45" t="n">
-        <v>196.1993670621597</v>
+        <v>103.7985420910117</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8766590945875</v>
+        <v>144.4900124600005</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26046,25 +26046,25 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J46" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K46" t="n">
         <v>33.18928527529272</v>
       </c>
       <c r="L46" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M46" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N46" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O46" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P46" t="n">
-        <v>37.97509830593101</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q46" t="n">
         <v>82.44126028843799</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355469.0647082429</v>
+        <v>355469.0647082428</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355469.0647082429</v>
+        <v>355469.0647082428</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355560.087530505</v>
+        <v>355560.0875305049</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355606.7511484511</v>
+        <v>355606.7511484509</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355606.7511484511</v>
+        <v>355606.7511484509</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>355606.7511484511</v>
+        <v>355606.7511484509</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355606.7511484509</v>
+        <v>355606.7511484511</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>355606.7511484511</v>
+        <v>355606.7511484508</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85802.91214547657</v>
+        <v>85802.91214547656</v>
       </c>
       <c r="C2" t="n">
         <v>85802.91214547656</v>
@@ -26328,16 +26328,16 @@
         <v>123046.9839374685</v>
       </c>
       <c r="G2" t="n">
-        <v>123078.4918374823</v>
+        <v>123078.4918374824</v>
       </c>
       <c r="H2" t="n">
         <v>123078.4918374824</v>
       </c>
       <c r="I2" t="n">
-        <v>123094.6446283099</v>
+        <v>123094.6446283098</v>
       </c>
       <c r="J2" t="n">
-        <v>123094.6446283099</v>
+        <v>123094.6446283098</v>
       </c>
       <c r="K2" t="n">
         <v>123094.6446283098</v>
@@ -26355,7 +26355,7 @@
         <v>123078.4918374824</v>
       </c>
       <c r="P2" t="n">
-        <v>123078.4918374823</v>
+        <v>123078.4918374824</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308183.8838205544</v>
+        <v>308183.8838205543</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137993.7487653025</v>
+        <v>137993.7487653024</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101.7338595810169</v>
+        <v>101.7338595810247</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.77516606070269</v>
+        <v>29.77516606071025</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>66.87306366112958</v>
+        <v>66.87306366112948</v>
       </c>
       <c r="F4" t="n">
-        <v>66.87306366112958</v>
+        <v>66.87306366112949</v>
       </c>
       <c r="G4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.95419777909362</v>
       </c>
       <c r="H4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.95419777909362</v>
       </c>
       <c r="I4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="J4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="L4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="M4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="N4" t="n">
-        <v>67.00913363879312</v>
+        <v>67.00913363879309</v>
       </c>
       <c r="O4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.95419777909362</v>
       </c>
       <c r="P4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.95419777909362</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>15579.96215784089</v>
+        <v>15579.96215784088</v>
       </c>
       <c r="F5" t="n">
-        <v>15579.96215784089</v>
+        <v>15579.96215784088</v>
       </c>
       <c r="G5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449726</v>
       </c>
       <c r="H5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449726</v>
       </c>
       <c r="I5" t="n">
         <v>15595.56972859743</v>
@@ -26508,10 +26508,10 @@
         <v>15595.56972859743</v>
       </c>
       <c r="O5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449726</v>
       </c>
       <c r="P5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449726</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-262980.6742383351</v>
+        <v>-278739.8900324157</v>
       </c>
       <c r="C6" t="n">
-        <v>45203.20958221923</v>
+        <v>29443.99378813862</v>
       </c>
       <c r="D6" t="n">
-        <v>45203.20958221923</v>
+        <v>29443.99378813862</v>
       </c>
       <c r="E6" t="n">
-        <v>-30593.60004933598</v>
+        <v>-44283.70074386147</v>
       </c>
       <c r="F6" t="n">
-        <v>107400.1487159665</v>
+        <v>93710.04802144093</v>
       </c>
       <c r="G6" t="n">
-        <v>107321.041825625</v>
+        <v>93632.69156998915</v>
       </c>
       <c r="H6" t="n">
-        <v>107422.775685206</v>
+        <v>93734.42542957018</v>
       </c>
       <c r="I6" t="n">
-        <v>107402.2906000129</v>
+        <v>93714.83772164524</v>
       </c>
       <c r="J6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.61288770597</v>
       </c>
       <c r="K6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.61288770591</v>
       </c>
       <c r="L6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.61288770594</v>
       </c>
       <c r="M6" t="n">
-        <v>84433.3139440567</v>
+        <v>70745.86106568904</v>
       </c>
       <c r="N6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.61288770594</v>
       </c>
       <c r="O6" t="n">
-        <v>107422.7756852061</v>
+        <v>93734.42542957018</v>
       </c>
       <c r="P6" t="n">
-        <v>107422.775685206</v>
+        <v>93734.42542957018</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>319.8212184980426</v>
       </c>
       <c r="E3" t="n">
-        <v>457.2843932887732</v>
+        <v>457.2843932887731</v>
       </c>
       <c r="F3" t="n">
-        <v>457.2843932887732</v>
+        <v>457.2843932887731</v>
       </c>
       <c r="G3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="H3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="I3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="J3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="K3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="L3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="M3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="N3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="O3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="P3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="F4" t="n">
-        <v>92.28885500239531</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="G4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="H4" t="n">
         <v>92.40082497114798</v>
@@ -26825,10 +26825,10 @@
         <v>92.51279493990077</v>
       </c>
       <c r="N4" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="O4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="P4" t="n">
         <v>92.40082497114798</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.11196996875276</v>
+        <v>0.1119699687527884</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.11196996875276</v>
+        <v>0.1119699687527884</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.11196996875276</v>
+        <v>0.1119699687527884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I2" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K2" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L2" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M2" t="n">
         <v>225.7600302817866</v>
@@ -31074,13 +31074,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S2" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T2" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U2" t="n">
         <v>0.1028570752958528</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H3" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I3" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K3" t="n">
         <v>111.0835641645513</v>
@@ -31147,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R3" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S3" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I4" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L4" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M4" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N4" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P4" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R4" t="n">
         <v>25.93173355231669</v>
@@ -31287,7 +31287,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K5" t="n">
         <v>163.5475711458106</v>
@@ -31311,13 +31311,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S5" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T5" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U5" t="n">
         <v>0.1028570752958528</v>
@@ -31366,7 +31366,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K6" t="n">
         <v>111.0835641645513</v>
@@ -31396,7 +31396,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U6" t="n">
         <v>0.04525771959877963</v>
@@ -31439,13 +31439,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I7" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K7" t="n">
         <v>67.00516676073742</v>
@@ -31460,10 +31460,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P7" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q7" t="n">
         <v>48.29300399320443</v>
@@ -31524,7 +31524,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J8" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K8" t="n">
         <v>163.5475711458106</v>
@@ -31548,13 +31548,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R8" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S8" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T8" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U8" t="n">
         <v>0.1028570752958528</v>
@@ -31603,7 +31603,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J9" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K9" t="n">
         <v>111.0835641645513</v>
@@ -31633,7 +31633,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T9" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U9" t="n">
         <v>0.04525771959877963</v>
@@ -31676,13 +31676,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I10" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J10" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K10" t="n">
         <v>67.00516676073742</v>
@@ -31697,10 +31697,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O10" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P10" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q10" t="n">
         <v>48.29300399320443</v>
@@ -31761,19 +31761,19 @@
         <v>70.87218722518766</v>
       </c>
       <c r="J11" t="n">
-        <v>156.0258945724343</v>
+        <v>156.0258945724342</v>
       </c>
       <c r="K11" t="n">
-        <v>233.8423704233439</v>
+        <v>233.8423704233438</v>
       </c>
       <c r="L11" t="n">
-        <v>290.1021382670074</v>
+        <v>290.1021382670073</v>
       </c>
       <c r="M11" t="n">
-        <v>322.635088229668</v>
+        <v>322.6350882296679</v>
       </c>
       <c r="N11" t="n">
-        <v>321.7019185989862</v>
+        <v>321.7019185989861</v>
       </c>
       <c r="O11" t="n">
         <v>309.7377922401358</v>
@@ -31782,13 +31782,13 @@
         <v>264.3540396398681</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.5188744754292</v>
+        <v>198.5188744754291</v>
       </c>
       <c r="R11" t="n">
         <v>115.4769478187976</v>
       </c>
       <c r="S11" t="n">
-        <v>41.89092708369014</v>
+        <v>41.89092708369013</v>
       </c>
       <c r="T11" t="n">
         <v>8.047286157272779</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9835928459418894</v>
+        <v>0.9835928459418893</v>
       </c>
       <c r="H12" t="n">
-        <v>9.499436170017724</v>
+        <v>9.499436170017722</v>
       </c>
       <c r="I12" t="n">
-        <v>33.86492912563085</v>
+        <v>33.86492912563084</v>
       </c>
       <c r="J12" t="n">
-        <v>92.92795392295722</v>
+        <v>92.9279539229572</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31849,13 +31849,13 @@
         <v>213.5647536769879</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4228889244136</v>
+        <v>234.4228889244135</v>
       </c>
       <c r="N12" t="n">
-        <v>223.6305670857286</v>
+        <v>223.6305670857285</v>
       </c>
       <c r="O12" t="n">
-        <v>194.586051802294</v>
+        <v>194.5860518022937</v>
       </c>
       <c r="P12" t="n">
         <v>187.8230935377982</v>
@@ -31864,13 +31864,13 @@
         <v>125.5547639837401</v>
       </c>
       <c r="R12" t="n">
-        <v>61.0690365226026</v>
+        <v>61.06903652260259</v>
       </c>
       <c r="S12" t="n">
         <v>18.26980571299956</v>
       </c>
       <c r="T12" t="n">
-        <v>3.964569409739457</v>
+        <v>3.964569409739456</v>
       </c>
       <c r="U12" t="n">
         <v>0.0647100556540717</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8246112010125417</v>
+        <v>0.8246112010125416</v>
       </c>
       <c r="H13" t="n">
-        <v>7.331543223547876</v>
+        <v>7.331543223547875</v>
       </c>
       <c r="I13" t="n">
         <v>24.79830775408626</v>
@@ -31922,7 +31922,7 @@
         <v>58.30001191158669</v>
       </c>
       <c r="K13" t="n">
-        <v>95.80482862672983</v>
+        <v>95.80482862672982</v>
       </c>
       <c r="L13" t="n">
         <v>122.5971961941737</v>
@@ -31940,10 +31940,10 @@
         <v>99.732976529735</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.04994338660475</v>
+        <v>69.04994338660474</v>
       </c>
       <c r="R13" t="n">
-        <v>37.07751818370937</v>
+        <v>37.07751818370936</v>
       </c>
       <c r="S13" t="n">
         <v>14.37072429400947</v>
@@ -31998,19 +31998,19 @@
         <v>70.87218722518766</v>
       </c>
       <c r="J14" t="n">
-        <v>156.0258945724343</v>
+        <v>156.0258945724342</v>
       </c>
       <c r="K14" t="n">
-        <v>233.8423704233439</v>
+        <v>233.8423704233438</v>
       </c>
       <c r="L14" t="n">
-        <v>290.1021382670074</v>
+        <v>290.1021382670073</v>
       </c>
       <c r="M14" t="n">
-        <v>322.635088229668</v>
+        <v>322.6350882296679</v>
       </c>
       <c r="N14" t="n">
-        <v>321.7019185989863</v>
+        <v>321.7019185989861</v>
       </c>
       <c r="O14" t="n">
         <v>309.7377922401358</v>
@@ -32019,13 +32019,13 @@
         <v>264.3540396398681</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.5188744754292</v>
+        <v>198.5188744754291</v>
       </c>
       <c r="R14" t="n">
         <v>115.4769478187976</v>
       </c>
       <c r="S14" t="n">
-        <v>41.89092708369014</v>
+        <v>41.89092708369013</v>
       </c>
       <c r="T14" t="n">
         <v>8.047286157272779</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9835928459418894</v>
+        <v>0.9835928459418893</v>
       </c>
       <c r="H15" t="n">
-        <v>9.499436170017724</v>
+        <v>9.499436170017722</v>
       </c>
       <c r="I15" t="n">
-        <v>33.86492912563085</v>
+        <v>33.86492912563084</v>
       </c>
       <c r="J15" t="n">
-        <v>92.92795392295722</v>
+        <v>92.9279539229572</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>213.5647536769879</v>
+        <v>174.1290462081867</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4228889244136</v>
+        <v>234.4228889244135</v>
       </c>
       <c r="N15" t="n">
-        <v>184.1948596169275</v>
+        <v>223.6305670857285</v>
       </c>
       <c r="O15" t="n">
-        <v>234.0217592710951</v>
+        <v>234.021759271095</v>
       </c>
       <c r="P15" t="n">
         <v>187.8230935377982</v>
@@ -32101,13 +32101,13 @@
         <v>125.5547639837401</v>
       </c>
       <c r="R15" t="n">
-        <v>61.0690365226026</v>
+        <v>61.06903652260259</v>
       </c>
       <c r="S15" t="n">
         <v>18.26980571299956</v>
       </c>
       <c r="T15" t="n">
-        <v>3.964569409739457</v>
+        <v>3.964569409739456</v>
       </c>
       <c r="U15" t="n">
         <v>0.0647100556540717</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8246112010125417</v>
+        <v>0.8246112010125416</v>
       </c>
       <c r="H16" t="n">
-        <v>7.331543223547876</v>
+        <v>7.331543223547875</v>
       </c>
       <c r="I16" t="n">
         <v>24.79830775408626</v>
@@ -32159,7 +32159,7 @@
         <v>58.30001191158669</v>
       </c>
       <c r="K16" t="n">
-        <v>95.80482862672983</v>
+        <v>95.80482862672982</v>
       </c>
       <c r="L16" t="n">
         <v>122.5971961941737</v>
@@ -32177,10 +32177,10 @@
         <v>99.732976529735</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.04994338660475</v>
+        <v>69.04994338660474</v>
       </c>
       <c r="R16" t="n">
-        <v>37.07751818370937</v>
+        <v>37.07751818370936</v>
       </c>
       <c r="S16" t="n">
         <v>14.37072429400947</v>
@@ -32235,13 +32235,13 @@
         <v>70.88634931077124</v>
       </c>
       <c r="J17" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K17" t="n">
         <v>233.8890981425333</v>
       </c>
       <c r="L17" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M17" t="n">
         <v>322.7470581984207</v>
@@ -32250,10 +32250,10 @@
         <v>321.8138885677389</v>
       </c>
       <c r="O17" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P17" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q17" t="n">
         <v>198.5585436517358</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H18" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I18" t="n">
         <v>33.87169620935348</v>
       </c>
       <c r="J18" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>213.6074294068846</v>
+        <v>174.2641666566376</v>
       </c>
       <c r="M18" t="n">
-        <v>195.1915961429192</v>
+        <v>234.5348588931663</v>
       </c>
       <c r="N18" t="n">
         <v>223.7425370544813</v>
       </c>
       <c r="O18" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P18" t="n">
         <v>187.8606254220168</v>
@@ -32344,7 +32344,7 @@
         <v>18.27345649001425</v>
       </c>
       <c r="T18" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U18" t="n">
         <v>0.06472298638729966</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H19" t="n">
-        <v>7.333008254424681</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I19" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J19" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K19" t="n">
         <v>95.82397289524266</v>
@@ -32411,13 +32411,13 @@
         <v>116.5783357257616</v>
       </c>
       <c r="P19" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q19" t="n">
         <v>69.06374134100786</v>
       </c>
       <c r="R19" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S19" t="n">
         <v>14.3735959342864</v>
@@ -32426,7 +32426,7 @@
         <v>3.524042821656029</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,13 +32472,13 @@
         <v>70.88634931077124</v>
       </c>
       <c r="J20" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K20" t="n">
         <v>233.8890981425333</v>
       </c>
       <c r="L20" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M20" t="n">
         <v>322.7470581984207</v>
@@ -32487,10 +32487,10 @@
         <v>321.8138885677389</v>
       </c>
       <c r="O20" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P20" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q20" t="n">
         <v>198.5585436517358</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H21" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I21" t="n">
         <v>33.87169620935348</v>
       </c>
       <c r="J21" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547474</v>
       </c>
       <c r="L21" t="n">
         <v>213.6074294068846</v>
@@ -32566,7 +32566,7 @@
         <v>223.7425370544813</v>
       </c>
       <c r="O21" t="n">
-        <v>194.7252600865425</v>
+        <v>173.7062864061542</v>
       </c>
       <c r="P21" t="n">
         <v>187.8606254220168</v>
@@ -32581,7 +32581,7 @@
         <v>18.27345649001425</v>
       </c>
       <c r="T21" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U21" t="n">
         <v>0.06472298638729966</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H22" t="n">
-        <v>7.333008254424681</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I22" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J22" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K22" t="n">
         <v>95.82397289524266</v>
@@ -32648,13 +32648,13 @@
         <v>116.5783357257616</v>
       </c>
       <c r="P22" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q22" t="n">
         <v>69.06374134100786</v>
       </c>
       <c r="R22" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S22" t="n">
         <v>14.3735959342864</v>
@@ -32663,7 +32663,7 @@
         <v>3.524042821656029</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,13 +32709,13 @@
         <v>70.88634931077124</v>
       </c>
       <c r="J23" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K23" t="n">
         <v>233.8890981425333</v>
       </c>
       <c r="L23" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M23" t="n">
         <v>322.8590281671735</v>
@@ -32724,10 +32724,10 @@
         <v>321.9258585364917</v>
       </c>
       <c r="O23" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P23" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q23" t="n">
         <v>198.5585436517358</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H24" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I24" t="n">
         <v>33.87169620935348</v>
       </c>
       <c r="J24" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K24" t="n">
         <v>158.8604126547474</v>
@@ -32800,10 +32800,10 @@
         <v>234.6468288619191</v>
       </c>
       <c r="N24" t="n">
-        <v>163.7116864909627</v>
+        <v>223.8545070232341</v>
       </c>
       <c r="O24" t="n">
-        <v>234.0685228367896</v>
+        <v>173.9257023045183</v>
       </c>
       <c r="P24" t="n">
         <v>187.8606254220168</v>
@@ -32818,7 +32818,7 @@
         <v>18.27345649001425</v>
       </c>
       <c r="T24" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U24" t="n">
         <v>0.06472298638729966</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H25" t="n">
-        <v>7.333008254424681</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I25" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J25" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K25" t="n">
         <v>95.82397289524266</v>
@@ -32885,13 +32885,13 @@
         <v>116.5783357257616</v>
       </c>
       <c r="P25" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q25" t="n">
         <v>69.06374134100786</v>
       </c>
       <c r="R25" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S25" t="n">
         <v>14.3735959342864</v>
@@ -32900,7 +32900,7 @@
         <v>3.524042821656029</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,13 +32946,13 @@
         <v>70.88634931077124</v>
       </c>
       <c r="J26" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K26" t="n">
         <v>233.8890981425333</v>
       </c>
       <c r="L26" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M26" t="n">
         <v>322.8590281671735</v>
@@ -32961,10 +32961,10 @@
         <v>321.9258585364917</v>
       </c>
       <c r="O26" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P26" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q26" t="n">
         <v>198.5585436517358</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H27" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I27" t="n">
         <v>33.87169620935348</v>
       </c>
       <c r="J27" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K27" t="n">
         <v>158.8604126547474</v>
       </c>
       <c r="L27" t="n">
-        <v>153.4646088746132</v>
+        <v>213.6074294068846</v>
       </c>
       <c r="M27" t="n">
         <v>234.6468288619191</v>
       </c>
       <c r="N27" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O27" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P27" t="n">
         <v>187.8606254220168</v>
@@ -33055,7 +33055,7 @@
         <v>18.27345649001425</v>
       </c>
       <c r="T27" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U27" t="n">
         <v>0.06472298638729966</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H28" t="n">
-        <v>7.333008254424681</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I28" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J28" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K28" t="n">
         <v>95.82397289524266</v>
@@ -33122,13 +33122,13 @@
         <v>116.5783357257616</v>
       </c>
       <c r="P28" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q28" t="n">
         <v>69.06374134100786</v>
       </c>
       <c r="R28" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S28" t="n">
         <v>14.3735959342864</v>
@@ -33137,7 +33137,7 @@
         <v>3.524042821656029</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,13 +33183,13 @@
         <v>70.88634931077124</v>
       </c>
       <c r="J29" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K29" t="n">
         <v>233.8890981425333</v>
       </c>
       <c r="L29" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M29" t="n">
         <v>322.8590281671735</v>
@@ -33198,10 +33198,10 @@
         <v>321.9258585364917</v>
       </c>
       <c r="O29" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P29" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q29" t="n">
         <v>198.5585436517358</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H30" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I30" t="n">
         <v>33.87169620935348</v>
       </c>
       <c r="J30" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K30" t="n">
         <v>158.8604126547474</v>
@@ -33271,16 +33271,16 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M30" t="n">
-        <v>174.5040083296477</v>
+        <v>234.6468288619191</v>
       </c>
       <c r="N30" t="n">
-        <v>223.8545070232341</v>
+        <v>217.5979044986493</v>
       </c>
       <c r="O30" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P30" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>125.5798530543979</v>
@@ -33292,7 +33292,7 @@
         <v>18.27345649001425</v>
       </c>
       <c r="T30" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U30" t="n">
         <v>0.06472298638729966</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H31" t="n">
-        <v>7.333008254424681</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I31" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J31" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K31" t="n">
         <v>95.82397289524266</v>
@@ -33359,13 +33359,13 @@
         <v>116.5783357257616</v>
       </c>
       <c r="P31" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q31" t="n">
         <v>69.06374134100786</v>
       </c>
       <c r="R31" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S31" t="n">
         <v>14.3735959342864</v>
@@ -33374,7 +33374,7 @@
         <v>3.524042821656029</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,13 +33420,13 @@
         <v>70.88634931077124</v>
       </c>
       <c r="J32" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K32" t="n">
         <v>233.8890981425333</v>
       </c>
       <c r="L32" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M32" t="n">
         <v>322.8590281671735</v>
@@ -33435,10 +33435,10 @@
         <v>321.9258585364917</v>
       </c>
       <c r="O32" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P32" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q32" t="n">
         <v>198.5585436517358</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H33" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I33" t="n">
         <v>33.87169620935348</v>
       </c>
       <c r="J33" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K33" t="n">
         <v>158.8604126547474</v>
@@ -33511,13 +33511,13 @@
         <v>234.6468288619191</v>
       </c>
       <c r="N33" t="n">
-        <v>163.7116864909627</v>
+        <v>223.8545070232341</v>
       </c>
       <c r="O33" t="n">
-        <v>234.0685228367896</v>
+        <v>227.8119203122048</v>
       </c>
       <c r="P33" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>125.5798530543979</v>
@@ -33529,7 +33529,7 @@
         <v>18.27345649001425</v>
       </c>
       <c r="T33" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U33" t="n">
         <v>0.06472298638729966</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H34" t="n">
-        <v>7.333008254424681</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I34" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J34" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K34" t="n">
         <v>95.82397289524266</v>
@@ -33596,13 +33596,13 @@
         <v>116.5783357257616</v>
       </c>
       <c r="P34" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q34" t="n">
         <v>69.06374134100786</v>
       </c>
       <c r="R34" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S34" t="n">
         <v>14.3735959342864</v>
@@ -33611,7 +33611,7 @@
         <v>3.524042821656029</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,13 +33657,13 @@
         <v>70.88634931077124</v>
       </c>
       <c r="J35" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K35" t="n">
         <v>233.8890981425333</v>
       </c>
       <c r="L35" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M35" t="n">
         <v>322.8590281671735</v>
@@ -33672,10 +33672,10 @@
         <v>321.9258585364917</v>
       </c>
       <c r="O35" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P35" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q35" t="n">
         <v>198.5585436517358</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H36" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I36" t="n">
         <v>33.87169620935348</v>
       </c>
       <c r="J36" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K36" t="n">
         <v>158.8604126547474</v>
@@ -33745,13 +33745,13 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M36" t="n">
-        <v>174.5040083296477</v>
+        <v>174.5040083296478</v>
       </c>
       <c r="N36" t="n">
         <v>223.8545070232341</v>
       </c>
       <c r="O36" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P36" t="n">
         <v>187.8606254220168</v>
@@ -33766,7 +33766,7 @@
         <v>18.27345649001425</v>
       </c>
       <c r="T36" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U36" t="n">
         <v>0.06472298638729966</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H37" t="n">
-        <v>7.333008254424681</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I37" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J37" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K37" t="n">
         <v>95.82397289524266</v>
@@ -33833,13 +33833,13 @@
         <v>116.5783357257616</v>
       </c>
       <c r="P37" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q37" t="n">
         <v>69.06374134100786</v>
       </c>
       <c r="R37" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S37" t="n">
         <v>14.3735959342864</v>
@@ -33848,7 +33848,7 @@
         <v>3.524042821656029</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,13 +33894,13 @@
         <v>70.88634931077124</v>
       </c>
       <c r="J38" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K38" t="n">
         <v>233.8890981425333</v>
       </c>
       <c r="L38" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M38" t="n">
         <v>322.8590281671735</v>
@@ -33909,10 +33909,10 @@
         <v>321.9258585364917</v>
       </c>
       <c r="O38" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P38" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q38" t="n">
         <v>198.5585436517358</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H39" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I39" t="n">
         <v>33.87169620935348</v>
       </c>
       <c r="J39" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K39" t="n">
         <v>158.8604126547474</v>
@@ -33985,10 +33985,10 @@
         <v>234.6468288619191</v>
       </c>
       <c r="N39" t="n">
-        <v>163.7116864909626</v>
+        <v>223.8545070232341</v>
       </c>
       <c r="O39" t="n">
-        <v>234.0685228367896</v>
+        <v>173.9257023045182</v>
       </c>
       <c r="P39" t="n">
         <v>187.8606254220168</v>
@@ -34003,7 +34003,7 @@
         <v>18.27345649001425</v>
       </c>
       <c r="T39" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U39" t="n">
         <v>0.06472298638729966</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H40" t="n">
-        <v>7.333008254424681</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I40" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J40" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K40" t="n">
         <v>95.82397289524266</v>
@@ -34070,13 +34070,13 @@
         <v>116.5783357257616</v>
       </c>
       <c r="P40" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q40" t="n">
         <v>69.06374134100786</v>
       </c>
       <c r="R40" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S40" t="n">
         <v>14.3735959342864</v>
@@ -34085,7 +34085,7 @@
         <v>3.524042821656029</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,13 +34131,13 @@
         <v>70.88634931077124</v>
       </c>
       <c r="J41" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K41" t="n">
         <v>233.8890981425333</v>
       </c>
       <c r="L41" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M41" t="n">
         <v>322.7470581984207</v>
@@ -34146,10 +34146,10 @@
         <v>321.8138885677389</v>
       </c>
       <c r="O41" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P41" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q41" t="n">
         <v>198.5585436517358</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H42" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I42" t="n">
         <v>33.87169620935348</v>
       </c>
       <c r="J42" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K42" t="n">
-        <v>158.8604126547474</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>213.6074294068846</v>
       </c>
       <c r="M42" t="n">
-        <v>234.5348588931663</v>
+        <v>195.1915961429193</v>
       </c>
       <c r="N42" t="n">
         <v>223.7425370544813</v>
       </c>
       <c r="O42" t="n">
-        <v>173.7062864061541</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P42" t="n">
         <v>187.8606254220168</v>
@@ -34240,7 +34240,7 @@
         <v>18.27345649001425</v>
       </c>
       <c r="T42" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U42" t="n">
         <v>0.06472298638729966</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H43" t="n">
-        <v>7.333008254424681</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I43" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J43" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K43" t="n">
         <v>95.82397289524266</v>
@@ -34307,13 +34307,13 @@
         <v>116.5783357257616</v>
       </c>
       <c r="P43" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q43" t="n">
         <v>69.06374134100786</v>
       </c>
       <c r="R43" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S43" t="n">
         <v>14.3735959342864</v>
@@ -34322,7 +34322,7 @@
         <v>3.524042821656029</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,13 +34368,13 @@
         <v>70.88634931077124</v>
       </c>
       <c r="J44" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K44" t="n">
         <v>233.8890981425333</v>
       </c>
       <c r="L44" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M44" t="n">
         <v>322.7470581984207</v>
@@ -34383,10 +34383,10 @@
         <v>321.8138885677389</v>
       </c>
       <c r="O44" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P44" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q44" t="n">
         <v>198.5585436517358</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H45" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I45" t="n">
         <v>33.87169620935348</v>
       </c>
       <c r="J45" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34459,13 +34459,13 @@
         <v>234.5348588931663</v>
       </c>
       <c r="N45" t="n">
-        <v>223.7425370544813</v>
+        <v>184.3992743042343</v>
       </c>
       <c r="O45" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P45" t="n">
-        <v>148.5173626717697</v>
+        <v>187.8606254220168</v>
       </c>
       <c r="Q45" t="n">
         <v>125.5798530543979</v>
@@ -34477,7 +34477,7 @@
         <v>18.27345649001425</v>
       </c>
       <c r="T45" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U45" t="n">
         <v>0.06472298638729966</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H46" t="n">
-        <v>7.333008254424681</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I46" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J46" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K46" t="n">
         <v>95.82397289524266</v>
@@ -34544,13 +34544,13 @@
         <v>116.5783357257616</v>
       </c>
       <c r="P46" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q46" t="n">
         <v>69.06374134100786</v>
       </c>
       <c r="R46" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S46" t="n">
         <v>14.3735959342864</v>
@@ -34559,7 +34559,7 @@
         <v>3.524042821656029</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.7525193783633</v>
+        <v>13.75251937836327</v>
       </c>
       <c r="L11" t="n">
-        <v>54.33572329702014</v>
+        <v>54.33572329702008</v>
       </c>
       <c r="M11" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="N11" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="O11" t="n">
-        <v>79.6395808184491</v>
+        <v>79.63958081844905</v>
       </c>
       <c r="P11" t="n">
-        <v>33.12104388459858</v>
+        <v>33.12104388459852</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>75.01037389711374</v>
+        <v>75.01037389711371</v>
       </c>
       <c r="M12" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="N12" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="O12" t="n">
-        <v>51.98980735784951</v>
+        <v>51.98980735784928</v>
       </c>
       <c r="P12" t="n">
-        <v>53.84868612346796</v>
+        <v>53.84868612346793</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>13.7525193783633</v>
+        <v>13.75251937836327</v>
       </c>
       <c r="L14" t="n">
-        <v>54.33572329702014</v>
+        <v>54.33572329702008</v>
       </c>
       <c r="M14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="N14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="O14" t="n">
-        <v>79.6395808184491</v>
+        <v>79.63958081844905</v>
       </c>
       <c r="P14" t="n">
-        <v>33.12104388459858</v>
+        <v>33.12104388459852</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>75.01037389711374</v>
+        <v>35.57466642831246</v>
       </c>
       <c r="M15" t="n">
-        <v>92.28885500239531</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="N15" t="n">
-        <v>52.85314753359419</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="O15" t="n">
-        <v>91.42551482665064</v>
+        <v>91.42551482665061</v>
       </c>
       <c r="P15" t="n">
-        <v>53.84868612346796</v>
+        <v>53.84868612346793</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L17" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M17" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="N17" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="O17" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P17" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>75.05304962701041</v>
+        <v>35.70978687676342</v>
       </c>
       <c r="M18" t="n">
-        <v>53.05756222090091</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="N18" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="O18" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P18" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L20" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M20" t="n">
         <v>92.40082497114798</v>
@@ -36135,10 +36135,10 @@
         <v>92.40082497114798</v>
       </c>
       <c r="O20" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P20" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L21" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M21" t="n">
         <v>92.40082497114798</v>
@@ -36214,10 +36214,10 @@
         <v>92.40082497114798</v>
       </c>
       <c r="O21" t="n">
-        <v>52.12901564209805</v>
+        <v>31.11004196170978</v>
       </c>
       <c r="P21" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L23" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M23" t="n">
         <v>92.51279493990077</v>
@@ -36372,10 +36372,10 @@
         <v>92.51279493990077</v>
       </c>
       <c r="O23" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P23" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L24" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M24" t="n">
         <v>92.51279493990077</v>
       </c>
       <c r="N24" t="n">
-        <v>32.36997440762937</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O24" t="n">
-        <v>91.47227839234512</v>
+        <v>31.32945786007384</v>
       </c>
       <c r="P24" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L26" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M26" t="n">
         <v>92.51279493990077</v>
@@ -36609,10 +36609,10 @@
         <v>92.51279493990077</v>
       </c>
       <c r="O26" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P26" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L27" t="n">
-        <v>14.91022909473901</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M27" t="n">
         <v>92.51279493990077</v>
       </c>
       <c r="N27" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762951</v>
       </c>
       <c r="O27" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P27" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L29" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M29" t="n">
         <v>92.51279493990077</v>
@@ -36846,10 +36846,10 @@
         <v>92.51279493990077</v>
       </c>
       <c r="O29" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P29" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L30" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M30" t="n">
-        <v>32.36997440762937</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N30" t="n">
-        <v>92.51279493990077</v>
+        <v>86.25619241531602</v>
       </c>
       <c r="O30" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P30" t="n">
-        <v>53.88621800768655</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L32" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M32" t="n">
         <v>92.51279493990077</v>
@@ -37083,10 +37083,10 @@
         <v>92.51279493990077</v>
       </c>
       <c r="O32" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P32" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L33" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M33" t="n">
         <v>92.51279493990077</v>
       </c>
       <c r="N33" t="n">
-        <v>32.36997440762937</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O33" t="n">
-        <v>91.47227839234512</v>
+        <v>85.21567586776035</v>
       </c>
       <c r="P33" t="n">
-        <v>53.88621800768655</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L35" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M35" t="n">
         <v>92.51279493990077</v>
@@ -37320,10 +37320,10 @@
         <v>92.51279493990077</v>
       </c>
       <c r="O35" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P35" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L36" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M36" t="n">
-        <v>32.36997440762937</v>
+        <v>32.36997440762951</v>
       </c>
       <c r="N36" t="n">
         <v>92.51279493990077</v>
       </c>
       <c r="O36" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P36" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L38" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M38" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="N38" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="O38" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P38" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L39" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M39" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="N39" t="n">
-        <v>32.36997440762929</v>
+        <v>92.51279493990076</v>
       </c>
       <c r="O39" t="n">
-        <v>91.47227839234512</v>
+        <v>31.32945786007378</v>
       </c>
       <c r="P39" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L41" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M41" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="N41" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="O41" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P41" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>21.0189736803884</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M42" t="n">
-        <v>92.40082497114798</v>
+        <v>53.057562220901</v>
       </c>
       <c r="N42" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="O42" t="n">
-        <v>31.11004196170966</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P42" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L44" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M44" t="n">
         <v>92.40082497114798</v>
@@ -38031,10 +38031,10 @@
         <v>92.40082497114798</v>
       </c>
       <c r="O44" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P44" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M45" t="n">
         <v>92.40082497114798</v>
       </c>
       <c r="N45" t="n">
-        <v>92.40082497114798</v>
+        <v>53.05756222090103</v>
       </c>
       <c r="O45" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P45" t="n">
-        <v>14.54295525743947</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222098.6454585081</v>
+        <v>330270.8898433727</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3800630.47158448</v>
+        <v>3800630.471584479</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>81.28802348610952</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>92.28885500239517</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>92.28885500239517</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>92.28885500239517</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>81.28802348610962</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.42701010228139</v>
+        <v>14.42701010228141</v>
       </c>
       <c r="R12" t="n">
-        <v>84.61046744136135</v>
+        <v>66.86101338382814</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>92.28885500239517</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>92.28885500239517</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="X12" t="n">
-        <v>74.53940094486201</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.2888550023952</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>81.28802348610954</v>
       </c>
       <c r="U14" t="n">
-        <v>92.2888550023952</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="V14" t="n">
-        <v>92.2888550023952</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="W14" t="n">
-        <v>81.28802348610968</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>66.86101338382812</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.42701010228139</v>
+        <v>14.42701010228141</v>
       </c>
       <c r="R15" t="n">
-        <v>84.61046744136135</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>92.2888550023952</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="V15" t="n">
-        <v>92.2888550023952</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="X15" t="n">
-        <v>74.53940094486207</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>92.40082497114797</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>92.40082497114797</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>92.40082497114797</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>81.38664663458714</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>81.386646634587</v>
       </c>
     </row>
     <row r="18">
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="G18" t="n">
-        <v>92.40082497114797</v>
+        <v>81.38664663458698</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>92.40082497114797</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>92.40082497114797</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>81.38664663458714</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>81.38664663458697</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>23.74714622271372</v>
       </c>
       <c r="R20" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>57.63950041187315</v>
       </c>
     </row>
     <row r="21">
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="E21" t="n">
-        <v>74.7872862967218</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.40082497114798</v>
+        <v>81.38664663458698</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.40192103162362</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>84.59826427738969</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.74714622271367</v>
+        <v>23.74714622271372</v>
       </c>
       <c r="R23" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="S23" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>57.52307403836397</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="X23" t="n">
-        <v>57.52307403836417</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>81.4852697830646</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="W24" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>81.48526978306448</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>81.27022026107788</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>81.27022026107771</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>67.08334875144082</v>
       </c>
       <c r="F27" t="n">
-        <v>81.4852697830646</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="G27" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>14.40192103162364</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="U27" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>24.98883196809558</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.74714622271367</v>
+        <v>23.74714622271372</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="S29" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>92.51279493990077</v>
+        <v>32.53424207026837</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>57.52307403836417</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>74.99787941395205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2915,28 +2915,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.40192103162362</v>
+        <v>14.40192103162364</v>
       </c>
       <c r="R30" t="n">
-        <v>84.59826427738969</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>67.08334875144081</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="U32" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="V32" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="W32" t="n">
-        <v>81.27022026107787</v>
+        <v>81.27022026107764</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>33.19224540269565</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33.89110334874526</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3152,31 +3152,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.40192103162362</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="T33" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>81.48526978306448</v>
       </c>
       <c r="Y33" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>92.51279493990077</v>
+        <v>57.52307403836396</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.74714622271367</v>
+        <v>23.74714622271372</v>
       </c>
       <c r="R35" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="U35" t="n">
-        <v>57.52307403836419</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>81.48526978306448</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>81.48526978306461</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="W36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>92.51279493990076</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>92.51279493990076</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>92.51279493990076</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>81.27022026107785</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>81.27022026107764</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>81.48526978306448</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>81.48526978306455</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>92.51279493990076</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>92.51279493990076</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>92.51279493990076</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>92.51279493990066</v>
       </c>
     </row>
     <row r="40">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3784,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>23.74714622271372</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>92.40082497114797</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="U41" t="n">
-        <v>92.40082497114797</v>
+        <v>57.63950041187328</v>
       </c>
       <c r="V41" t="n">
-        <v>92.40082497114797</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>81.38664663458714</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
     </row>
     <row r="42">
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>81.386646634587</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="F42" t="n">
-        <v>92.40082497114797</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="G42" t="n">
-        <v>92.40082497114797</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>92.40082497114797</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>81.38664663458711</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>57.63950041187329</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,25 +4021,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.74714622271372</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>92.40082497114787</v>
       </c>
       <c r="S44" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114787</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>92.40082497114787</v>
       </c>
       <c r="U44" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>81.38664663458708</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>81.386646634587</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>92.40082497114787</v>
       </c>
       <c r="E45" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114787</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>81.38664663458708</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>92.40082497114787</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.383108400191613</v>
+        <v>182.7132886916104</v>
       </c>
       <c r="C11" t="n">
-        <v>7.383108400191613</v>
+        <v>100.6041740591765</v>
       </c>
       <c r="D11" t="n">
-        <v>7.383108400191613</v>
+        <v>100.6041740591765</v>
       </c>
       <c r="E11" t="n">
-        <v>7.383108400191613</v>
+        <v>100.6041740591765</v>
       </c>
       <c r="F11" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="G11" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="H11" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="I11" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="J11" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="K11" t="n">
         <v>20.9981025847712</v>
       </c>
       <c r="L11" t="n">
-        <v>74.79046864882113</v>
+        <v>74.79046864882103</v>
       </c>
       <c r="M11" t="n">
-        <v>166.1564351011924</v>
+        <v>166.1564351011921</v>
       </c>
       <c r="N11" t="n">
-        <v>257.5224015535636</v>
+        <v>257.5224015535632</v>
       </c>
       <c r="O11" t="n">
-        <v>336.3655865638281</v>
+        <v>336.3655865638277</v>
       </c>
       <c r="P11" t="n">
-        <v>369.1554200095807</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.1554200095807</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="R11" t="n">
-        <v>369.1554200095807</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="S11" t="n">
-        <v>369.1554200095807</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="T11" t="n">
-        <v>275.9343543505956</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="U11" t="n">
-        <v>275.9343543505956</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="V11" t="n">
-        <v>182.7132886916106</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="W11" t="n">
-        <v>89.49222303262559</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="X11" t="n">
-        <v>7.383108400191613</v>
+        <v>275.9343543505953</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.383108400191613</v>
+        <v>275.9343543505953</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.383108400191613</v>
+        <v>193.8252397181614</v>
       </c>
       <c r="C12" t="n">
-        <v>7.383108400191613</v>
+        <v>193.8252397181614</v>
       </c>
       <c r="D12" t="n">
-        <v>7.383108400191613</v>
+        <v>193.8252397181614</v>
       </c>
       <c r="E12" t="n">
-        <v>7.383108400191613</v>
+        <v>193.8252397181614</v>
       </c>
       <c r="F12" t="n">
-        <v>7.383108400191613</v>
+        <v>100.6041740591765</v>
       </c>
       <c r="G12" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="H12" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="I12" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="J12" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="K12" t="n">
-        <v>7.383108400191613</v>
+        <v>28.1604716706293</v>
       </c>
       <c r="L12" t="n">
-        <v>81.64337855833419</v>
+        <v>102.4207418287718</v>
       </c>
       <c r="M12" t="n">
-        <v>173.0093450107054</v>
+        <v>193.7867082811429</v>
       </c>
       <c r="N12" t="n">
-        <v>264.3753114630766</v>
+        <v>285.152674733514</v>
       </c>
       <c r="O12" t="n">
-        <v>315.8452207473474</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="P12" t="n">
-        <v>369.1554200095807</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="Q12" t="n">
-        <v>354.5826825325287</v>
+        <v>354.5826825325283</v>
       </c>
       <c r="R12" t="n">
-        <v>269.117563904891</v>
+        <v>287.0463053771463</v>
       </c>
       <c r="S12" t="n">
-        <v>269.117563904891</v>
+        <v>287.0463053771463</v>
       </c>
       <c r="T12" t="n">
-        <v>269.117563904891</v>
+        <v>287.0463053771463</v>
       </c>
       <c r="U12" t="n">
-        <v>175.8964982459059</v>
+        <v>287.0463053771463</v>
       </c>
       <c r="V12" t="n">
-        <v>82.67543258692092</v>
+        <v>287.0463053771463</v>
       </c>
       <c r="W12" t="n">
-        <v>82.67543258692092</v>
+        <v>193.8252397181614</v>
       </c>
       <c r="X12" t="n">
-        <v>7.383108400191613</v>
+        <v>193.8252397181614</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.383108400191613</v>
+        <v>193.8252397181614</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="C13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="D13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="E13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="F13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="G13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="H13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="I13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="J13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="K13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="L13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="M13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="N13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="O13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="P13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="R13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="S13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="T13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="U13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="V13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="W13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="X13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.383108400191613</v>
+        <v>7.383108400191604</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="C14" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="D14" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="E14" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="F14" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="G14" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="H14" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="I14" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="J14" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="K14" t="n">
-        <v>20.9981025847712</v>
+        <v>20.99810258477125</v>
       </c>
       <c r="L14" t="n">
-        <v>74.79046864882113</v>
+        <v>74.79046864882106</v>
       </c>
       <c r="M14" t="n">
-        <v>166.1564351011924</v>
+        <v>166.1564351011921</v>
       </c>
       <c r="N14" t="n">
-        <v>257.5224015535637</v>
+        <v>257.5224015535632</v>
       </c>
       <c r="O14" t="n">
-        <v>336.3655865638282</v>
+        <v>336.3655865638277</v>
       </c>
       <c r="P14" t="n">
-        <v>369.1554200095808</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="Q14" t="n">
-        <v>369.1554200095808</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="R14" t="n">
-        <v>369.1554200095808</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="S14" t="n">
-        <v>369.1554200095808</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="T14" t="n">
-        <v>369.1554200095808</v>
+        <v>287.0463053771463</v>
       </c>
       <c r="U14" t="n">
-        <v>275.9343543505958</v>
+        <v>193.8252397181614</v>
       </c>
       <c r="V14" t="n">
-        <v>182.7132886916107</v>
+        <v>100.6041740591765</v>
       </c>
       <c r="W14" t="n">
-        <v>100.6041740591767</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="X14" t="n">
-        <v>100.6041740591767</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="Y14" t="n">
-        <v>100.6041740591767</v>
+        <v>7.383108400191604</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.383108400191616</v>
+        <v>74.91948555557354</v>
       </c>
       <c r="C15" t="n">
-        <v>7.383108400191616</v>
+        <v>74.91948555557354</v>
       </c>
       <c r="D15" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="E15" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="F15" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="G15" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="H15" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="I15" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="J15" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="K15" t="n">
-        <v>7.383108400191616</v>
+        <v>28.1604716706293</v>
       </c>
       <c r="L15" t="n">
-        <v>42.60202816422095</v>
+        <v>102.4207418287718</v>
       </c>
       <c r="M15" t="n">
-        <v>133.9679946165922</v>
+        <v>193.7867082811429</v>
       </c>
       <c r="N15" t="n">
-        <v>225.3339610689634</v>
+        <v>285.152674733514</v>
       </c>
       <c r="O15" t="n">
-        <v>315.8452207473475</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="P15" t="n">
-        <v>369.1554200095808</v>
+        <v>369.1554200095802</v>
       </c>
       <c r="Q15" t="n">
-        <v>354.5826825325288</v>
+        <v>354.5826825325283</v>
       </c>
       <c r="R15" t="n">
-        <v>269.1175639048911</v>
+        <v>354.5826825325283</v>
       </c>
       <c r="S15" t="n">
-        <v>269.1175639048911</v>
+        <v>354.5826825325283</v>
       </c>
       <c r="T15" t="n">
-        <v>269.1175639048911</v>
+        <v>354.5826825325283</v>
       </c>
       <c r="U15" t="n">
-        <v>175.896498245906</v>
+        <v>261.3616168735434</v>
       </c>
       <c r="V15" t="n">
-        <v>82.67543258692098</v>
+        <v>168.1405512145585</v>
       </c>
       <c r="W15" t="n">
-        <v>82.67543258692098</v>
+        <v>74.91948555557354</v>
       </c>
       <c r="X15" t="n">
-        <v>7.383108400191616</v>
+        <v>74.91948555557354</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.383108400191616</v>
+        <v>74.91948555557354</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="C16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="D16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="E16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="F16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="G16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="H16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="I16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="J16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="K16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="L16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="M16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="N16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="O16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="P16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="R16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="S16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="T16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="U16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="V16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="W16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="X16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.383108400191616</v>
+        <v>7.383108400191604</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.726232635215</v>
+        <v>194.060399272738</v>
       </c>
       <c r="C17" t="n">
-        <v>7.392065997691837</v>
+        <v>194.060399272738</v>
       </c>
       <c r="D17" t="n">
-        <v>7.392065997691837</v>
+        <v>194.060399272738</v>
       </c>
       <c r="E17" t="n">
-        <v>7.392065997691837</v>
+        <v>194.060399272738</v>
       </c>
       <c r="F17" t="n">
-        <v>7.392065997691837</v>
+        <v>100.7262326352149</v>
       </c>
       <c r="G17" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="H17" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="I17" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="J17" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="K17" t="n">
-        <v>21.05332062426911</v>
+        <v>21.05332062426908</v>
       </c>
       <c r="L17" t="n">
-        <v>74.90307685724511</v>
+        <v>74.90307685724497</v>
       </c>
       <c r="M17" t="n">
-        <v>166.3798935786816</v>
+        <v>166.3798935786813</v>
       </c>
       <c r="N17" t="n">
-        <v>257.8567103001181</v>
+        <v>257.8567103001177</v>
       </c>
       <c r="O17" t="n">
-        <v>336.7611699508442</v>
+        <v>336.7611699508438</v>
       </c>
       <c r="P17" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="Q17" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="R17" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="S17" t="n">
-        <v>369.6032998845919</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="T17" t="n">
-        <v>369.6032998845919</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="U17" t="n">
-        <v>276.2691332470687</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="V17" t="n">
-        <v>276.2691332470687</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="W17" t="n">
-        <v>182.9349666095455</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="X17" t="n">
-        <v>100.726232635215</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="Y17" t="n">
-        <v>100.726232635215</v>
+        <v>194.060399272738</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.726232635215</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="C18" t="n">
-        <v>100.726232635215</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="D18" t="n">
-        <v>100.726232635215</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="E18" t="n">
-        <v>100.726232635215</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="F18" t="n">
-        <v>100.726232635215</v>
+        <v>182.9349666095452</v>
       </c>
       <c r="G18" t="n">
-        <v>7.392065997691837</v>
+        <v>100.7262326352149</v>
       </c>
       <c r="H18" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="I18" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="J18" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="K18" t="n">
-        <v>7.392065997691837</v>
+        <v>28.20084994127629</v>
       </c>
       <c r="L18" t="n">
-        <v>42.74475500568762</v>
+        <v>102.5033690720165</v>
       </c>
       <c r="M18" t="n">
-        <v>134.2215717271241</v>
+        <v>134.2215717271238</v>
       </c>
       <c r="N18" t="n">
-        <v>225.6983884485606</v>
+        <v>225.6983884485602</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2559440569822</v>
+        <v>316.2559440569818</v>
       </c>
       <c r="P18" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="Q18" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="R18" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="S18" t="n">
-        <v>276.2691332470687</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="T18" t="n">
-        <v>182.9349666095455</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="U18" t="n">
-        <v>100.726232635215</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="V18" t="n">
-        <v>100.726232635215</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="W18" t="n">
-        <v>100.726232635215</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="X18" t="n">
-        <v>100.726232635215</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="Y18" t="n">
-        <v>100.726232635215</v>
+        <v>276.2691332470683</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="C19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="D19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="E19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="F19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="G19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="H19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="I19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="J19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="K19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="L19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="M19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="N19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="O19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="P19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="R19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="S19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="T19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="U19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="V19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="W19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="X19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.60079997202212</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="C20" t="n">
-        <v>89.60079997202212</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="D20" t="n">
-        <v>89.60079997202212</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="E20" t="n">
-        <v>89.60079997202212</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="F20" t="n">
-        <v>89.60079997202212</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="G20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="H20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="I20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="J20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="K20" t="n">
-        <v>21.05332062426906</v>
+        <v>21.05332062426897</v>
       </c>
       <c r="L20" t="n">
-        <v>74.903076857245</v>
+        <v>74.90307685724486</v>
       </c>
       <c r="M20" t="n">
-        <v>166.3798935786815</v>
+        <v>166.3798935786812</v>
       </c>
       <c r="N20" t="n">
-        <v>257.856710300118</v>
+        <v>257.8567103001176</v>
       </c>
       <c r="O20" t="n">
-        <v>336.7611699508442</v>
+        <v>336.7611699508437</v>
       </c>
       <c r="P20" t="n">
-        <v>369.6032998845918</v>
+        <v>369.6032998845913</v>
       </c>
       <c r="Q20" t="n">
-        <v>369.6032998845918</v>
+        <v>345.6162834980117</v>
       </c>
       <c r="R20" t="n">
-        <v>276.2691332470686</v>
+        <v>345.6162834980117</v>
       </c>
       <c r="S20" t="n">
-        <v>182.9349666095453</v>
+        <v>345.6162834980117</v>
       </c>
       <c r="T20" t="n">
-        <v>89.60079997202212</v>
+        <v>252.2821168604887</v>
       </c>
       <c r="U20" t="n">
-        <v>89.60079997202212</v>
+        <v>158.9479502229656</v>
       </c>
       <c r="V20" t="n">
-        <v>89.60079997202212</v>
+        <v>158.9479502229656</v>
       </c>
       <c r="W20" t="n">
-        <v>89.60079997202212</v>
+        <v>158.9479502229656</v>
       </c>
       <c r="X20" t="n">
-        <v>89.60079997202212</v>
+        <v>158.9479502229656</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.60079997202212</v>
+        <v>100.7262326352149</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.2689460662472</v>
+        <v>182.9349666095452</v>
       </c>
       <c r="C21" t="n">
-        <v>176.2689460662472</v>
+        <v>182.9349666095452</v>
       </c>
       <c r="D21" t="n">
-        <v>176.2689460662472</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="E21" t="n">
-        <v>100.7262326352151</v>
+        <v>89.60079997202212</v>
       </c>
       <c r="F21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="G21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="H21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="I21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="J21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="K21" t="n">
-        <v>28.20084994127632</v>
+        <v>28.20084994127629</v>
       </c>
       <c r="L21" t="n">
-        <v>102.5033690720166</v>
+        <v>102.5033690720165</v>
       </c>
       <c r="M21" t="n">
-        <v>193.9801857934531</v>
+        <v>193.9801857934529</v>
       </c>
       <c r="N21" t="n">
-        <v>285.4570025148896</v>
+        <v>225.6983884485602</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2559440569823</v>
+        <v>316.2559440569818</v>
       </c>
       <c r="P21" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="Q21" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="R21" t="n">
-        <v>269.6031127037704</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="S21" t="n">
-        <v>176.2689460662472</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="T21" t="n">
-        <v>176.2689460662472</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="U21" t="n">
-        <v>176.2689460662472</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="V21" t="n">
-        <v>176.2689460662472</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="W21" t="n">
-        <v>176.2689460662472</v>
+        <v>182.9349666095452</v>
       </c>
       <c r="X21" t="n">
-        <v>176.2689460662472</v>
+        <v>182.9349666095452</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.2689460662472</v>
+        <v>182.9349666095452</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="C22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="D22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="E22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="F22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="G22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="H22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="I22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="J22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="K22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="L22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="M22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="N22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="O22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="P22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="R22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="S22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="T22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="U22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="V22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="W22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="X22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691827</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112533</v>
       </c>
       <c r="C23" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112533</v>
       </c>
       <c r="D23" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112533</v>
       </c>
       <c r="E23" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112533</v>
       </c>
       <c r="F23" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112533</v>
       </c>
       <c r="G23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K23" t="n">
-        <v>21.06227822176929</v>
+        <v>21.06227822176919</v>
       </c>
       <c r="L23" t="n">
-        <v>74.91203445474522</v>
+        <v>74.91203445474508</v>
       </c>
       <c r="M23" t="n">
-        <v>166.499701445247</v>
+        <v>166.4997014452467</v>
       </c>
       <c r="N23" t="n">
-        <v>258.0873684357488</v>
+        <v>258.0873684357484</v>
       </c>
       <c r="O23" t="n">
-        <v>336.9918280864749</v>
+        <v>336.9918280864745</v>
       </c>
       <c r="P23" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="Q23" t="n">
-        <v>345.8469416336431</v>
+        <v>345.8469416336425</v>
       </c>
       <c r="R23" t="n">
-        <v>252.3996740175817</v>
+        <v>252.3996740175812</v>
       </c>
       <c r="S23" t="n">
-        <v>158.9524064015203</v>
+        <v>252.3996740175812</v>
       </c>
       <c r="T23" t="n">
-        <v>158.9524064015203</v>
+        <v>252.3996740175812</v>
       </c>
       <c r="U23" t="n">
-        <v>65.50513878545891</v>
+        <v>252.3996740175812</v>
       </c>
       <c r="V23" t="n">
-        <v>65.50513878545891</v>
+        <v>194.2955588273146</v>
       </c>
       <c r="W23" t="n">
-        <v>65.50513878545891</v>
+        <v>100.8482912112533</v>
       </c>
       <c r="X23" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112533</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112533</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>276.6039121435417</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C24" t="n">
-        <v>276.6039121435417</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D24" t="n">
-        <v>183.1566445274803</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E24" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K24" t="n">
-        <v>28.20980753877655</v>
+        <v>28.20980753877651</v>
       </c>
       <c r="L24" t="n">
-        <v>102.5123266695168</v>
+        <v>102.5123266695167</v>
       </c>
       <c r="M24" t="n">
-        <v>194.0999936600186</v>
+        <v>194.0999936600184</v>
       </c>
       <c r="N24" t="n">
-        <v>285.6876606505203</v>
+        <v>226.1462683235715</v>
       </c>
       <c r="O24" t="n">
-        <v>316.7038239319934</v>
+        <v>316.703823931993</v>
       </c>
       <c r="P24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="Q24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="R24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="S24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="T24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="U24" t="n">
-        <v>370.0511797596031</v>
+        <v>276.6039121435414</v>
       </c>
       <c r="V24" t="n">
-        <v>370.0511797596031</v>
+        <v>183.1566445274801</v>
       </c>
       <c r="W24" t="n">
-        <v>276.6039121435417</v>
+        <v>89.70937691141881</v>
       </c>
       <c r="X24" t="n">
-        <v>276.6039121435417</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y24" t="n">
-        <v>276.6039121435417</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="L25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="M25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="N25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="O25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="P25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="R25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="S25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="T25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="U25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="V25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="W25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="X25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>369.8339580202226</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C26" t="n">
-        <v>369.8339580202226</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D26" t="n">
-        <v>287.7428264433762</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E26" t="n">
-        <v>194.2955588273148</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F26" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K26" t="n">
-        <v>21.06227822176929</v>
+        <v>21.06227822176919</v>
       </c>
       <c r="L26" t="n">
-        <v>74.91203445474522</v>
+        <v>74.91203445474508</v>
       </c>
       <c r="M26" t="n">
-        <v>166.499701445247</v>
+        <v>166.4997014452467</v>
       </c>
       <c r="N26" t="n">
-        <v>258.0873684357488</v>
+        <v>258.0873684357484</v>
       </c>
       <c r="O26" t="n">
-        <v>336.9918280864749</v>
+        <v>336.9918280864745</v>
       </c>
       <c r="P26" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="Q26" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="R26" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="S26" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="T26" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="U26" t="n">
-        <v>369.8339580202226</v>
+        <v>287.7428264433759</v>
       </c>
       <c r="V26" t="n">
-        <v>369.8339580202226</v>
+        <v>194.2955588273146</v>
       </c>
       <c r="W26" t="n">
-        <v>369.8339580202226</v>
+        <v>100.8482912112533</v>
       </c>
       <c r="X26" t="n">
-        <v>369.8339580202226</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y26" t="n">
-        <v>369.8339580202226</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>183.1566445274803</v>
+        <v>262.0565171621033</v>
       </c>
       <c r="C27" t="n">
-        <v>183.1566445274803</v>
+        <v>262.0565171621033</v>
       </c>
       <c r="D27" t="n">
-        <v>183.1566445274803</v>
+        <v>262.0565171621033</v>
       </c>
       <c r="E27" t="n">
-        <v>183.1566445274803</v>
+        <v>194.2955588273146</v>
       </c>
       <c r="F27" t="n">
-        <v>100.8482912112535</v>
+        <v>100.8482912112533</v>
       </c>
       <c r="G27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K27" t="n">
-        <v>28.20980753877655</v>
+        <v>28.20980753877651</v>
       </c>
       <c r="L27" t="n">
-        <v>102.5123266695168</v>
+        <v>102.5123266695167</v>
       </c>
       <c r="M27" t="n">
-        <v>194.0999936600186</v>
+        <v>194.0999936600184</v>
       </c>
       <c r="N27" t="n">
-        <v>226.1462683235718</v>
+        <v>279.4936241511811</v>
       </c>
       <c r="O27" t="n">
-        <v>316.7038239319934</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="P27" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="Q27" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781646</v>
       </c>
       <c r="R27" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781646</v>
       </c>
       <c r="S27" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781646</v>
       </c>
       <c r="T27" t="n">
-        <v>276.6039121435417</v>
+        <v>262.0565171621033</v>
       </c>
       <c r="U27" t="n">
-        <v>183.1566445274803</v>
+        <v>262.0565171621033</v>
       </c>
       <c r="V27" t="n">
-        <v>183.1566445274803</v>
+        <v>262.0565171621033</v>
       </c>
       <c r="W27" t="n">
-        <v>183.1566445274803</v>
+        <v>262.0565171621033</v>
       </c>
       <c r="X27" t="n">
-        <v>183.1566445274803</v>
+        <v>262.0565171621033</v>
       </c>
       <c r="Y27" t="n">
-        <v>183.1566445274803</v>
+        <v>262.0565171621033</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="L28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="M28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="N28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="O28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="P28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="R28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="S28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="T28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="U28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="V28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="W28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="X28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.401023595192062</v>
+        <v>126.0895356234711</v>
       </c>
       <c r="C29" t="n">
-        <v>7.401023595192062</v>
+        <v>126.0895356234711</v>
       </c>
       <c r="D29" t="n">
-        <v>7.401023595192062</v>
+        <v>126.0895356234711</v>
       </c>
       <c r="E29" t="n">
-        <v>7.401023595192062</v>
+        <v>126.0895356234711</v>
       </c>
       <c r="F29" t="n">
-        <v>7.401023595192062</v>
+        <v>32.64226800740981</v>
       </c>
       <c r="G29" t="n">
-        <v>7.401023595192062</v>
+        <v>32.64226800740981</v>
       </c>
       <c r="H29" t="n">
-        <v>7.401023595192062</v>
+        <v>32.64226800740981</v>
       </c>
       <c r="I29" t="n">
-        <v>7.401023595192062</v>
+        <v>32.64226800740981</v>
       </c>
       <c r="J29" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K29" t="n">
-        <v>21.06227822176929</v>
+        <v>21.06227822176919</v>
       </c>
       <c r="L29" t="n">
-        <v>74.91203445474522</v>
+        <v>74.91203445474508</v>
       </c>
       <c r="M29" t="n">
-        <v>166.499701445247</v>
+        <v>166.4997014452467</v>
       </c>
       <c r="N29" t="n">
-        <v>258.0873684357488</v>
+        <v>258.0873684357484</v>
       </c>
       <c r="O29" t="n">
-        <v>336.9918280864749</v>
+        <v>336.9918280864745</v>
       </c>
       <c r="P29" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.8469416336431</v>
+        <v>345.8469416336425</v>
       </c>
       <c r="R29" t="n">
-        <v>345.8469416336431</v>
+        <v>252.3996740175812</v>
       </c>
       <c r="S29" t="n">
-        <v>252.3996740175817</v>
+        <v>252.3996740175812</v>
       </c>
       <c r="T29" t="n">
-        <v>158.9524064015203</v>
+        <v>252.3996740175812</v>
       </c>
       <c r="U29" t="n">
-        <v>65.50513878545891</v>
+        <v>219.5368032395324</v>
       </c>
       <c r="V29" t="n">
-        <v>65.50513878545891</v>
+        <v>219.5368032395324</v>
       </c>
       <c r="W29" t="n">
-        <v>65.50513878545891</v>
+        <v>219.5368032395324</v>
       </c>
       <c r="X29" t="n">
-        <v>7.401023595192062</v>
+        <v>219.5368032395324</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.401023595192062</v>
+        <v>126.0895356234711</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.15645734665878</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C30" t="n">
-        <v>83.15645734665878</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D30" t="n">
-        <v>83.15645734665878</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E30" t="n">
-        <v>83.15645734665878</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K30" t="n">
-        <v>28.20980753877655</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="L30" t="n">
-        <v>102.5123266695168</v>
+        <v>81.70354272593228</v>
       </c>
       <c r="M30" t="n">
-        <v>194.0999936600186</v>
+        <v>173.2912097164339</v>
       </c>
       <c r="N30" t="n">
-        <v>279.4936241511815</v>
+        <v>226.1462683235715</v>
       </c>
       <c r="O30" t="n">
-        <v>370.0511797596031</v>
+        <v>316.703823931993</v>
       </c>
       <c r="P30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="Q30" t="n">
-        <v>355.5037847781651</v>
+        <v>355.5037847781646</v>
       </c>
       <c r="R30" t="n">
-        <v>270.0509925787816</v>
+        <v>355.5037847781646</v>
       </c>
       <c r="S30" t="n">
-        <v>176.6037249627202</v>
+        <v>355.5037847781646</v>
       </c>
       <c r="T30" t="n">
-        <v>83.15645734665878</v>
+        <v>355.5037847781646</v>
       </c>
       <c r="U30" t="n">
-        <v>83.15645734665878</v>
+        <v>262.0565171621033</v>
       </c>
       <c r="V30" t="n">
-        <v>83.15645734665878</v>
+        <v>168.609249546042</v>
       </c>
       <c r="W30" t="n">
-        <v>83.15645734665878</v>
+        <v>75.16198192998075</v>
       </c>
       <c r="X30" t="n">
-        <v>83.15645734665878</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y30" t="n">
-        <v>83.15645734665878</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="L31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="M31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="N31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="O31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="P31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="R31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="S31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="T31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="U31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="V31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="W31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="X31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C32" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D32" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E32" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F32" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G32" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H32" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I32" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J32" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K32" t="n">
-        <v>21.06227822176929</v>
+        <v>21.06227822176919</v>
       </c>
       <c r="L32" t="n">
-        <v>74.91203445474522</v>
+        <v>74.91203445474508</v>
       </c>
       <c r="M32" t="n">
-        <v>166.499701445247</v>
+        <v>166.4997014452467</v>
       </c>
       <c r="N32" t="n">
-        <v>258.0873684357488</v>
+        <v>258.0873684357484</v>
       </c>
       <c r="O32" t="n">
-        <v>336.9918280864749</v>
+        <v>336.9918280864745</v>
       </c>
       <c r="P32" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="Q32" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="R32" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="S32" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="T32" t="n">
-        <v>369.8339580202226</v>
+        <v>276.3866904041607</v>
       </c>
       <c r="U32" t="n">
-        <v>276.3866904041612</v>
+        <v>182.9394227880994</v>
       </c>
       <c r="V32" t="n">
-        <v>182.9394227880998</v>
+        <v>89.49215517203817</v>
       </c>
       <c r="W32" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="X32" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y32" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75.16198192998087</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C33" t="n">
-        <v>41.63446132119739</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D33" t="n">
-        <v>41.63446132119739</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E33" t="n">
-        <v>41.63446132119739</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F33" t="n">
-        <v>41.63446132119739</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G33" t="n">
-        <v>41.63446132119739</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H33" t="n">
-        <v>41.63446132119739</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I33" t="n">
-        <v>41.63446132119739</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J33" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K33" t="n">
-        <v>28.20980753877655</v>
+        <v>28.20980753877651</v>
       </c>
       <c r="L33" t="n">
-        <v>102.5123266695168</v>
+        <v>102.5123266695167</v>
       </c>
       <c r="M33" t="n">
-        <v>194.0999936600186</v>
+        <v>134.5586013330698</v>
       </c>
       <c r="N33" t="n">
-        <v>285.6876606505203</v>
+        <v>226.1462683235715</v>
       </c>
       <c r="O33" t="n">
-        <v>370.0511797596031</v>
+        <v>316.703823931993</v>
       </c>
       <c r="P33" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="Q33" t="n">
-        <v>355.5037847781651</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="R33" t="n">
-        <v>355.5037847781651</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="S33" t="n">
-        <v>262.0565171621037</v>
+        <v>276.6039121435414</v>
       </c>
       <c r="T33" t="n">
-        <v>168.6092495460423</v>
+        <v>276.6039121435414</v>
       </c>
       <c r="U33" t="n">
-        <v>168.6092495460423</v>
+        <v>183.1566445274801</v>
       </c>
       <c r="V33" t="n">
-        <v>168.6092495460423</v>
+        <v>89.70937691141881</v>
       </c>
       <c r="W33" t="n">
-        <v>168.6092495460423</v>
+        <v>89.70937691141881</v>
       </c>
       <c r="X33" t="n">
-        <v>168.6092495460423</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y33" t="n">
-        <v>75.16198192998087</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="L34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="M34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="N34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="O34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="P34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="R34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="S34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="T34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="U34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="V34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="W34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="X34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>194.2955588273148</v>
+        <v>158.95240640152</v>
       </c>
       <c r="C35" t="n">
-        <v>194.2955588273148</v>
+        <v>158.95240640152</v>
       </c>
       <c r="D35" t="n">
-        <v>194.2955588273148</v>
+        <v>158.95240640152</v>
       </c>
       <c r="E35" t="n">
-        <v>100.8482912112535</v>
+        <v>158.95240640152</v>
       </c>
       <c r="F35" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112533</v>
       </c>
       <c r="G35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K35" t="n">
-        <v>21.06227822176929</v>
+        <v>21.06227822176919</v>
       </c>
       <c r="L35" t="n">
-        <v>74.91203445474522</v>
+        <v>74.91203445474508</v>
       </c>
       <c r="M35" t="n">
-        <v>166.499701445247</v>
+        <v>166.4997014452467</v>
       </c>
       <c r="N35" t="n">
-        <v>258.0873684357488</v>
+        <v>258.0873684357484</v>
       </c>
       <c r="O35" t="n">
-        <v>336.9918280864749</v>
+        <v>336.9918280864745</v>
       </c>
       <c r="P35" t="n">
-        <v>369.8339580202226</v>
+        <v>369.833958020222</v>
       </c>
       <c r="Q35" t="n">
-        <v>345.8469416336431</v>
+        <v>345.8469416336425</v>
       </c>
       <c r="R35" t="n">
-        <v>252.3996740175817</v>
+        <v>345.8469416336425</v>
       </c>
       <c r="S35" t="n">
-        <v>252.3996740175817</v>
+        <v>345.8469416336425</v>
       </c>
       <c r="T35" t="n">
-        <v>252.3996740175817</v>
+        <v>252.3996740175812</v>
       </c>
       <c r="U35" t="n">
-        <v>194.2955588273148</v>
+        <v>158.95240640152</v>
       </c>
       <c r="V35" t="n">
-        <v>194.2955588273148</v>
+        <v>158.95240640152</v>
       </c>
       <c r="W35" t="n">
-        <v>194.2955588273148</v>
+        <v>158.95240640152</v>
       </c>
       <c r="X35" t="n">
-        <v>194.2955588273148</v>
+        <v>158.95240640152</v>
       </c>
       <c r="Y35" t="n">
-        <v>194.2955588273148</v>
+        <v>158.95240640152</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.401023595192062</v>
+        <v>89.70937691141881</v>
       </c>
       <c r="C36" t="n">
-        <v>7.401023595192062</v>
+        <v>89.70937691141881</v>
       </c>
       <c r="D36" t="n">
-        <v>7.401023595192062</v>
+        <v>89.70937691141881</v>
       </c>
       <c r="E36" t="n">
-        <v>7.401023595192062</v>
+        <v>89.70937691141881</v>
       </c>
       <c r="F36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K36" t="n">
-        <v>28.20980753877655</v>
+        <v>28.20980753877651</v>
       </c>
       <c r="L36" t="n">
-        <v>102.5123266695168</v>
+        <v>102.5123266695167</v>
       </c>
       <c r="M36" t="n">
-        <v>134.55860133307</v>
+        <v>194.0999936600184</v>
       </c>
       <c r="N36" t="n">
-        <v>226.1462683235718</v>
+        <v>226.1462683235715</v>
       </c>
       <c r="O36" t="n">
-        <v>316.7038239319934</v>
+        <v>316.703823931993</v>
       </c>
       <c r="P36" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="Q36" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="R36" t="n">
-        <v>287.7428264433762</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="S36" t="n">
-        <v>194.2955588273148</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="T36" t="n">
-        <v>100.8482912112535</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="U36" t="n">
-        <v>100.8482912112535</v>
+        <v>276.6039121435414</v>
       </c>
       <c r="V36" t="n">
-        <v>100.8482912112535</v>
+        <v>183.1566445274801</v>
       </c>
       <c r="W36" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274801</v>
       </c>
       <c r="X36" t="n">
-        <v>7.401023595192062</v>
+        <v>89.70937691141881</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.401023595192062</v>
+        <v>89.70937691141881</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="L37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="M37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="N37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="O37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="P37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="R37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="S37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="T37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="U37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="V37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="W37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="X37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>369.8339580202225</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C38" t="n">
-        <v>369.8339580202225</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D38" t="n">
-        <v>276.3866904041611</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E38" t="n">
-        <v>182.9394227880998</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F38" t="n">
-        <v>89.49215517203838</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K38" t="n">
-        <v>21.06227822176928</v>
+        <v>21.06227822176919</v>
       </c>
       <c r="L38" t="n">
-        <v>74.91203445474522</v>
+        <v>74.91203445474508</v>
       </c>
       <c r="M38" t="n">
-        <v>166.499701445247</v>
+        <v>166.4997014452467</v>
       </c>
       <c r="N38" t="n">
-        <v>258.0873684357487</v>
+        <v>258.0873684357484</v>
       </c>
       <c r="O38" t="n">
-        <v>336.9918280864749</v>
+        <v>336.9918280864745</v>
       </c>
       <c r="P38" t="n">
-        <v>369.8339580202225</v>
+        <v>369.833958020222</v>
       </c>
       <c r="Q38" t="n">
-        <v>369.8339580202225</v>
+        <v>369.833958020222</v>
       </c>
       <c r="R38" t="n">
-        <v>369.8339580202225</v>
+        <v>369.833958020222</v>
       </c>
       <c r="S38" t="n">
-        <v>369.8339580202225</v>
+        <v>369.833958020222</v>
       </c>
       <c r="T38" t="n">
-        <v>369.8339580202225</v>
+        <v>369.833958020222</v>
       </c>
       <c r="U38" t="n">
-        <v>369.8339580202225</v>
+        <v>276.3866904041607</v>
       </c>
       <c r="V38" t="n">
-        <v>369.8339580202225</v>
+        <v>182.9394227880994</v>
       </c>
       <c r="W38" t="n">
-        <v>369.8339580202225</v>
+        <v>89.49215517203817</v>
       </c>
       <c r="X38" t="n">
-        <v>369.8339580202225</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y38" t="n">
-        <v>369.8339580202225</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.40102359519206</v>
+        <v>276.6039121435414</v>
       </c>
       <c r="C39" t="n">
-        <v>7.40102359519206</v>
+        <v>276.6039121435414</v>
       </c>
       <c r="D39" t="n">
-        <v>7.40102359519206</v>
+        <v>183.1566445274801</v>
       </c>
       <c r="E39" t="n">
-        <v>7.40102359519206</v>
+        <v>183.1566445274801</v>
       </c>
       <c r="F39" t="n">
-        <v>7.40102359519206</v>
+        <v>183.1566445274801</v>
       </c>
       <c r="G39" t="n">
-        <v>7.40102359519206</v>
+        <v>89.70937691141881</v>
       </c>
       <c r="H39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K39" t="n">
-        <v>28.20980753877655</v>
+        <v>28.20980753877651</v>
       </c>
       <c r="L39" t="n">
-        <v>102.5123266695168</v>
+        <v>102.5123266695167</v>
       </c>
       <c r="M39" t="n">
-        <v>194.0999936600186</v>
+        <v>134.5586013330698</v>
       </c>
       <c r="N39" t="n">
-        <v>285.6876606505203</v>
+        <v>226.1462683235715</v>
       </c>
       <c r="O39" t="n">
-        <v>316.7038239319934</v>
+        <v>316.703823931993</v>
       </c>
       <c r="P39" t="n">
-        <v>370.051179759603</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="Q39" t="n">
-        <v>370.051179759603</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="R39" t="n">
-        <v>370.051179759603</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="S39" t="n">
-        <v>370.051179759603</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="T39" t="n">
-        <v>370.051179759603</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="U39" t="n">
-        <v>287.7428264433762</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="V39" t="n">
-        <v>194.2955588273148</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="W39" t="n">
-        <v>100.8482912112534</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="X39" t="n">
-        <v>7.40102359519206</v>
+        <v>370.0511797596026</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.40102359519206</v>
+        <v>276.6039121435414</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="C40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="D40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="E40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="F40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="G40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="H40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="I40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="J40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="K40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="L40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="M40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="N40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="O40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="P40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="R40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="S40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="T40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="U40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="V40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="W40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="X40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192052</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.392065997691837</v>
+        <v>100.7262326352149</v>
       </c>
       <c r="C41" t="n">
-        <v>7.392065997691837</v>
+        <v>100.7262326352149</v>
       </c>
       <c r="D41" t="n">
-        <v>7.392065997691837</v>
+        <v>100.7262326352149</v>
       </c>
       <c r="E41" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="F41" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="G41" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="H41" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="I41" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="J41" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="K41" t="n">
-        <v>21.05332062426911</v>
+        <v>21.05332062426908</v>
       </c>
       <c r="L41" t="n">
-        <v>74.90307685724505</v>
+        <v>74.90307685724497</v>
       </c>
       <c r="M41" t="n">
-        <v>166.3798935786816</v>
+        <v>166.3798935786813</v>
       </c>
       <c r="N41" t="n">
-        <v>257.8567103001181</v>
+        <v>257.8567103001177</v>
       </c>
       <c r="O41" t="n">
-        <v>336.7611699508442</v>
+        <v>336.7611699508438</v>
       </c>
       <c r="P41" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="Q41" t="n">
-        <v>369.6032998845919</v>
+        <v>345.6162834980119</v>
       </c>
       <c r="R41" t="n">
-        <v>369.6032998845919</v>
+        <v>345.6162834980119</v>
       </c>
       <c r="S41" t="n">
-        <v>276.2691332470687</v>
+        <v>345.6162834980119</v>
       </c>
       <c r="T41" t="n">
-        <v>276.2691332470687</v>
+        <v>252.2821168604888</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9349666095455</v>
+        <v>194.060399272738</v>
       </c>
       <c r="V41" t="n">
-        <v>89.60079997202227</v>
+        <v>194.060399272738</v>
       </c>
       <c r="W41" t="n">
-        <v>7.392065997691837</v>
+        <v>194.060399272738</v>
       </c>
       <c r="X41" t="n">
-        <v>7.392065997691837</v>
+        <v>194.060399272738</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.392065997691837</v>
+        <v>100.7262326352149</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="C42" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="D42" t="n">
-        <v>194.0603992727383</v>
+        <v>287.3945659102611</v>
       </c>
       <c r="E42" t="n">
-        <v>194.0603992727383</v>
+        <v>194.060399272738</v>
       </c>
       <c r="F42" t="n">
-        <v>100.726232635215</v>
+        <v>100.7262326352149</v>
       </c>
       <c r="G42" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="H42" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="I42" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="J42" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="K42" t="n">
-        <v>7.392065997691837</v>
+        <v>28.20084994127629</v>
       </c>
       <c r="L42" t="n">
-        <v>81.69458512843212</v>
+        <v>102.5033690720165</v>
       </c>
       <c r="M42" t="n">
-        <v>134.2215717271241</v>
+        <v>193.9801857934529</v>
       </c>
       <c r="N42" t="n">
-        <v>225.6983884485606</v>
+        <v>285.4570025148893</v>
       </c>
       <c r="O42" t="n">
-        <v>316.2559440569822</v>
+        <v>316.2559440569818</v>
       </c>
       <c r="P42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="Q42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="R42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="S42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="T42" t="n">
-        <v>276.2691332470687</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="U42" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="V42" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="W42" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="X42" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845914</v>
       </c>
       <c r="Y42" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845914</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="C43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="D43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="E43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="F43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="G43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="H43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="I43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="J43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="K43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="L43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="M43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="N43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="O43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="P43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="R43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="S43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="T43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="U43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="V43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="W43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="X43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.392065997691837</v>
+        <v>7.392065997691827</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.392065997691839</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="C44" t="n">
-        <v>7.392065997691839</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="D44" t="n">
-        <v>7.392065997691839</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="E44" t="n">
-        <v>7.392065997691839</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="F44" t="n">
-        <v>7.392065997691839</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="G44" t="n">
-        <v>7.392065997691839</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="H44" t="n">
-        <v>7.392065997691839</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="I44" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="J44" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="K44" t="n">
         <v>21.05332062426908</v>
       </c>
       <c r="L44" t="n">
-        <v>74.90307685724511</v>
+        <v>74.90307685724497</v>
       </c>
       <c r="M44" t="n">
-        <v>166.3798935786816</v>
+        <v>166.3798935786814</v>
       </c>
       <c r="N44" t="n">
-        <v>257.8567103001182</v>
+        <v>257.8567103001178</v>
       </c>
       <c r="O44" t="n">
-        <v>336.7611699508443</v>
+        <v>336.7611699508439</v>
       </c>
       <c r="P44" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845915</v>
       </c>
       <c r="Q44" t="n">
-        <v>369.6032998845919</v>
+        <v>345.616283498012</v>
       </c>
       <c r="R44" t="n">
-        <v>369.6032998845919</v>
+        <v>252.2821168604889</v>
       </c>
       <c r="S44" t="n">
-        <v>276.2691332470687</v>
+        <v>158.9479502229657</v>
       </c>
       <c r="T44" t="n">
-        <v>276.2691332470687</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9349666095455</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="V44" t="n">
-        <v>89.60079997202223</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="W44" t="n">
-        <v>7.392065997691839</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="X44" t="n">
-        <v>7.392065997691839</v>
+        <v>65.61378358544263</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.392065997691839</v>
+        <v>65.61378358544263</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>194.0603992727383</v>
+        <v>194.060399272738</v>
       </c>
       <c r="C45" t="n">
-        <v>194.0603992727383</v>
+        <v>194.060399272738</v>
       </c>
       <c r="D45" t="n">
-        <v>194.0603992727383</v>
+        <v>100.7262326352149</v>
       </c>
       <c r="E45" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352149</v>
       </c>
       <c r="F45" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352149</v>
       </c>
       <c r="G45" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="H45" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="I45" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="J45" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="K45" t="n">
-        <v>7.392065997691839</v>
+        <v>28.20084994127629</v>
       </c>
       <c r="L45" t="n">
-        <v>81.69458512843212</v>
+        <v>102.5033690720165</v>
       </c>
       <c r="M45" t="n">
-        <v>173.1714018498686</v>
+        <v>134.2215717271239</v>
       </c>
       <c r="N45" t="n">
-        <v>225.6983884485606</v>
+        <v>225.6983884485603</v>
       </c>
       <c r="O45" t="n">
-        <v>316.2559440569823</v>
+        <v>316.2559440569819</v>
       </c>
       <c r="P45" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845915</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845915</v>
       </c>
       <c r="R45" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845915</v>
       </c>
       <c r="S45" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845915</v>
       </c>
       <c r="T45" t="n">
-        <v>276.2691332470687</v>
+        <v>369.6032998845915</v>
       </c>
       <c r="U45" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845915</v>
       </c>
       <c r="V45" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845915</v>
       </c>
       <c r="W45" t="n">
-        <v>194.0603992727383</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="X45" t="n">
-        <v>194.0603992727383</v>
+        <v>276.2691332470683</v>
       </c>
       <c r="Y45" t="n">
-        <v>194.0603992727383</v>
+        <v>276.2691332470683</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="C46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="D46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="E46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="F46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="G46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="H46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="I46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="J46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="K46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="L46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="M46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="N46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="O46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="P46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="R46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="S46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="T46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="U46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="V46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="W46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="X46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.39206599769183</v>
       </c>
     </row>
   </sheetData>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>290.4449866610855</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>283.984868284898</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>314.5871907393164</v>
       </c>
       <c r="G11" t="n">
         <v>413.4644082958837</v>
@@ -23281,7 +23281,7 @@
         <v>139.6037023452183</v>
       </c>
       <c r="J11" t="n">
-        <v>25.02000995425206</v>
+        <v>25.02000995425209</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.78681539902036</v>
+        <v>23.78681539902041</v>
       </c>
       <c r="R11" t="n">
-        <v>100.1085899953345</v>
+        <v>100.1085899953346</v>
       </c>
       <c r="S11" t="n">
         <v>167.1291425025552</v>
       </c>
       <c r="T11" t="n">
-        <v>122.7597084044634</v>
+        <v>215.0485634068586</v>
       </c>
       <c r="U11" t="n">
         <v>251.1985865702964</v>
       </c>
       <c r="V11" t="n">
-        <v>235.4634034677397</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>256.9521137150178</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>288.4430771923594</v>
+        <v>277.442245676074</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>52.78035739098883</v>
       </c>
       <c r="G12" t="n">
-        <v>136.3599243172687</v>
+        <v>44.07106931487368</v>
       </c>
       <c r="H12" t="n">
         <v>102.7360080664787</v>
       </c>
       <c r="I12" t="n">
-        <v>65.65745087436915</v>
+        <v>65.65745087436916</v>
       </c>
       <c r="J12" t="n">
-        <v>33.90967274370949</v>
+        <v>33.90967274370952</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>17.74945405753324</v>
       </c>
       <c r="S12" t="n">
         <v>153.4133653908383</v>
@@ -23393,16 +23393,16 @@
         <v>196.2001592850822</v>
       </c>
       <c r="U12" t="n">
-        <v>133.5878170229256</v>
+        <v>225.8766720253207</v>
       </c>
       <c r="V12" t="n">
-        <v>140.5117321470301</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>159.4061281585246</v>
       </c>
       <c r="X12" t="n">
-        <v>131.2335842586155</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23442,25 +23442,25 @@
         <v>68.69540952780943</v>
       </c>
       <c r="K13" t="n">
-        <v>33.20842954380556</v>
+        <v>33.20842954380559</v>
       </c>
       <c r="L13" t="n">
-        <v>12.28748008706458</v>
+        <v>12.28748008706461</v>
       </c>
       <c r="M13" t="n">
-        <v>9.6642299561573</v>
+        <v>9.664229956157328</v>
       </c>
       <c r="N13" t="n">
-        <v>1.497541313922994</v>
+        <v>1.497541313923023</v>
       </c>
       <c r="O13" t="n">
-        <v>21.90149342145186</v>
+        <v>21.90149342145189</v>
       </c>
       <c r="P13" t="n">
-        <v>37.99502751941262</v>
+        <v>37.99502751941264</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.4550582428411</v>
+        <v>82.45505824284112</v>
       </c>
       <c r="R13" t="n">
         <v>140.2158731934601</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>290.4449866610854</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23518,7 +23518,7 @@
         <v>139.6037023452183</v>
       </c>
       <c r="J14" t="n">
-        <v>25.02000995425206</v>
+        <v>25.02000995425209</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.78681539902036</v>
+        <v>23.78681539902041</v>
       </c>
       <c r="R14" t="n">
-        <v>100.1085899953345</v>
+        <v>100.1085899953346</v>
       </c>
       <c r="S14" t="n">
         <v>167.1291425025552</v>
       </c>
       <c r="T14" t="n">
-        <v>215.0485634068586</v>
+        <v>133.7605399207491</v>
       </c>
       <c r="U14" t="n">
-        <v>158.9097315679012</v>
+        <v>158.9097315679013</v>
       </c>
       <c r="V14" t="n">
-        <v>235.4634034677397</v>
+        <v>235.4634034677399</v>
       </c>
       <c r="W14" t="n">
-        <v>267.9529452313033</v>
+        <v>256.952113715018</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>80.58405218081063</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23594,10 +23594,10 @@
         <v>102.7360080664787</v>
       </c>
       <c r="I15" t="n">
-        <v>65.65745087436915</v>
+        <v>65.65745087436916</v>
       </c>
       <c r="J15" t="n">
-        <v>33.90967274370949</v>
+        <v>33.90967274370952</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.61046744136138</v>
       </c>
       <c r="S15" t="n">
         <v>153.4133653908383</v>
@@ -23630,16 +23630,16 @@
         <v>196.2001592850822</v>
       </c>
       <c r="U15" t="n">
-        <v>133.5878170229255</v>
+        <v>133.5878170229257</v>
       </c>
       <c r="V15" t="n">
-        <v>140.5117321470301</v>
+        <v>140.5117321470302</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>159.4061281585246</v>
       </c>
       <c r="X15" t="n">
-        <v>131.2335842586154</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23679,25 +23679,25 @@
         <v>68.69540952780943</v>
       </c>
       <c r="K16" t="n">
-        <v>33.20842954380556</v>
+        <v>33.20842954380559</v>
       </c>
       <c r="L16" t="n">
-        <v>12.28748008706458</v>
+        <v>12.28748008706461</v>
       </c>
       <c r="M16" t="n">
-        <v>9.6642299561573</v>
+        <v>9.664229956157328</v>
       </c>
       <c r="N16" t="n">
-        <v>1.497541313922994</v>
+        <v>1.497541313923023</v>
       </c>
       <c r="O16" t="n">
-        <v>21.90149342145186</v>
+        <v>21.90149342145189</v>
       </c>
       <c r="P16" t="n">
-        <v>37.99502751941262</v>
+        <v>37.99502751941264</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.4550582428411</v>
+        <v>82.45505824284112</v>
       </c>
       <c r="R16" t="n">
         <v>140.2158731934601</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>272.8720667998596</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>314.4752207705636</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4640409504305</v>
+        <v>321.0632159792826</v>
       </c>
       <c r="H17" t="n">
         <v>320.6442509224869</v>
@@ -23755,7 +23755,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J17" t="n">
-        <v>24.98883196809555</v>
+        <v>24.98883196809558</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.74714622271367</v>
+        <v>23.74714622271372</v>
       </c>
       <c r="R17" t="n">
         <v>100.0855147315115</v>
       </c>
       <c r="S17" t="n">
-        <v>167.1207716180409</v>
+        <v>74.71994664689313</v>
       </c>
       <c r="T17" t="n">
         <v>215.0469553521373</v>
       </c>
       <c r="U17" t="n">
-        <v>158.7977322115121</v>
+        <v>251.1985571826601</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>256.840143746265</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>288.3444540438819</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>304.8512920214666</v>
       </c>
     </row>
     <row r="18">
@@ -23822,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>52.66838742223604</v>
       </c>
       <c r="G18" t="n">
-        <v>43.9589027989757</v>
+        <v>54.97308113553669</v>
       </c>
       <c r="H18" t="n">
-        <v>102.7341098348409</v>
+        <v>10.33328486369304</v>
       </c>
       <c r="I18" t="n">
         <v>65.65068379064653</v>
       </c>
       <c r="J18" t="n">
-        <v>33.89110334874526</v>
+        <v>33.89110334874528</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.40192103162362</v>
+        <v>14.40192103162364</v>
       </c>
       <c r="R18" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738972</v>
       </c>
       <c r="S18" t="n">
-        <v>61.00888964267561</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T18" t="n">
-        <v>103.7985420910118</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U18" t="n">
-        <v>144.4900124600004</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>113.3721602323296</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23913,28 +23913,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J19" t="n">
-        <v>68.68375968616432</v>
+        <v>68.68375968616434</v>
       </c>
       <c r="K19" t="n">
-        <v>33.18928527529272</v>
+        <v>33.18928527529275</v>
       </c>
       <c r="L19" t="n">
-        <v>12.26298201450909</v>
+        <v>12.26298201450913</v>
       </c>
       <c r="M19" t="n">
-        <v>9.638400173530783</v>
+        <v>9.638400173530812</v>
       </c>
       <c r="N19" t="n">
-        <v>1.472325705794916</v>
+        <v>1.472325705794958</v>
       </c>
       <c r="O19" t="n">
-        <v>21.87820272608116</v>
+        <v>21.87820272608118</v>
       </c>
       <c r="P19" t="n">
-        <v>37.97509830593103</v>
+        <v>37.97509830593104</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.44126028843799</v>
+        <v>82.441260288438</v>
       </c>
       <c r="R19" t="n">
         <v>140.2084641518275</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>290.3330166923328</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>332.0773943158435</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H20" t="n">
         <v>320.6442509224869</v>
@@ -23992,7 +23992,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J20" t="n">
-        <v>24.98883196809555</v>
+        <v>24.98883196809558</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.74714622271367</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.684689760363483</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S20" t="n">
-        <v>74.71994664689296</v>
+        <v>167.120771618041</v>
       </c>
       <c r="T20" t="n">
-        <v>122.6461303809893</v>
+        <v>122.6461303809895</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1985571826601</v>
+        <v>158.7977322115123</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>328.5984382441804</v>
       </c>
     </row>
     <row r="21">
@@ -24053,13 +24053,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>55.04424059349091</v>
       </c>
       <c r="E21" t="n">
-        <v>82.85779415867914</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>52.6683874222359</v>
+        <v>63.6825657587969</v>
       </c>
       <c r="G21" t="n">
         <v>136.3597277701237</v>
@@ -24071,7 +24071,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J21" t="n">
-        <v>33.89110334874526</v>
+        <v>33.89110334874528</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,13 +24092,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>14.40192103162364</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>84.59826427738972</v>
       </c>
       <c r="S21" t="n">
-        <v>61.0088896426756</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T21" t="n">
         <v>196.1993670621597</v>
@@ -24107,10 +24107,10 @@
         <v>225.8766590945875</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>140.3997621782774</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>159.2941581897718</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24150,28 +24150,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J22" t="n">
-        <v>68.68375968616432</v>
+        <v>68.68375968616434</v>
       </c>
       <c r="K22" t="n">
-        <v>33.18928527529272</v>
+        <v>33.18928527529275</v>
       </c>
       <c r="L22" t="n">
-        <v>12.26298201450909</v>
+        <v>12.26298201450913</v>
       </c>
       <c r="M22" t="n">
-        <v>9.638400173530783</v>
+        <v>9.638400173530812</v>
       </c>
       <c r="N22" t="n">
-        <v>1.472325705794916</v>
+        <v>1.472325705794958</v>
       </c>
       <c r="O22" t="n">
-        <v>21.87820272608116</v>
+        <v>21.87820272608118</v>
       </c>
       <c r="P22" t="n">
-        <v>37.97509830593103</v>
+        <v>37.97509830593104</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.44126028843799</v>
+        <v>82.441260288438</v>
       </c>
       <c r="R22" t="n">
         <v>140.2084641518275</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4640409504305</v>
+        <v>320.9512460105299</v>
       </c>
       <c r="H23" t="n">
         <v>320.6442509224869</v>
@@ -24229,7 +24229,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J23" t="n">
-        <v>24.98883196809555</v>
+        <v>24.98883196809558</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7.572719791610695</v>
+        <v>7.572719791610837</v>
       </c>
       <c r="S23" t="n">
-        <v>74.60797667814018</v>
+        <v>167.120771618041</v>
       </c>
       <c r="T23" t="n">
         <v>215.0469553521373</v>
       </c>
       <c r="U23" t="n">
-        <v>158.6857622427594</v>
+        <v>251.1985571826601</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>270.2291844317709</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>256.7281737775123</v>
       </c>
       <c r="X23" t="n">
-        <v>312.2080266401049</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24290,13 +24290,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>54.93227062473798</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>76.15981067233635</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>52.55641745348311</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.3597277701237</v>
@@ -24308,7 +24308,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J24" t="n">
-        <v>33.89110334874526</v>
+        <v>33.89110334874528</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.40192103162362</v>
+        <v>14.40192103162364</v>
       </c>
       <c r="R24" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738972</v>
       </c>
       <c r="S24" t="n">
         <v>153.4097146138236</v>
@@ -24341,16 +24341,16 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546869</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>140.2877922095246</v>
       </c>
       <c r="W24" t="n">
-        <v>159.1821882210188</v>
+        <v>159.1821882210189</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>124.287715420413</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24387,28 +24387,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J25" t="n">
-        <v>68.68375968616432</v>
+        <v>68.68375968616434</v>
       </c>
       <c r="K25" t="n">
-        <v>33.18928527529272</v>
+        <v>33.18928527529275</v>
       </c>
       <c r="L25" t="n">
-        <v>12.26298201450909</v>
+        <v>12.26298201450913</v>
       </c>
       <c r="M25" t="n">
-        <v>9.638400173530783</v>
+        <v>9.638400173530812</v>
       </c>
       <c r="N25" t="n">
-        <v>1.472325705794916</v>
+        <v>1.472325705794958</v>
       </c>
       <c r="O25" t="n">
-        <v>21.87820272608116</v>
+        <v>21.87820272608118</v>
       </c>
       <c r="P25" t="n">
-        <v>37.97509830593103</v>
+        <v>37.97509830593104</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.44126028843799</v>
+        <v>82.441260288438</v>
       </c>
       <c r="R25" t="n">
         <v>140.2084641518275</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>273.4128213596051</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>289.417575132361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>314.3632508018106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>320.9512460105298</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H26" t="n">
         <v>320.6442509224869</v>
@@ -24466,7 +24466,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J26" t="n">
-        <v>24.98883196809555</v>
+        <v>24.98883196809558</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.74714622271367</v>
+        <v>23.74714622271372</v>
       </c>
       <c r="R26" t="n">
         <v>100.0855147315115</v>
       </c>
       <c r="S26" t="n">
-        <v>167.1207716180409</v>
+        <v>167.120771618041</v>
       </c>
       <c r="T26" t="n">
         <v>215.0469553521373</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1985571826601</v>
+        <v>169.9283369215824</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>235.2394635302342</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>256.7281737775123</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>277.2183057385683</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24530,13 +24530,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>90.56173170396012</v>
       </c>
       <c r="F27" t="n">
-        <v>63.58394261031928</v>
+        <v>52.55641745348322</v>
       </c>
       <c r="G27" t="n">
-        <v>43.8469328302229</v>
+        <v>43.84693283022301</v>
       </c>
       <c r="H27" t="n">
         <v>102.7341098348409</v>
@@ -24545,7 +24545,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J27" t="n">
-        <v>33.89110334874526</v>
+        <v>33.89110334874528</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.40192103162362</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738972</v>
       </c>
       <c r="S27" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T27" t="n">
-        <v>103.686572122259</v>
+        <v>103.6865721222591</v>
       </c>
       <c r="U27" t="n">
-        <v>133.3638641546868</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24624,28 +24624,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J28" t="n">
-        <v>68.68375968616432</v>
+        <v>68.68375968616434</v>
       </c>
       <c r="K28" t="n">
-        <v>33.18928527529272</v>
+        <v>33.18928527529275</v>
       </c>
       <c r="L28" t="n">
-        <v>12.26298201450909</v>
+        <v>12.26298201450913</v>
       </c>
       <c r="M28" t="n">
-        <v>9.638400173530783</v>
+        <v>9.638400173530812</v>
       </c>
       <c r="N28" t="n">
-        <v>1.472325705794916</v>
+        <v>1.472325705794958</v>
       </c>
       <c r="O28" t="n">
-        <v>21.87820272608116</v>
+        <v>21.87820272608118</v>
       </c>
       <c r="P28" t="n">
-        <v>37.97509830593103</v>
+        <v>37.97509830593104</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.44126028843799</v>
+        <v>82.441260288438</v>
       </c>
       <c r="R28" t="n">
         <v>140.2084641518275</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>314.3632508018108</v>
       </c>
       <c r="G29" t="n">
         <v>413.4640409504305</v>
@@ -24703,7 +24703,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J29" t="n">
-        <v>24.98883196809555</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>100.0855147315115</v>
+        <v>7.572719791610837</v>
       </c>
       <c r="S29" t="n">
-        <v>74.60797667814018</v>
+        <v>167.120771618041</v>
       </c>
       <c r="T29" t="n">
-        <v>122.5341604122365</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U29" t="n">
-        <v>158.6857622427594</v>
+        <v>218.6643151123918</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>312.2080266401049</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>293.725143716153</v>
       </c>
     </row>
     <row r="30">
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>70.07133297943183</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.3597277701237</v>
@@ -24782,7 +24782,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J30" t="n">
-        <v>33.89110334874526</v>
+        <v>33.89110334874528</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>84.59826427738972</v>
       </c>
       <c r="S30" t="n">
-        <v>60.89691967392281</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T30" t="n">
-        <v>103.686572122259</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546869</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>140.2877922095246</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210189</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>138.6896364520367</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24861,28 +24861,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J31" t="n">
-        <v>68.68375968616432</v>
+        <v>68.68375968616434</v>
       </c>
       <c r="K31" t="n">
-        <v>33.18928527529272</v>
+        <v>33.18928527529275</v>
       </c>
       <c r="L31" t="n">
-        <v>12.26298201450909</v>
+        <v>12.26298201450913</v>
       </c>
       <c r="M31" t="n">
-        <v>9.638400173530783</v>
+        <v>9.638400173530812</v>
       </c>
       <c r="N31" t="n">
-        <v>1.472325705794916</v>
+        <v>1.472325705794958</v>
       </c>
       <c r="O31" t="n">
-        <v>21.87820272608116</v>
+        <v>21.87820272608118</v>
       </c>
       <c r="P31" t="n">
-        <v>37.97509830593103</v>
+        <v>37.97509830593104</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.44126028843799</v>
+        <v>82.441260288438</v>
       </c>
       <c r="R31" t="n">
         <v>140.2084641518275</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>320.9512460105298</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H32" t="n">
         <v>320.6442509224869</v>
@@ -24940,7 +24940,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J32" t="n">
-        <v>24.98883196809555</v>
+        <v>24.98883196809558</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.74714622271367</v>
+        <v>23.74714622271372</v>
       </c>
       <c r="R32" t="n">
         <v>100.0855147315115</v>
       </c>
       <c r="S32" t="n">
-        <v>167.1207716180409</v>
+        <v>167.120771618041</v>
       </c>
       <c r="T32" t="n">
-        <v>215.0469553521373</v>
+        <v>122.5341604122366</v>
       </c>
       <c r="U32" t="n">
-        <v>158.6857622427594</v>
+        <v>158.6857622427595</v>
       </c>
       <c r="V32" t="n">
-        <v>235.2394635302341</v>
+        <v>235.2394635302342</v>
       </c>
       <c r="W32" t="n">
-        <v>267.9707484563352</v>
+        <v>267.9707484563354</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>139.5162535856201</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25019,7 +25019,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>33.89110334874528</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,31 +25040,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>14.40192103162364</v>
       </c>
       <c r="R33" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738972</v>
       </c>
       <c r="S33" t="n">
-        <v>60.89691967392281</v>
+        <v>60.89691967392292</v>
       </c>
       <c r="T33" t="n">
-        <v>103.686572122259</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546869</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>140.2877922095246</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>124.287715420413</v>
       </c>
       <c r="Y33" t="n">
-        <v>113.1699008374036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25098,28 +25098,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J34" t="n">
-        <v>68.68375968616432</v>
+        <v>68.68375968616434</v>
       </c>
       <c r="K34" t="n">
-        <v>33.18928527529272</v>
+        <v>33.18928527529275</v>
       </c>
       <c r="L34" t="n">
-        <v>12.26298201450909</v>
+        <v>12.26298201450913</v>
       </c>
       <c r="M34" t="n">
-        <v>9.638400173530783</v>
+        <v>9.638400173530812</v>
       </c>
       <c r="N34" t="n">
-        <v>1.472325705794916</v>
+        <v>1.472325705794958</v>
       </c>
       <c r="O34" t="n">
-        <v>21.87820272608116</v>
+        <v>21.87820272608118</v>
       </c>
       <c r="P34" t="n">
-        <v>37.97509830593103</v>
+        <v>37.97509830593104</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.44126028843799</v>
+        <v>82.441260288438</v>
       </c>
       <c r="R34" t="n">
         <v>140.2084641518275</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>289.417575132361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>314.3632508018106</v>
+        <v>349.3529717033475</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4640409504305</v>
+        <v>320.9512460105299</v>
       </c>
       <c r="H35" t="n">
         <v>320.6442509224869</v>
@@ -25177,7 +25177,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J35" t="n">
-        <v>24.98883196809555</v>
+        <v>24.98883196809558</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>7.572719791610695</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S35" t="n">
-        <v>167.1207716180409</v>
+        <v>167.120771618041</v>
       </c>
       <c r="T35" t="n">
-        <v>215.0469553521373</v>
+        <v>122.5341604122366</v>
       </c>
       <c r="U35" t="n">
-        <v>193.6754831442959</v>
+        <v>158.6857622427595</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>63.5839426103194</v>
       </c>
       <c r="G36" t="n">
         <v>136.3597277701237</v>
@@ -25256,7 +25256,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J36" t="n">
-        <v>33.89110334874526</v>
+        <v>33.89110334874528</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,28 +25277,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.40192103162362</v>
+        <v>14.40192103162364</v>
       </c>
       <c r="R36" t="n">
-        <v>3.112994494325079</v>
+        <v>84.59826427738972</v>
       </c>
       <c r="S36" t="n">
-        <v>60.89691967392281</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T36" t="n">
-        <v>103.686572122259</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546869</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>140.2877922095246</v>
       </c>
       <c r="W36" t="n">
-        <v>159.1821882210188</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>113.2601902635768</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25335,28 +25335,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J37" t="n">
-        <v>68.68375968616432</v>
+        <v>68.68375968616434</v>
       </c>
       <c r="K37" t="n">
-        <v>33.18928527529272</v>
+        <v>33.18928527529275</v>
       </c>
       <c r="L37" t="n">
-        <v>12.26298201450909</v>
+        <v>12.26298201450913</v>
       </c>
       <c r="M37" t="n">
-        <v>9.638400173530783</v>
+        <v>9.638400173530812</v>
       </c>
       <c r="N37" t="n">
-        <v>1.472325705794916</v>
+        <v>1.472325705794958</v>
       </c>
       <c r="O37" t="n">
-        <v>21.87820272608116</v>
+        <v>21.87820272608118</v>
       </c>
       <c r="P37" t="n">
-        <v>37.97509830593103</v>
+        <v>37.97509830593104</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.44126028843799</v>
+        <v>82.441260288438</v>
       </c>
       <c r="R37" t="n">
         <v>140.2084641518275</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>262.1702466807822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>289.417575132361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>314.3632508018107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>332.1938206893527</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H38" t="n">
         <v>320.6442509224869</v>
@@ -25414,7 +25414,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J38" t="n">
-        <v>24.98883196809555</v>
+        <v>24.98883196809558</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>23.74714622271367</v>
+        <v>23.74714622271372</v>
       </c>
       <c r="R38" t="n">
         <v>100.0855147315115</v>
       </c>
       <c r="S38" t="n">
-        <v>167.1207716180409</v>
+        <v>167.120771618041</v>
       </c>
       <c r="T38" t="n">
         <v>215.0469553521373</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427595</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>235.2394635302342</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>256.7281737775123</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>288.4608804173914</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25475,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>54.93227062473809</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.3597277701237</v>
+        <v>43.84693283022301</v>
       </c>
       <c r="H39" t="n">
-        <v>102.7341098348409</v>
+        <v>21.2488400517764</v>
       </c>
       <c r="I39" t="n">
         <v>65.65068379064653</v>
       </c>
       <c r="J39" t="n">
-        <v>33.89110334874526</v>
+        <v>33.89110334874528</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,10 +25514,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.40192103162362</v>
+        <v>14.40192103162364</v>
       </c>
       <c r="R39" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738972</v>
       </c>
       <c r="S39" t="n">
         <v>153.4097146138236</v>
@@ -25526,19 +25526,19 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U39" t="n">
-        <v>144.391389311523</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V39" t="n">
-        <v>140.2877922095245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>159.1821882210189</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>113.2601902635767</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>113.1699008374037</v>
       </c>
     </row>
     <row r="40">
@@ -25572,28 +25572,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J40" t="n">
-        <v>68.68375968616432</v>
+        <v>68.68375968616434</v>
       </c>
       <c r="K40" t="n">
-        <v>33.18928527529272</v>
+        <v>33.18928527529275</v>
       </c>
       <c r="L40" t="n">
-        <v>12.26298201450909</v>
+        <v>12.26298201450913</v>
       </c>
       <c r="M40" t="n">
-        <v>9.638400173530783</v>
+        <v>9.638400173530812</v>
       </c>
       <c r="N40" t="n">
-        <v>1.472325705794916</v>
+        <v>1.472325705794958</v>
       </c>
       <c r="O40" t="n">
-        <v>21.87820272608116</v>
+        <v>21.87820272608118</v>
       </c>
       <c r="P40" t="n">
-        <v>37.97509830593103</v>
+        <v>37.97509830593104</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.44126028843799</v>
+        <v>82.441260288438</v>
       </c>
       <c r="R40" t="n">
         <v>140.2084641518275</v>
@@ -25636,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>289.529545101114</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25651,7 +25651,7 @@
         <v>139.5895402596347</v>
       </c>
       <c r="J41" t="n">
-        <v>24.98883196809555</v>
+        <v>24.98883196809558</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>23.74714622271367</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>100.0855147315115</v>
       </c>
       <c r="S41" t="n">
-        <v>74.71994664689298</v>
+        <v>167.120771618041</v>
       </c>
       <c r="T41" t="n">
-        <v>215.0469553521373</v>
+        <v>122.6461303809895</v>
       </c>
       <c r="U41" t="n">
-        <v>158.7977322115121</v>
+        <v>193.5590567707868</v>
       </c>
       <c r="V41" t="n">
-        <v>235.3514334989869</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>267.8543220828259</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>293.8371136849057</v>
       </c>
     </row>
     <row r="42">
@@ -25712,16 +25712,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>66.05841893005176</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>65.2442554842531</v>
       </c>
       <c r="F42" t="n">
-        <v>52.66838742223591</v>
+        <v>52.66838742223604</v>
       </c>
       <c r="G42" t="n">
-        <v>43.9589027989757</v>
+        <v>43.95890279897583</v>
       </c>
       <c r="H42" t="n">
         <v>102.7341098348409</v>
@@ -25730,7 +25730,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J42" t="n">
-        <v>33.89110334874526</v>
+        <v>33.89110334874528</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.40192103162362</v>
+        <v>14.40192103162364</v>
       </c>
       <c r="R42" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738972</v>
       </c>
       <c r="S42" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T42" t="n">
-        <v>103.7985420910118</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U42" t="n">
-        <v>144.4900124600004</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25809,28 +25809,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J43" t="n">
-        <v>68.68375968616432</v>
+        <v>68.68375968616434</v>
       </c>
       <c r="K43" t="n">
-        <v>33.18928527529272</v>
+        <v>33.18928527529275</v>
       </c>
       <c r="L43" t="n">
-        <v>12.26298201450909</v>
+        <v>12.26298201450913</v>
       </c>
       <c r="M43" t="n">
-        <v>9.638400173530783</v>
+        <v>9.638400173530812</v>
       </c>
       <c r="N43" t="n">
-        <v>1.472325705794916</v>
+        <v>1.472325705794958</v>
       </c>
       <c r="O43" t="n">
-        <v>21.87820272608116</v>
+        <v>21.87820272608118</v>
       </c>
       <c r="P43" t="n">
-        <v>37.97509830593103</v>
+        <v>37.97509830593104</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.44126028843799</v>
+        <v>82.441260288438</v>
       </c>
       <c r="R43" t="n">
         <v>140.2084641518275</v>
@@ -25885,10 +25885,10 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I44" t="n">
-        <v>139.5895402596347</v>
+        <v>81.95003984776142</v>
       </c>
       <c r="J44" t="n">
-        <v>24.98883196809555</v>
+        <v>24.98883196809558</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,25 +25909,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.74714622271367</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>100.0855147315115</v>
+        <v>7.684689760363625</v>
       </c>
       <c r="S44" t="n">
-        <v>74.71994664689296</v>
+        <v>74.71994664689311</v>
       </c>
       <c r="T44" t="n">
-        <v>215.0469553521373</v>
+        <v>122.6461303809894</v>
       </c>
       <c r="U44" t="n">
-        <v>158.7977322115121</v>
+        <v>251.1985571826601</v>
       </c>
       <c r="V44" t="n">
-        <v>235.3514334989869</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>267.8543220828259</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>85.14653701528034</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>55.04424059349088</v>
       </c>
       <c r="E45" t="n">
-        <v>65.24425548425296</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>43.95890279897569</v>
+        <v>43.9589027989758</v>
       </c>
       <c r="H45" t="n">
         <v>102.7341098348409</v>
@@ -25967,7 +25967,7 @@
         <v>65.65068379064653</v>
       </c>
       <c r="J45" t="n">
-        <v>33.89110334874526</v>
+        <v>33.89110334874528</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.40192103162362</v>
+        <v>14.40192103162364</v>
       </c>
       <c r="R45" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738972</v>
       </c>
       <c r="S45" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T45" t="n">
-        <v>103.7985420910117</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U45" t="n">
-        <v>144.4900124600005</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>159.2941581897717</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26046,28 +26046,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J46" t="n">
-        <v>68.68375968616432</v>
+        <v>68.68375968616434</v>
       </c>
       <c r="K46" t="n">
-        <v>33.18928527529272</v>
+        <v>33.18928527529275</v>
       </c>
       <c r="L46" t="n">
-        <v>12.26298201450909</v>
+        <v>12.26298201450913</v>
       </c>
       <c r="M46" t="n">
-        <v>9.638400173530783</v>
+        <v>9.638400173530812</v>
       </c>
       <c r="N46" t="n">
-        <v>1.472325705794916</v>
+        <v>1.472325705794958</v>
       </c>
       <c r="O46" t="n">
-        <v>21.87820272608116</v>
+        <v>21.87820272608118</v>
       </c>
       <c r="P46" t="n">
-        <v>37.97509830593103</v>
+        <v>37.97509830593104</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.44126028843799</v>
+        <v>82.441260288438</v>
       </c>
       <c r="R46" t="n">
         <v>140.2084641518275</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355469.0647082428</v>
+        <v>355469.0647082425</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355560.087530505</v>
+        <v>355560.0875305049</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355606.7511484509</v>
+        <v>355606.7511484508</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355606.7511484509</v>
+        <v>355606.7511484508</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>355606.7511484509</v>
+        <v>355606.7511484508</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>355606.7511484509</v>
+        <v>355606.7511484508</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355606.7511484511</v>
+        <v>355606.7511484507</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355560.087530505</v>
+        <v>355560.0875305048</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355560.087530505</v>
+        <v>355560.0875305049</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>85802.91214547656</v>
       </c>
       <c r="C2" t="n">
-        <v>85802.91214547656</v>
+        <v>85802.91214547657</v>
       </c>
       <c r="D2" t="n">
-        <v>85802.91214547656</v>
+        <v>85802.91214547658</v>
       </c>
       <c r="E2" t="n">
-        <v>123046.9839374685</v>
+        <v>123046.9839374684</v>
       </c>
       <c r="F2" t="n">
-        <v>123046.9839374685</v>
+        <v>123046.9839374684</v>
       </c>
       <c r="G2" t="n">
-        <v>123078.4918374824</v>
+        <v>123078.4918374823</v>
       </c>
       <c r="H2" t="n">
-        <v>123078.4918374824</v>
+        <v>123078.4918374823</v>
       </c>
       <c r="I2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283097</v>
       </c>
       <c r="J2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283097</v>
       </c>
       <c r="K2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283097</v>
       </c>
       <c r="L2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283097</v>
       </c>
       <c r="M2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283097</v>
       </c>
       <c r="N2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283097</v>
       </c>
       <c r="O2" t="n">
-        <v>123078.4918374824</v>
+        <v>123078.4918374823</v>
       </c>
       <c r="P2" t="n">
         <v>123078.4918374824</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137993.7487653024</v>
+        <v>137993.7487653023</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101.7338595810247</v>
+        <v>101.7338595811106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.77516606071025</v>
+        <v>29.7751660607178</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>22998.75182201691</v>
+        <v>22998.75182201686</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>66.87306366112948</v>
+        <v>66.87306366112941</v>
       </c>
       <c r="F4" t="n">
-        <v>66.87306366112949</v>
+        <v>66.87306366112941</v>
       </c>
       <c r="G4" t="n">
-        <v>66.95419777909362</v>
+        <v>66.95419777909352</v>
       </c>
       <c r="H4" t="n">
-        <v>66.95419777909362</v>
+        <v>66.95419777909353</v>
       </c>
       <c r="I4" t="n">
-        <v>67.0091336387931</v>
+        <v>67.00913363879302</v>
       </c>
       <c r="J4" t="n">
-        <v>67.0091336387931</v>
+        <v>67.00913363879302</v>
       </c>
       <c r="K4" t="n">
-        <v>67.0091336387931</v>
+        <v>67.00913363879302</v>
       </c>
       <c r="L4" t="n">
-        <v>67.0091336387931</v>
+        <v>67.00913363879302</v>
       </c>
       <c r="M4" t="n">
-        <v>67.0091336387931</v>
+        <v>67.00913363879302</v>
       </c>
       <c r="N4" t="n">
-        <v>67.00913363879309</v>
+        <v>67.00913363879302</v>
       </c>
       <c r="O4" t="n">
-        <v>66.95419777909362</v>
+        <v>66.95419777909352</v>
       </c>
       <c r="P4" t="n">
-        <v>66.95419777909362</v>
+        <v>66.95419777909353</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>15579.96215784088</v>
+        <v>15579.96215784087</v>
       </c>
       <c r="F5" t="n">
-        <v>15579.96215784088</v>
+        <v>15579.96215784087</v>
       </c>
       <c r="G5" t="n">
-        <v>15588.76195449726</v>
+        <v>15588.76195449725</v>
       </c>
       <c r="H5" t="n">
-        <v>15588.76195449726</v>
+        <v>15588.76195449725</v>
       </c>
       <c r="I5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859742</v>
       </c>
       <c r="J5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859742</v>
       </c>
       <c r="K5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859742</v>
       </c>
       <c r="L5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859742</v>
       </c>
       <c r="M5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859742</v>
       </c>
       <c r="N5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859742</v>
       </c>
       <c r="O5" t="n">
-        <v>15588.76195449726</v>
+        <v>15588.76195449725</v>
       </c>
       <c r="P5" t="n">
-        <v>15588.76195449726</v>
+        <v>15588.76195449725</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278739.8900324157</v>
+        <v>-264556.5958177431</v>
       </c>
       <c r="C6" t="n">
-        <v>29443.99378813862</v>
+        <v>43627.28800281118</v>
       </c>
       <c r="D6" t="n">
-        <v>29443.99378813862</v>
+        <v>43627.2880028112</v>
       </c>
       <c r="E6" t="n">
-        <v>-44283.70074386147</v>
+        <v>-31962.61011878838</v>
       </c>
       <c r="F6" t="n">
-        <v>93710.04802144093</v>
+        <v>106031.1386465139</v>
       </c>
       <c r="G6" t="n">
-        <v>93632.69156998915</v>
+        <v>105952.2068000613</v>
       </c>
       <c r="H6" t="n">
-        <v>93734.42542957018</v>
+        <v>106053.9406596424</v>
       </c>
       <c r="I6" t="n">
-        <v>93714.83772164524</v>
+        <v>106033.545312176</v>
       </c>
       <c r="J6" t="n">
-        <v>93744.61288770597</v>
+        <v>106063.3204782367</v>
       </c>
       <c r="K6" t="n">
-        <v>93744.61288770591</v>
+        <v>106063.3204782367</v>
       </c>
       <c r="L6" t="n">
-        <v>93744.61288770594</v>
+        <v>106063.3204782367</v>
       </c>
       <c r="M6" t="n">
-        <v>70745.86106568904</v>
+        <v>83064.56865621987</v>
       </c>
       <c r="N6" t="n">
-        <v>93744.61288770594</v>
+        <v>106063.3204782367</v>
       </c>
       <c r="O6" t="n">
-        <v>93734.42542957018</v>
+        <v>106053.9406596424</v>
       </c>
       <c r="P6" t="n">
-        <v>93734.42542957018</v>
+        <v>106053.9406596424</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>319.8212184980426</v>
       </c>
       <c r="E3" t="n">
-        <v>457.2843932887731</v>
+        <v>457.284393288773</v>
       </c>
       <c r="F3" t="n">
-        <v>457.2843932887731</v>
+        <v>457.284393288773</v>
       </c>
       <c r="G3" t="n">
-        <v>457.3757704702507</v>
+        <v>457.3757704702506</v>
       </c>
       <c r="H3" t="n">
-        <v>457.3757704702507</v>
+        <v>457.3757704702506</v>
       </c>
       <c r="I3" t="n">
-        <v>457.3757704702507</v>
+        <v>457.3757704702506</v>
       </c>
       <c r="J3" t="n">
-        <v>457.3757704702507</v>
+        <v>457.3757704702506</v>
       </c>
       <c r="K3" t="n">
-        <v>457.3757704702507</v>
+        <v>457.3757704702506</v>
       </c>
       <c r="L3" t="n">
-        <v>457.3757704702507</v>
+        <v>457.3757704702506</v>
       </c>
       <c r="M3" t="n">
-        <v>457.3757704702507</v>
+        <v>457.3757704702506</v>
       </c>
       <c r="N3" t="n">
-        <v>457.3757704702507</v>
+        <v>457.3757704702506</v>
       </c>
       <c r="O3" t="n">
-        <v>457.3757704702507</v>
+        <v>457.3757704702506</v>
       </c>
       <c r="P3" t="n">
-        <v>457.3757704702507</v>
+        <v>457.3757704702506</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.28885500239517</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="F4" t="n">
-        <v>92.2888550023952</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="G4" t="n">
-        <v>92.40082497114797</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="H4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="I4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="J4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="K4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="L4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="M4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N4" t="n">
-        <v>92.51279493990076</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="O4" t="n">
-        <v>92.40082497114797</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="P4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114787</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.4631747907305</v>
+        <v>137.4631747907304</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09137718147752526</v>
+        <v>0.09137718147761568</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1119699687527884</v>
+        <v>0.1119699687528453</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1119699687527884</v>
+        <v>0.1119699687528168</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1119699687527884</v>
+        <v>0.1119699687528453</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.838329219251348</v>
+        <v>1.838329219251347</v>
       </c>
       <c r="H11" t="n">
         <v>18.82678911665787</v>
       </c>
       <c r="I11" t="n">
-        <v>70.87218722518766</v>
+        <v>70.87218722518764</v>
       </c>
       <c r="J11" t="n">
         <v>156.0258945724342</v>
@@ -31770,16 +31770,16 @@
         <v>290.1021382670073</v>
       </c>
       <c r="M11" t="n">
-        <v>322.6350882296679</v>
+        <v>322.6350882296678</v>
       </c>
       <c r="N11" t="n">
-        <v>321.7019185989861</v>
+        <v>321.701918598986</v>
       </c>
       <c r="O11" t="n">
-        <v>309.7377922401358</v>
+        <v>309.7377922401357</v>
       </c>
       <c r="P11" t="n">
-        <v>264.3540396398681</v>
+        <v>264.354039639868</v>
       </c>
       <c r="Q11" t="n">
         <v>198.5188744754291</v>
@@ -31788,10 +31788,10 @@
         <v>115.4769478187976</v>
       </c>
       <c r="S11" t="n">
-        <v>41.89092708369013</v>
+        <v>41.89092708369012</v>
       </c>
       <c r="T11" t="n">
-        <v>8.047286157272779</v>
+        <v>8.047286157272778</v>
       </c>
       <c r="U11" t="n">
         <v>0.1470663375401078</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9835928459418893</v>
+        <v>0.9835928459418891</v>
       </c>
       <c r="H12" t="n">
-        <v>9.499436170017722</v>
+        <v>9.49943617001772</v>
       </c>
       <c r="I12" t="n">
         <v>33.86492912563084</v>
       </c>
       <c r="J12" t="n">
-        <v>92.9279539229572</v>
+        <v>92.92795392295717</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>158.8286746010637</v>
       </c>
       <c r="L12" t="n">
-        <v>213.5647536769879</v>
+        <v>213.5647536769878</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4228889244135</v>
+        <v>234.4228889244134</v>
       </c>
       <c r="N12" t="n">
-        <v>223.6305670857285</v>
+        <v>223.6305670857284</v>
       </c>
       <c r="O12" t="n">
-        <v>194.5860518022937</v>
+        <v>227.4475022990568</v>
       </c>
       <c r="P12" t="n">
-        <v>187.8230935377982</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>125.5547639837401</v>
       </c>
       <c r="R12" t="n">
-        <v>61.06903652260259</v>
+        <v>61.06903652260258</v>
       </c>
       <c r="S12" t="n">
-        <v>18.26980571299956</v>
+        <v>18.26980571299955</v>
       </c>
       <c r="T12" t="n">
-        <v>3.964569409739456</v>
+        <v>3.964569409739455</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0647100556540717</v>
+        <v>0.06471005565407167</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8246112010125416</v>
+        <v>0.8246112010125414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.331543223547875</v>
+        <v>7.331543223547873</v>
       </c>
       <c r="I13" t="n">
-        <v>24.79830775408626</v>
+        <v>24.79830775408625</v>
       </c>
       <c r="J13" t="n">
-        <v>58.30001191158669</v>
+        <v>58.30001191158667</v>
       </c>
       <c r="K13" t="n">
-        <v>95.80482862672982</v>
+        <v>95.80482862672979</v>
       </c>
       <c r="L13" t="n">
         <v>122.5971961941737</v>
       </c>
       <c r="M13" t="n">
-        <v>129.2615539914478</v>
+        <v>129.2615539914477</v>
       </c>
       <c r="N13" t="n">
         <v>126.1880031513102</v>
@@ -31937,22 +31937,22 @@
         <v>116.5550450303909</v>
       </c>
       <c r="P13" t="n">
-        <v>99.732976529735</v>
+        <v>99.73297652973497</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.04994338660474</v>
+        <v>69.04994338660472</v>
       </c>
       <c r="R13" t="n">
-        <v>37.07751818370936</v>
+        <v>37.07751818370935</v>
       </c>
       <c r="S13" t="n">
         <v>14.37072429400947</v>
       </c>
       <c r="T13" t="n">
-        <v>3.523338767962677</v>
+        <v>3.523338767962676</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04497879278250232</v>
+        <v>0.04497879278250231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.838329219251348</v>
+        <v>1.838329219251347</v>
       </c>
       <c r="H14" t="n">
         <v>18.82678911665787</v>
       </c>
       <c r="I14" t="n">
-        <v>70.87218722518766</v>
+        <v>70.87218722518764</v>
       </c>
       <c r="J14" t="n">
         <v>156.0258945724342</v>
@@ -32007,16 +32007,16 @@
         <v>290.1021382670073</v>
       </c>
       <c r="M14" t="n">
-        <v>322.6350882296679</v>
+        <v>322.6350882296678</v>
       </c>
       <c r="N14" t="n">
-        <v>321.7019185989861</v>
+        <v>321.701918598986</v>
       </c>
       <c r="O14" t="n">
-        <v>309.7377922401358</v>
+        <v>309.7377922401357</v>
       </c>
       <c r="P14" t="n">
-        <v>264.3540396398681</v>
+        <v>264.354039639868</v>
       </c>
       <c r="Q14" t="n">
         <v>198.5188744754291</v>
@@ -32025,10 +32025,10 @@
         <v>115.4769478187976</v>
       </c>
       <c r="S14" t="n">
-        <v>41.89092708369013</v>
+        <v>41.89092708369012</v>
       </c>
       <c r="T14" t="n">
-        <v>8.047286157272779</v>
+        <v>8.047286157272778</v>
       </c>
       <c r="U14" t="n">
         <v>0.1470663375401078</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9835928459418893</v>
+        <v>0.9835928459418891</v>
       </c>
       <c r="H15" t="n">
-        <v>9.499436170017722</v>
+        <v>9.49943617001772</v>
       </c>
       <c r="I15" t="n">
         <v>33.86492912563084</v>
       </c>
       <c r="J15" t="n">
-        <v>92.9279539229572</v>
+        <v>92.92795392295717</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>158.8286746010637</v>
       </c>
       <c r="L15" t="n">
-        <v>174.1290462081867</v>
+        <v>213.5647536769878</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4228889244135</v>
+        <v>234.4228889244134</v>
       </c>
       <c r="N15" t="n">
-        <v>223.6305670857285</v>
+        <v>223.6305670857284</v>
       </c>
       <c r="O15" t="n">
-        <v>234.021759271095</v>
+        <v>227.4475022990568</v>
       </c>
       <c r="P15" t="n">
-        <v>187.8230935377982</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>125.5547639837401</v>
       </c>
       <c r="R15" t="n">
-        <v>61.06903652260259</v>
+        <v>61.06903652260258</v>
       </c>
       <c r="S15" t="n">
-        <v>18.26980571299956</v>
+        <v>18.26980571299955</v>
       </c>
       <c r="T15" t="n">
-        <v>3.964569409739456</v>
+        <v>3.964569409739455</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0647100556540717</v>
+        <v>0.06471005565407167</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8246112010125416</v>
+        <v>0.8246112010125414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.331543223547875</v>
+        <v>7.331543223547873</v>
       </c>
       <c r="I16" t="n">
-        <v>24.79830775408626</v>
+        <v>24.79830775408625</v>
       </c>
       <c r="J16" t="n">
-        <v>58.30001191158669</v>
+        <v>58.30001191158667</v>
       </c>
       <c r="K16" t="n">
-        <v>95.80482862672982</v>
+        <v>95.80482862672979</v>
       </c>
       <c r="L16" t="n">
         <v>122.5971961941737</v>
       </c>
       <c r="M16" t="n">
-        <v>129.2615539914478</v>
+        <v>129.2615539914477</v>
       </c>
       <c r="N16" t="n">
         <v>126.1880031513102</v>
@@ -32174,22 +32174,22 @@
         <v>116.5550450303909</v>
       </c>
       <c r="P16" t="n">
-        <v>99.732976529735</v>
+        <v>99.73297652973497</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.04994338660474</v>
+        <v>69.04994338660472</v>
       </c>
       <c r="R16" t="n">
-        <v>37.07751818370936</v>
+        <v>37.07751818370935</v>
       </c>
       <c r="S16" t="n">
         <v>14.37072429400947</v>
       </c>
       <c r="T16" t="n">
-        <v>3.523338767962677</v>
+        <v>3.523338767962676</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04497879278250232</v>
+        <v>0.04497879278250231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,28 +32226,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704523</v>
       </c>
       <c r="H17" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I17" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077121</v>
       </c>
       <c r="J17" t="n">
         <v>156.0570725585907</v>
       </c>
       <c r="K17" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425332</v>
       </c>
       <c r="L17" t="n">
-        <v>290.1601081346094</v>
+        <v>290.1601081346093</v>
       </c>
       <c r="M17" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984206</v>
       </c>
       <c r="N17" t="n">
-        <v>321.8138885677389</v>
+        <v>321.8138885677388</v>
       </c>
       <c r="O17" t="n">
         <v>309.7996858163596</v>
@@ -32259,13 +32259,13 @@
         <v>198.5585436517358</v>
       </c>
       <c r="R17" t="n">
-        <v>115.5000230826207</v>
+        <v>115.5000230826206</v>
       </c>
       <c r="S17" t="n">
-        <v>41.89929796820439</v>
+        <v>41.89929796820437</v>
       </c>
       <c r="T17" t="n">
-        <v>8.048894211994059</v>
+        <v>8.048894211994057</v>
       </c>
       <c r="U17" t="n">
         <v>0.1470957251763619</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9837893930869543</v>
+        <v>0.9837893930869541</v>
       </c>
       <c r="H18" t="n">
-        <v>9.501334401655587</v>
+        <v>9.501334401655585</v>
       </c>
       <c r="I18" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935347</v>
       </c>
       <c r="J18" t="n">
-        <v>92.94652331792143</v>
+        <v>92.94652331792142</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547473</v>
       </c>
       <c r="L18" t="n">
-        <v>174.2641666566376</v>
+        <v>213.6074294068845</v>
       </c>
       <c r="M18" t="n">
-        <v>234.5348588931663</v>
+        <v>174.1726224625308</v>
       </c>
       <c r="N18" t="n">
-        <v>223.7425370544813</v>
+        <v>223.7425370544811</v>
       </c>
       <c r="O18" t="n">
         <v>234.0685228367895</v>
       </c>
       <c r="P18" t="n">
-        <v>187.8606254220168</v>
+        <v>187.8606254220167</v>
       </c>
       <c r="Q18" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R18" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657424</v>
       </c>
       <c r="S18" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001424</v>
       </c>
       <c r="T18" t="n">
-        <v>3.965361632661889</v>
+        <v>3.965361632661888</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8247759795365176</v>
+        <v>0.8247759795365174</v>
       </c>
       <c r="H19" t="n">
-        <v>7.33300825442468</v>
+        <v>7.333008254424678</v>
       </c>
       <c r="I19" t="n">
-        <v>24.80326309369819</v>
+        <v>24.80326309369818</v>
       </c>
       <c r="J19" t="n">
-        <v>58.31166175323179</v>
+        <v>58.31166175323177</v>
       </c>
       <c r="K19" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524263</v>
       </c>
       <c r="L19" t="n">
         <v>122.6216942667292</v>
       </c>
       <c r="M19" t="n">
-        <v>129.2873837740743</v>
+        <v>129.2873837740742</v>
       </c>
       <c r="N19" t="n">
-        <v>126.2132187594383</v>
+        <v>126.2132187594382</v>
       </c>
       <c r="O19" t="n">
         <v>116.5783357257616</v>
       </c>
       <c r="P19" t="n">
-        <v>99.75290574321659</v>
+        <v>99.75290574321657</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100784</v>
       </c>
       <c r="R19" t="n">
-        <v>37.08492722534195</v>
+        <v>37.08492722534194</v>
       </c>
       <c r="S19" t="n">
-        <v>14.3735959342864</v>
+        <v>14.37359593428639</v>
       </c>
       <c r="T19" t="n">
-        <v>3.524042821656029</v>
+        <v>3.524042821656028</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04498778070199192</v>
+        <v>0.04498778070199191</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,28 +32463,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704523</v>
       </c>
       <c r="H20" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I20" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077121</v>
       </c>
       <c r="J20" t="n">
         <v>156.0570725585907</v>
       </c>
       <c r="K20" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425332</v>
       </c>
       <c r="L20" t="n">
-        <v>290.1601081346094</v>
+        <v>290.1601081346093</v>
       </c>
       <c r="M20" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984206</v>
       </c>
       <c r="N20" t="n">
-        <v>321.8138885677389</v>
+        <v>321.8138885677388</v>
       </c>
       <c r="O20" t="n">
         <v>309.7996858163596</v>
@@ -32496,13 +32496,13 @@
         <v>198.5585436517358</v>
       </c>
       <c r="R20" t="n">
-        <v>115.5000230826207</v>
+        <v>115.5000230826206</v>
       </c>
       <c r="S20" t="n">
-        <v>41.89929796820439</v>
+        <v>41.89929796820437</v>
       </c>
       <c r="T20" t="n">
-        <v>8.048894211994059</v>
+        <v>8.048894211994057</v>
       </c>
       <c r="U20" t="n">
         <v>0.1470957251763619</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9837893930869543</v>
+        <v>0.9837893930869541</v>
       </c>
       <c r="H21" t="n">
-        <v>9.501334401655587</v>
+        <v>9.501334401655585</v>
       </c>
       <c r="I21" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935347</v>
       </c>
       <c r="J21" t="n">
-        <v>92.94652331792143</v>
+        <v>92.94652331792142</v>
       </c>
       <c r="K21" t="n">
-        <v>158.8604126547474</v>
+        <v>158.8604126547473</v>
       </c>
       <c r="L21" t="n">
-        <v>213.6074294068846</v>
+        <v>213.6074294068845</v>
       </c>
       <c r="M21" t="n">
-        <v>234.5348588931663</v>
+        <v>234.5348588931662</v>
       </c>
       <c r="N21" t="n">
-        <v>223.7425370544813</v>
+        <v>163.3803006238458</v>
       </c>
       <c r="O21" t="n">
-        <v>173.7062864061542</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P21" t="n">
-        <v>187.8606254220168</v>
+        <v>187.8606254220167</v>
       </c>
       <c r="Q21" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R21" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657424</v>
       </c>
       <c r="S21" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001424</v>
       </c>
       <c r="T21" t="n">
-        <v>3.965361632661889</v>
+        <v>3.965361632661888</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8247759795365176</v>
+        <v>0.8247759795365174</v>
       </c>
       <c r="H22" t="n">
-        <v>7.33300825442468</v>
+        <v>7.333008254424678</v>
       </c>
       <c r="I22" t="n">
-        <v>24.80326309369819</v>
+        <v>24.80326309369818</v>
       </c>
       <c r="J22" t="n">
-        <v>58.31166175323179</v>
+        <v>58.31166175323177</v>
       </c>
       <c r="K22" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524263</v>
       </c>
       <c r="L22" t="n">
         <v>122.6216942667292</v>
       </c>
       <c r="M22" t="n">
-        <v>129.2873837740743</v>
+        <v>129.2873837740742</v>
       </c>
       <c r="N22" t="n">
-        <v>126.2132187594383</v>
+        <v>126.2132187594382</v>
       </c>
       <c r="O22" t="n">
         <v>116.5783357257616</v>
       </c>
       <c r="P22" t="n">
-        <v>99.75290574321659</v>
+        <v>99.75290574321657</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100784</v>
       </c>
       <c r="R22" t="n">
-        <v>37.08492722534195</v>
+        <v>37.08492722534194</v>
       </c>
       <c r="S22" t="n">
-        <v>14.3735959342864</v>
+        <v>14.37359593428639</v>
       </c>
       <c r="T22" t="n">
-        <v>3.524042821656029</v>
+        <v>3.524042821656028</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04498778070199192</v>
+        <v>0.04498778070199191</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,28 +32700,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704523</v>
       </c>
       <c r="H23" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I23" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077121</v>
       </c>
       <c r="J23" t="n">
         <v>156.0570725585907</v>
       </c>
       <c r="K23" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425332</v>
       </c>
       <c r="L23" t="n">
-        <v>290.1601081346094</v>
+        <v>290.1601081346093</v>
       </c>
       <c r="M23" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671734</v>
       </c>
       <c r="N23" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364915</v>
       </c>
       <c r="O23" t="n">
         <v>309.7996858163596</v>
@@ -32733,13 +32733,13 @@
         <v>198.5585436517358</v>
       </c>
       <c r="R23" t="n">
-        <v>115.5000230826207</v>
+        <v>115.5000230826206</v>
       </c>
       <c r="S23" t="n">
-        <v>41.89929796820439</v>
+        <v>41.89929796820437</v>
       </c>
       <c r="T23" t="n">
-        <v>8.048894211994059</v>
+        <v>8.048894211994057</v>
       </c>
       <c r="U23" t="n">
         <v>0.1470957251763619</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9837893930869543</v>
+        <v>0.9837893930869541</v>
       </c>
       <c r="H24" t="n">
-        <v>9.501334401655587</v>
+        <v>9.501334401655585</v>
       </c>
       <c r="I24" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935347</v>
       </c>
       <c r="J24" t="n">
-        <v>92.94652331792143</v>
+        <v>92.94652331792142</v>
       </c>
       <c r="K24" t="n">
-        <v>158.8604126547474</v>
+        <v>158.8604126547473</v>
       </c>
       <c r="L24" t="n">
-        <v>213.6074294068846</v>
+        <v>213.6074294068845</v>
       </c>
       <c r="M24" t="n">
-        <v>234.6468288619191</v>
+        <v>234.646828861919</v>
       </c>
       <c r="N24" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909627</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9257023045183</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P24" t="n">
-        <v>187.8606254220168</v>
+        <v>187.8606254220167</v>
       </c>
       <c r="Q24" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R24" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657424</v>
       </c>
       <c r="S24" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001424</v>
       </c>
       <c r="T24" t="n">
-        <v>3.965361632661889</v>
+        <v>3.965361632661888</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8247759795365176</v>
+        <v>0.8247759795365174</v>
       </c>
       <c r="H25" t="n">
-        <v>7.33300825442468</v>
+        <v>7.333008254424678</v>
       </c>
       <c r="I25" t="n">
-        <v>24.80326309369819</v>
+        <v>24.80326309369818</v>
       </c>
       <c r="J25" t="n">
-        <v>58.31166175323179</v>
+        <v>58.31166175323177</v>
       </c>
       <c r="K25" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524263</v>
       </c>
       <c r="L25" t="n">
         <v>122.6216942667292</v>
       </c>
       <c r="M25" t="n">
-        <v>129.2873837740743</v>
+        <v>129.2873837740742</v>
       </c>
       <c r="N25" t="n">
-        <v>126.2132187594383</v>
+        <v>126.2132187594382</v>
       </c>
       <c r="O25" t="n">
         <v>116.5783357257616</v>
       </c>
       <c r="P25" t="n">
-        <v>99.75290574321659</v>
+        <v>99.75290574321657</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100784</v>
       </c>
       <c r="R25" t="n">
-        <v>37.08492722534195</v>
+        <v>37.08492722534194</v>
       </c>
       <c r="S25" t="n">
-        <v>14.3735959342864</v>
+        <v>14.37359593428639</v>
       </c>
       <c r="T25" t="n">
-        <v>3.524042821656029</v>
+        <v>3.524042821656028</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04498778070199192</v>
+        <v>0.04498778070199191</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,28 +32937,28 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704523</v>
       </c>
       <c r="H26" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I26" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077121</v>
       </c>
       <c r="J26" t="n">
         <v>156.0570725585907</v>
       </c>
       <c r="K26" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425332</v>
       </c>
       <c r="L26" t="n">
-        <v>290.1601081346094</v>
+        <v>290.1601081346093</v>
       </c>
       <c r="M26" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671734</v>
       </c>
       <c r="N26" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364915</v>
       </c>
       <c r="O26" t="n">
         <v>309.7996858163596</v>
@@ -32970,13 +32970,13 @@
         <v>198.5585436517358</v>
       </c>
       <c r="R26" t="n">
-        <v>115.5000230826207</v>
+        <v>115.5000230826206</v>
       </c>
       <c r="S26" t="n">
-        <v>41.89929796820439</v>
+        <v>41.89929796820437</v>
       </c>
       <c r="T26" t="n">
-        <v>8.048894211994059</v>
+        <v>8.048894211994057</v>
       </c>
       <c r="U26" t="n">
         <v>0.1470957251763619</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9837893930869543</v>
+        <v>0.9837893930869541</v>
       </c>
       <c r="H27" t="n">
-        <v>9.501334401655587</v>
+        <v>9.501334401655585</v>
       </c>
       <c r="I27" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935347</v>
       </c>
       <c r="J27" t="n">
-        <v>92.94652331792143</v>
+        <v>92.94652331792142</v>
       </c>
       <c r="K27" t="n">
-        <v>158.8604126547474</v>
+        <v>158.8604126547473</v>
       </c>
       <c r="L27" t="n">
-        <v>213.6074294068846</v>
+        <v>213.6074294068845</v>
       </c>
       <c r="M27" t="n">
-        <v>234.6468288619191</v>
+        <v>234.646828861919</v>
       </c>
       <c r="N27" t="n">
-        <v>163.7116864909628</v>
+        <v>217.5979044986491</v>
       </c>
       <c r="O27" t="n">
         <v>234.0685228367895</v>
       </c>
       <c r="P27" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R27" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657424</v>
       </c>
       <c r="S27" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001424</v>
       </c>
       <c r="T27" t="n">
-        <v>3.965361632661889</v>
+        <v>3.965361632661888</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8247759795365176</v>
+        <v>0.8247759795365174</v>
       </c>
       <c r="H28" t="n">
-        <v>7.33300825442468</v>
+        <v>7.333008254424678</v>
       </c>
       <c r="I28" t="n">
-        <v>24.80326309369819</v>
+        <v>24.80326309369818</v>
       </c>
       <c r="J28" t="n">
-        <v>58.31166175323179</v>
+        <v>58.31166175323177</v>
       </c>
       <c r="K28" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524263</v>
       </c>
       <c r="L28" t="n">
         <v>122.6216942667292</v>
       </c>
       <c r="M28" t="n">
-        <v>129.2873837740743</v>
+        <v>129.2873837740742</v>
       </c>
       <c r="N28" t="n">
-        <v>126.2132187594383</v>
+        <v>126.2132187594382</v>
       </c>
       <c r="O28" t="n">
         <v>116.5783357257616</v>
       </c>
       <c r="P28" t="n">
-        <v>99.75290574321659</v>
+        <v>99.75290574321657</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100784</v>
       </c>
       <c r="R28" t="n">
-        <v>37.08492722534195</v>
+        <v>37.08492722534194</v>
       </c>
       <c r="S28" t="n">
-        <v>14.3735959342864</v>
+        <v>14.37359593428639</v>
       </c>
       <c r="T28" t="n">
-        <v>3.524042821656029</v>
+        <v>3.524042821656028</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04498778070199192</v>
+        <v>0.04498778070199191</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,28 +33174,28 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704523</v>
       </c>
       <c r="H29" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I29" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077121</v>
       </c>
       <c r="J29" t="n">
         <v>156.0570725585907</v>
       </c>
       <c r="K29" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425332</v>
       </c>
       <c r="L29" t="n">
-        <v>290.1601081346094</v>
+        <v>290.1601081346093</v>
       </c>
       <c r="M29" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671734</v>
       </c>
       <c r="N29" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364915</v>
       </c>
       <c r="O29" t="n">
         <v>309.7996858163596</v>
@@ -33207,13 +33207,13 @@
         <v>198.5585436517358</v>
       </c>
       <c r="R29" t="n">
-        <v>115.5000230826207</v>
+        <v>115.5000230826206</v>
       </c>
       <c r="S29" t="n">
-        <v>41.89929796820439</v>
+        <v>41.89929796820437</v>
       </c>
       <c r="T29" t="n">
-        <v>8.048894211994059</v>
+        <v>8.048894211994057</v>
       </c>
       <c r="U29" t="n">
         <v>0.1470957251763619</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9837893930869543</v>
+        <v>0.9837893930869541</v>
       </c>
       <c r="H30" t="n">
-        <v>9.501334401655587</v>
+        <v>9.501334401655585</v>
       </c>
       <c r="I30" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935347</v>
       </c>
       <c r="J30" t="n">
-        <v>92.94652331792143</v>
+        <v>92.94652331792142</v>
       </c>
       <c r="K30" t="n">
-        <v>158.8604126547474</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>213.6074294068846</v>
+        <v>213.6074294068845</v>
       </c>
       <c r="M30" t="n">
-        <v>234.6468288619191</v>
+        <v>234.646828861919</v>
       </c>
       <c r="N30" t="n">
-        <v>217.5979044986493</v>
+        <v>184.730660171351</v>
       </c>
       <c r="O30" t="n">
         <v>234.0685228367895</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>187.8606254220167</v>
       </c>
       <c r="Q30" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R30" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657424</v>
       </c>
       <c r="S30" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001424</v>
       </c>
       <c r="T30" t="n">
-        <v>3.965361632661889</v>
+        <v>3.965361632661888</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8247759795365176</v>
+        <v>0.8247759795365174</v>
       </c>
       <c r="H31" t="n">
-        <v>7.33300825442468</v>
+        <v>7.333008254424678</v>
       </c>
       <c r="I31" t="n">
-        <v>24.80326309369819</v>
+        <v>24.80326309369818</v>
       </c>
       <c r="J31" t="n">
-        <v>58.31166175323179</v>
+        <v>58.31166175323177</v>
       </c>
       <c r="K31" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524263</v>
       </c>
       <c r="L31" t="n">
         <v>122.6216942667292</v>
       </c>
       <c r="M31" t="n">
-        <v>129.2873837740743</v>
+        <v>129.2873837740742</v>
       </c>
       <c r="N31" t="n">
-        <v>126.2132187594383</v>
+        <v>126.2132187594382</v>
       </c>
       <c r="O31" t="n">
         <v>116.5783357257616</v>
       </c>
       <c r="P31" t="n">
-        <v>99.75290574321659</v>
+        <v>99.75290574321657</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100784</v>
       </c>
       <c r="R31" t="n">
-        <v>37.08492722534195</v>
+        <v>37.08492722534194</v>
       </c>
       <c r="S31" t="n">
-        <v>14.3735959342864</v>
+        <v>14.37359593428639</v>
       </c>
       <c r="T31" t="n">
-        <v>3.524042821656029</v>
+        <v>3.524042821656028</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04498778070199192</v>
+        <v>0.04498778070199191</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,28 +33411,28 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704523</v>
       </c>
       <c r="H32" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I32" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077121</v>
       </c>
       <c r="J32" t="n">
         <v>156.0570725585907</v>
       </c>
       <c r="K32" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425332</v>
       </c>
       <c r="L32" t="n">
-        <v>290.1601081346094</v>
+        <v>290.1601081346093</v>
       </c>
       <c r="M32" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671734</v>
       </c>
       <c r="N32" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364915</v>
       </c>
       <c r="O32" t="n">
         <v>309.7996858163596</v>
@@ -33444,13 +33444,13 @@
         <v>198.5585436517358</v>
       </c>
       <c r="R32" t="n">
-        <v>115.5000230826207</v>
+        <v>115.5000230826206</v>
       </c>
       <c r="S32" t="n">
-        <v>41.89929796820439</v>
+        <v>41.89929796820437</v>
       </c>
       <c r="T32" t="n">
-        <v>8.048894211994059</v>
+        <v>8.048894211994057</v>
       </c>
       <c r="U32" t="n">
         <v>0.1470957251763619</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9837893930869543</v>
+        <v>0.9837893930869541</v>
       </c>
       <c r="H33" t="n">
-        <v>9.501334401655587</v>
+        <v>9.501334401655585</v>
       </c>
       <c r="I33" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935347</v>
       </c>
       <c r="J33" t="n">
-        <v>92.94652331792143</v>
+        <v>92.94652331792142</v>
       </c>
       <c r="K33" t="n">
-        <v>158.8604126547474</v>
+        <v>158.8604126547473</v>
       </c>
       <c r="L33" t="n">
-        <v>213.6074294068846</v>
+        <v>213.6074294068845</v>
       </c>
       <c r="M33" t="n">
-        <v>234.6468288619191</v>
+        <v>174.5040083296477</v>
       </c>
       <c r="N33" t="n">
-        <v>223.8545070232341</v>
+        <v>223.854507023234</v>
       </c>
       <c r="O33" t="n">
-        <v>227.8119203122048</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>187.8606254220167</v>
       </c>
       <c r="Q33" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R33" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657424</v>
       </c>
       <c r="S33" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001424</v>
       </c>
       <c r="T33" t="n">
-        <v>3.965361632661889</v>
+        <v>3.965361632661888</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8247759795365176</v>
+        <v>0.8247759795365174</v>
       </c>
       <c r="H34" t="n">
-        <v>7.33300825442468</v>
+        <v>7.333008254424678</v>
       </c>
       <c r="I34" t="n">
-        <v>24.80326309369819</v>
+        <v>24.80326309369818</v>
       </c>
       <c r="J34" t="n">
-        <v>58.31166175323179</v>
+        <v>58.31166175323177</v>
       </c>
       <c r="K34" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524263</v>
       </c>
       <c r="L34" t="n">
         <v>122.6216942667292</v>
       </c>
       <c r="M34" t="n">
-        <v>129.2873837740743</v>
+        <v>129.2873837740742</v>
       </c>
       <c r="N34" t="n">
-        <v>126.2132187594383</v>
+        <v>126.2132187594382</v>
       </c>
       <c r="O34" t="n">
         <v>116.5783357257616</v>
       </c>
       <c r="P34" t="n">
-        <v>99.75290574321659</v>
+        <v>99.75290574321657</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100784</v>
       </c>
       <c r="R34" t="n">
-        <v>37.08492722534195</v>
+        <v>37.08492722534194</v>
       </c>
       <c r="S34" t="n">
-        <v>14.3735959342864</v>
+        <v>14.37359593428639</v>
       </c>
       <c r="T34" t="n">
-        <v>3.524042821656029</v>
+        <v>3.524042821656028</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04498778070199192</v>
+        <v>0.04498778070199191</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,28 +33648,28 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704523</v>
       </c>
       <c r="H35" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I35" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077121</v>
       </c>
       <c r="J35" t="n">
         <v>156.0570725585907</v>
       </c>
       <c r="K35" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425332</v>
       </c>
       <c r="L35" t="n">
-        <v>290.1601081346094</v>
+        <v>290.1601081346093</v>
       </c>
       <c r="M35" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671734</v>
       </c>
       <c r="N35" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364915</v>
       </c>
       <c r="O35" t="n">
         <v>309.7996858163596</v>
@@ -33681,13 +33681,13 @@
         <v>198.5585436517358</v>
       </c>
       <c r="R35" t="n">
-        <v>115.5000230826207</v>
+        <v>115.5000230826206</v>
       </c>
       <c r="S35" t="n">
-        <v>41.89929796820439</v>
+        <v>41.89929796820437</v>
       </c>
       <c r="T35" t="n">
-        <v>8.048894211994059</v>
+        <v>8.048894211994057</v>
       </c>
       <c r="U35" t="n">
         <v>0.1470957251763619</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9837893930869543</v>
+        <v>0.9837893930869541</v>
       </c>
       <c r="H36" t="n">
-        <v>9.501334401655587</v>
+        <v>9.501334401655585</v>
       </c>
       <c r="I36" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935347</v>
       </c>
       <c r="J36" t="n">
-        <v>92.94652331792143</v>
+        <v>92.94652331792142</v>
       </c>
       <c r="K36" t="n">
-        <v>158.8604126547474</v>
+        <v>158.8604126547473</v>
       </c>
       <c r="L36" t="n">
-        <v>213.6074294068846</v>
+        <v>213.6074294068845</v>
       </c>
       <c r="M36" t="n">
-        <v>174.5040083296478</v>
+        <v>234.646828861919</v>
       </c>
       <c r="N36" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909627</v>
       </c>
       <c r="O36" t="n">
         <v>234.0685228367895</v>
       </c>
       <c r="P36" t="n">
-        <v>187.8606254220168</v>
+        <v>187.8606254220167</v>
       </c>
       <c r="Q36" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R36" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657424</v>
       </c>
       <c r="S36" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001424</v>
       </c>
       <c r="T36" t="n">
-        <v>3.965361632661889</v>
+        <v>3.965361632661888</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8247759795365176</v>
+        <v>0.8247759795365174</v>
       </c>
       <c r="H37" t="n">
-        <v>7.33300825442468</v>
+        <v>7.333008254424678</v>
       </c>
       <c r="I37" t="n">
-        <v>24.80326309369819</v>
+        <v>24.80326309369818</v>
       </c>
       <c r="J37" t="n">
-        <v>58.31166175323179</v>
+        <v>58.31166175323177</v>
       </c>
       <c r="K37" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524263</v>
       </c>
       <c r="L37" t="n">
         <v>122.6216942667292</v>
       </c>
       <c r="M37" t="n">
-        <v>129.2873837740743</v>
+        <v>129.2873837740742</v>
       </c>
       <c r="N37" t="n">
-        <v>126.2132187594383</v>
+        <v>126.2132187594382</v>
       </c>
       <c r="O37" t="n">
         <v>116.5783357257616</v>
       </c>
       <c r="P37" t="n">
-        <v>99.75290574321659</v>
+        <v>99.75290574321657</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100784</v>
       </c>
       <c r="R37" t="n">
-        <v>37.08492722534195</v>
+        <v>37.08492722534194</v>
       </c>
       <c r="S37" t="n">
-        <v>14.3735959342864</v>
+        <v>14.37359593428639</v>
       </c>
       <c r="T37" t="n">
-        <v>3.524042821656029</v>
+        <v>3.524042821656028</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04498778070199192</v>
+        <v>0.04498778070199191</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,28 +33885,28 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704523</v>
       </c>
       <c r="H38" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I38" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077121</v>
       </c>
       <c r="J38" t="n">
         <v>156.0570725585907</v>
       </c>
       <c r="K38" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425332</v>
       </c>
       <c r="L38" t="n">
-        <v>290.1601081346094</v>
+        <v>290.1601081346093</v>
       </c>
       <c r="M38" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671734</v>
       </c>
       <c r="N38" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364915</v>
       </c>
       <c r="O38" t="n">
         <v>309.7996858163596</v>
@@ -33918,13 +33918,13 @@
         <v>198.5585436517358</v>
       </c>
       <c r="R38" t="n">
-        <v>115.5000230826207</v>
+        <v>115.5000230826206</v>
       </c>
       <c r="S38" t="n">
-        <v>41.89929796820439</v>
+        <v>41.89929796820437</v>
       </c>
       <c r="T38" t="n">
-        <v>8.048894211994059</v>
+        <v>8.048894211994057</v>
       </c>
       <c r="U38" t="n">
         <v>0.1470957251763619</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9837893930869543</v>
+        <v>0.9837893930869541</v>
       </c>
       <c r="H39" t="n">
-        <v>9.501334401655587</v>
+        <v>9.501334401655585</v>
       </c>
       <c r="I39" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935347</v>
       </c>
       <c r="J39" t="n">
-        <v>92.94652331792143</v>
+        <v>92.94652331792142</v>
       </c>
       <c r="K39" t="n">
-        <v>158.8604126547474</v>
+        <v>158.8604126547473</v>
       </c>
       <c r="L39" t="n">
-        <v>213.6074294068846</v>
+        <v>213.6074294068845</v>
       </c>
       <c r="M39" t="n">
-        <v>234.6468288619191</v>
+        <v>174.5040083296477</v>
       </c>
       <c r="N39" t="n">
-        <v>223.8545070232341</v>
+        <v>223.854507023234</v>
       </c>
       <c r="O39" t="n">
-        <v>173.9257023045182</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P39" t="n">
-        <v>187.8606254220168</v>
+        <v>187.8606254220167</v>
       </c>
       <c r="Q39" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R39" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657424</v>
       </c>
       <c r="S39" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001424</v>
       </c>
       <c r="T39" t="n">
-        <v>3.965361632661889</v>
+        <v>3.965361632661888</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8247759795365176</v>
+        <v>0.8247759795365174</v>
       </c>
       <c r="H40" t="n">
-        <v>7.33300825442468</v>
+        <v>7.333008254424678</v>
       </c>
       <c r="I40" t="n">
-        <v>24.80326309369819</v>
+        <v>24.80326309369818</v>
       </c>
       <c r="J40" t="n">
-        <v>58.31166175323179</v>
+        <v>58.31166175323177</v>
       </c>
       <c r="K40" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524263</v>
       </c>
       <c r="L40" t="n">
         <v>122.6216942667292</v>
       </c>
       <c r="M40" t="n">
-        <v>129.2873837740743</v>
+        <v>129.2873837740742</v>
       </c>
       <c r="N40" t="n">
-        <v>126.2132187594383</v>
+        <v>126.2132187594382</v>
       </c>
       <c r="O40" t="n">
         <v>116.5783357257616</v>
       </c>
       <c r="P40" t="n">
-        <v>99.75290574321659</v>
+        <v>99.75290574321657</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100784</v>
       </c>
       <c r="R40" t="n">
-        <v>37.08492722534195</v>
+        <v>37.08492722534194</v>
       </c>
       <c r="S40" t="n">
-        <v>14.3735959342864</v>
+        <v>14.37359593428639</v>
       </c>
       <c r="T40" t="n">
-        <v>3.524042821656029</v>
+        <v>3.524042821656028</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04498778070199192</v>
+        <v>0.04498778070199191</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,28 +34122,28 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704523</v>
       </c>
       <c r="H41" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I41" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077121</v>
       </c>
       <c r="J41" t="n">
         <v>156.0570725585907</v>
       </c>
       <c r="K41" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425332</v>
       </c>
       <c r="L41" t="n">
-        <v>290.1601081346094</v>
+        <v>290.1601081346093</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984206</v>
       </c>
       <c r="N41" t="n">
-        <v>321.8138885677389</v>
+        <v>321.8138885677388</v>
       </c>
       <c r="O41" t="n">
         <v>309.7996858163596</v>
@@ -34155,13 +34155,13 @@
         <v>198.5585436517358</v>
       </c>
       <c r="R41" t="n">
-        <v>115.5000230826207</v>
+        <v>115.5000230826206</v>
       </c>
       <c r="S41" t="n">
-        <v>41.89929796820439</v>
+        <v>41.89929796820437</v>
       </c>
       <c r="T41" t="n">
-        <v>8.048894211994059</v>
+        <v>8.048894211994057</v>
       </c>
       <c r="U41" t="n">
         <v>0.1470957251763619</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9837893930869543</v>
+        <v>0.9837893930869541</v>
       </c>
       <c r="H42" t="n">
-        <v>9.501334401655587</v>
+        <v>9.501334401655585</v>
       </c>
       <c r="I42" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935347</v>
       </c>
       <c r="J42" t="n">
-        <v>92.94652331792143</v>
+        <v>92.94652331792142</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547473</v>
       </c>
       <c r="L42" t="n">
-        <v>213.6074294068846</v>
+        <v>213.6074294068845</v>
       </c>
       <c r="M42" t="n">
-        <v>195.1915961429193</v>
+        <v>234.5348588931662</v>
       </c>
       <c r="N42" t="n">
-        <v>223.7425370544813</v>
+        <v>223.7425370544811</v>
       </c>
       <c r="O42" t="n">
-        <v>234.0685228367895</v>
+        <v>173.706286406154</v>
       </c>
       <c r="P42" t="n">
-        <v>187.8606254220168</v>
+        <v>187.8606254220167</v>
       </c>
       <c r="Q42" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R42" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657424</v>
       </c>
       <c r="S42" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001424</v>
       </c>
       <c r="T42" t="n">
-        <v>3.965361632661889</v>
+        <v>3.965361632661888</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8247759795365176</v>
+        <v>0.8247759795365174</v>
       </c>
       <c r="H43" t="n">
-        <v>7.33300825442468</v>
+        <v>7.333008254424678</v>
       </c>
       <c r="I43" t="n">
-        <v>24.80326309369819</v>
+        <v>24.80326309369818</v>
       </c>
       <c r="J43" t="n">
-        <v>58.31166175323179</v>
+        <v>58.31166175323177</v>
       </c>
       <c r="K43" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524263</v>
       </c>
       <c r="L43" t="n">
         <v>122.6216942667292</v>
       </c>
       <c r="M43" t="n">
-        <v>129.2873837740743</v>
+        <v>129.2873837740742</v>
       </c>
       <c r="N43" t="n">
-        <v>126.2132187594383</v>
+        <v>126.2132187594382</v>
       </c>
       <c r="O43" t="n">
         <v>116.5783357257616</v>
       </c>
       <c r="P43" t="n">
-        <v>99.75290574321659</v>
+        <v>99.75290574321657</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100784</v>
       </c>
       <c r="R43" t="n">
-        <v>37.08492722534195</v>
+        <v>37.08492722534194</v>
       </c>
       <c r="S43" t="n">
-        <v>14.3735959342864</v>
+        <v>14.37359593428639</v>
       </c>
       <c r="T43" t="n">
-        <v>3.524042821656029</v>
+        <v>3.524042821656028</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04498778070199192</v>
+        <v>0.04498778070199191</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,28 +34359,28 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704523</v>
       </c>
       <c r="H44" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I44" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077121</v>
       </c>
       <c r="J44" t="n">
         <v>156.0570725585907</v>
       </c>
       <c r="K44" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425332</v>
       </c>
       <c r="L44" t="n">
-        <v>290.1601081346094</v>
+        <v>290.1601081346093</v>
       </c>
       <c r="M44" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984206</v>
       </c>
       <c r="N44" t="n">
-        <v>321.8138885677389</v>
+        <v>321.8138885677388</v>
       </c>
       <c r="O44" t="n">
         <v>309.7996858163596</v>
@@ -34392,13 +34392,13 @@
         <v>198.5585436517358</v>
       </c>
       <c r="R44" t="n">
-        <v>115.5000230826207</v>
+        <v>115.5000230826206</v>
       </c>
       <c r="S44" t="n">
-        <v>41.89929796820439</v>
+        <v>41.89929796820437</v>
       </c>
       <c r="T44" t="n">
-        <v>8.048894211994059</v>
+        <v>8.048894211994057</v>
       </c>
       <c r="U44" t="n">
         <v>0.1470957251763619</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9837893930869543</v>
+        <v>0.9837893930869541</v>
       </c>
       <c r="H45" t="n">
-        <v>9.501334401655587</v>
+        <v>9.501334401655585</v>
       </c>
       <c r="I45" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935347</v>
       </c>
       <c r="J45" t="n">
-        <v>92.94652331792143</v>
+        <v>92.94652331792142</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547473</v>
       </c>
       <c r="L45" t="n">
-        <v>213.6074294068846</v>
+        <v>213.6074294068845</v>
       </c>
       <c r="M45" t="n">
-        <v>234.5348588931663</v>
+        <v>174.1726224625309</v>
       </c>
       <c r="N45" t="n">
-        <v>184.3992743042343</v>
+        <v>223.7425370544812</v>
       </c>
       <c r="O45" t="n">
         <v>234.0685228367895</v>
       </c>
       <c r="P45" t="n">
-        <v>187.8606254220168</v>
+        <v>187.8606254220167</v>
       </c>
       <c r="Q45" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R45" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657424</v>
       </c>
       <c r="S45" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001424</v>
       </c>
       <c r="T45" t="n">
-        <v>3.965361632661889</v>
+        <v>3.965361632661888</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8247759795365176</v>
+        <v>0.8247759795365174</v>
       </c>
       <c r="H46" t="n">
-        <v>7.33300825442468</v>
+        <v>7.333008254424678</v>
       </c>
       <c r="I46" t="n">
-        <v>24.80326309369819</v>
+        <v>24.80326309369818</v>
       </c>
       <c r="J46" t="n">
-        <v>58.31166175323179</v>
+        <v>58.31166175323177</v>
       </c>
       <c r="K46" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524263</v>
       </c>
       <c r="L46" t="n">
         <v>122.6216942667292</v>
       </c>
       <c r="M46" t="n">
-        <v>129.2873837740743</v>
+        <v>129.2873837740742</v>
       </c>
       <c r="N46" t="n">
-        <v>126.2132187594383</v>
+        <v>126.2132187594382</v>
       </c>
       <c r="O46" t="n">
         <v>116.5783357257616</v>
       </c>
       <c r="P46" t="n">
-        <v>99.75290574321659</v>
+        <v>99.75290574321657</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100784</v>
       </c>
       <c r="R46" t="n">
-        <v>37.08492722534195</v>
+        <v>37.08492722534194</v>
       </c>
       <c r="S46" t="n">
-        <v>14.3735959342864</v>
+        <v>14.37359593428639</v>
       </c>
       <c r="T46" t="n">
-        <v>3.524042821656029</v>
+        <v>3.524042821656028</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04498778070199192</v>
+        <v>0.04498778070199191</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.75251937836327</v>
+        <v>13.75251937836322</v>
       </c>
       <c r="L11" t="n">
-        <v>54.33572329702008</v>
+        <v>54.33572329702002</v>
       </c>
       <c r="M11" t="n">
-        <v>92.28885500239517</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="N11" t="n">
-        <v>92.28885500239517</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="O11" t="n">
-        <v>79.63958081844905</v>
+        <v>79.63958081844899</v>
       </c>
       <c r="P11" t="n">
-        <v>33.12104388459852</v>
+        <v>33.12104388459846</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>20.98723562670475</v>
       </c>
       <c r="L12" t="n">
-        <v>75.01037389711371</v>
+        <v>75.01037389711365</v>
       </c>
       <c r="M12" t="n">
-        <v>92.28885500239517</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="N12" t="n">
-        <v>92.28885500239517</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="O12" t="n">
-        <v>51.98980735784928</v>
+        <v>84.85125785461233</v>
       </c>
       <c r="P12" t="n">
-        <v>53.84868612346793</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>13.75251937836327</v>
+        <v>13.75251937836322</v>
       </c>
       <c r="L14" t="n">
-        <v>54.33572329702008</v>
+        <v>54.33572329702002</v>
       </c>
       <c r="M14" t="n">
-        <v>92.2888550023952</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="N14" t="n">
-        <v>92.2888550023952</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="O14" t="n">
-        <v>79.63958081844905</v>
+        <v>79.63958081844899</v>
       </c>
       <c r="P14" t="n">
-        <v>33.12104388459852</v>
+        <v>33.12104388459846</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20.98723562670475</v>
       </c>
       <c r="L15" t="n">
-        <v>35.57466642831246</v>
+        <v>75.01037389711365</v>
       </c>
       <c r="M15" t="n">
-        <v>92.2888550023952</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="N15" t="n">
-        <v>92.2888550023952</v>
+        <v>92.28885500239505</v>
       </c>
       <c r="O15" t="n">
-        <v>91.42551482665061</v>
+        <v>84.85125785461233</v>
       </c>
       <c r="P15" t="n">
-        <v>53.84868612346793</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>13.79924709755275</v>
+        <v>13.79924709755267</v>
       </c>
       <c r="L17" t="n">
-        <v>54.39369316462216</v>
+        <v>54.39369316462211</v>
       </c>
       <c r="M17" t="n">
-        <v>92.40082497114797</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="N17" t="n">
-        <v>92.40082497114797</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="O17" t="n">
-        <v>79.70147439467289</v>
+        <v>79.70147439467283</v>
       </c>
       <c r="P17" t="n">
-        <v>33.17386861994709</v>
+        <v>33.17386861994703</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>21.01897368038834</v>
       </c>
       <c r="L18" t="n">
-        <v>35.70978687676342</v>
+        <v>75.05304962701032</v>
       </c>
       <c r="M18" t="n">
-        <v>92.40082497114797</v>
+        <v>32.03858854051244</v>
       </c>
       <c r="N18" t="n">
-        <v>92.40082497114797</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="O18" t="n">
-        <v>91.47227839234509</v>
+        <v>91.47227839234503</v>
       </c>
       <c r="P18" t="n">
-        <v>53.88621800768652</v>
+        <v>53.88621800768647</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>13.79924709755275</v>
+        <v>13.79924709755267</v>
       </c>
       <c r="L20" t="n">
-        <v>54.39369316462216</v>
+        <v>54.39369316462211</v>
       </c>
       <c r="M20" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="N20" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="O20" t="n">
-        <v>79.70147439467289</v>
+        <v>79.70147439467283</v>
       </c>
       <c r="P20" t="n">
-        <v>33.17386861994709</v>
+        <v>33.17386861994703</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.01897368038837</v>
+        <v>21.01897368038834</v>
       </c>
       <c r="L21" t="n">
-        <v>75.05304962701038</v>
+        <v>75.05304962701032</v>
       </c>
       <c r="M21" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="N21" t="n">
-        <v>92.40082497114798</v>
+        <v>32.03858854051244</v>
       </c>
       <c r="O21" t="n">
-        <v>31.11004196170978</v>
+        <v>91.47227839234503</v>
       </c>
       <c r="P21" t="n">
-        <v>53.88621800768652</v>
+        <v>53.88621800768647</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>13.79924709755275</v>
+        <v>13.79924709755267</v>
       </c>
       <c r="L23" t="n">
-        <v>54.39369316462216</v>
+        <v>54.39369316462211</v>
       </c>
       <c r="M23" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N23" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="O23" t="n">
-        <v>79.70147439467289</v>
+        <v>79.70147439467283</v>
       </c>
       <c r="P23" t="n">
-        <v>33.17386861994709</v>
+        <v>33.17386861994703</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>21.01897368038837</v>
+        <v>21.01897368038834</v>
       </c>
       <c r="L24" t="n">
-        <v>75.05304962701038</v>
+        <v>75.05304962701032</v>
       </c>
       <c r="M24" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N24" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762937</v>
       </c>
       <c r="O24" t="n">
-        <v>31.32945786007384</v>
+        <v>91.47227839234503</v>
       </c>
       <c r="P24" t="n">
-        <v>53.88621800768652</v>
+        <v>53.88621800768647</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>13.79924709755275</v>
+        <v>13.79924709755267</v>
       </c>
       <c r="L26" t="n">
-        <v>54.39369316462216</v>
+        <v>54.39369316462211</v>
       </c>
       <c r="M26" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N26" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="O26" t="n">
-        <v>79.70147439467289</v>
+        <v>79.70147439467283</v>
       </c>
       <c r="P26" t="n">
-        <v>33.17386861994709</v>
+        <v>33.17386861994703</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21.01897368038837</v>
+        <v>21.01897368038834</v>
       </c>
       <c r="L27" t="n">
-        <v>75.05304962701038</v>
+        <v>75.05304962701032</v>
       </c>
       <c r="M27" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N27" t="n">
-        <v>32.36997440762951</v>
+        <v>86.25619241531582</v>
       </c>
       <c r="O27" t="n">
-        <v>91.47227839234509</v>
+        <v>91.47227839234503</v>
       </c>
       <c r="P27" t="n">
-        <v>53.88621800768652</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>13.79924709755275</v>
+        <v>13.79924709755267</v>
       </c>
       <c r="L29" t="n">
-        <v>54.39369316462216</v>
+        <v>54.39369316462211</v>
       </c>
       <c r="M29" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N29" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="O29" t="n">
-        <v>79.70147439467289</v>
+        <v>79.70147439467283</v>
       </c>
       <c r="P29" t="n">
-        <v>33.17386861994709</v>
+        <v>33.17386861994703</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>21.01897368038837</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>75.05304962701038</v>
+        <v>75.05304962701032</v>
       </c>
       <c r="M30" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N30" t="n">
-        <v>86.25619241531602</v>
+        <v>53.38894808801773</v>
       </c>
       <c r="O30" t="n">
-        <v>91.47227839234509</v>
+        <v>91.47227839234503</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>53.88621800768647</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>13.79924709755275</v>
+        <v>13.79924709755267</v>
       </c>
       <c r="L32" t="n">
-        <v>54.39369316462216</v>
+        <v>54.39369316462211</v>
       </c>
       <c r="M32" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N32" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="O32" t="n">
-        <v>79.70147439467289</v>
+        <v>79.70147439467283</v>
       </c>
       <c r="P32" t="n">
-        <v>33.17386861994709</v>
+        <v>33.17386861994703</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>21.01897368038837</v>
+        <v>21.01897368038834</v>
       </c>
       <c r="L33" t="n">
-        <v>75.05304962701038</v>
+        <v>75.05304962701032</v>
       </c>
       <c r="M33" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762937</v>
       </c>
       <c r="N33" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="O33" t="n">
-        <v>85.21567586776035</v>
+        <v>91.47227839234503</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>53.88621800768647</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>13.79924709755275</v>
+        <v>13.79924709755267</v>
       </c>
       <c r="L35" t="n">
-        <v>54.39369316462216</v>
+        <v>54.39369316462211</v>
       </c>
       <c r="M35" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N35" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="O35" t="n">
-        <v>79.70147439467289</v>
+        <v>79.70147439467283</v>
       </c>
       <c r="P35" t="n">
-        <v>33.17386861994709</v>
+        <v>33.17386861994703</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.01897368038837</v>
+        <v>21.01897368038834</v>
       </c>
       <c r="L36" t="n">
-        <v>75.05304962701038</v>
+        <v>75.05304962701032</v>
       </c>
       <c r="M36" t="n">
-        <v>32.36997440762951</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N36" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762937</v>
       </c>
       <c r="O36" t="n">
-        <v>91.47227839234509</v>
+        <v>91.47227839234503</v>
       </c>
       <c r="P36" t="n">
-        <v>53.88621800768652</v>
+        <v>53.88621800768647</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>13.79924709755275</v>
+        <v>13.79924709755267</v>
       </c>
       <c r="L38" t="n">
-        <v>54.39369316462216</v>
+        <v>54.39369316462211</v>
       </c>
       <c r="M38" t="n">
-        <v>92.51279493990076</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="N38" t="n">
-        <v>92.51279493990076</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="O38" t="n">
-        <v>79.70147439467289</v>
+        <v>79.70147439467283</v>
       </c>
       <c r="P38" t="n">
-        <v>33.17386861994709</v>
+        <v>33.17386861994703</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>21.01897368038837</v>
+        <v>21.01897368038834</v>
       </c>
       <c r="L39" t="n">
-        <v>75.05304962701038</v>
+        <v>75.05304962701032</v>
       </c>
       <c r="M39" t="n">
-        <v>92.51279493990076</v>
+        <v>32.36997440762937</v>
       </c>
       <c r="N39" t="n">
-        <v>92.51279493990076</v>
+        <v>92.51279493990066</v>
       </c>
       <c r="O39" t="n">
-        <v>31.32945786007378</v>
+        <v>91.47227839234503</v>
       </c>
       <c r="P39" t="n">
-        <v>53.88621800768652</v>
+        <v>53.88621800768647</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>13.79924709755275</v>
+        <v>13.79924709755267</v>
       </c>
       <c r="L41" t="n">
-        <v>54.39369316462216</v>
+        <v>54.39369316462211</v>
       </c>
       <c r="M41" t="n">
-        <v>92.40082497114797</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="N41" t="n">
-        <v>92.40082497114797</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="O41" t="n">
-        <v>79.70147439467289</v>
+        <v>79.70147439467283</v>
       </c>
       <c r="P41" t="n">
-        <v>33.17386861994709</v>
+        <v>33.17386861994703</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>21.01897368038834</v>
       </c>
       <c r="L42" t="n">
-        <v>75.05304962701038</v>
+        <v>75.05304962701032</v>
       </c>
       <c r="M42" t="n">
-        <v>53.057562220901</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="N42" t="n">
-        <v>92.40082497114797</v>
+        <v>92.40082497114784</v>
       </c>
       <c r="O42" t="n">
-        <v>91.47227839234509</v>
+        <v>31.1100419617096</v>
       </c>
       <c r="P42" t="n">
-        <v>53.88621800768652</v>
+        <v>53.88621800768647</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>13.79924709755275</v>
+        <v>13.79924709755267</v>
       </c>
       <c r="L44" t="n">
-        <v>54.39369316462216</v>
+        <v>54.39369316462211</v>
       </c>
       <c r="M44" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114787</v>
       </c>
       <c r="N44" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114787</v>
       </c>
       <c r="O44" t="n">
-        <v>79.70147439467289</v>
+        <v>79.70147439467283</v>
       </c>
       <c r="P44" t="n">
-        <v>33.17386861994709</v>
+        <v>33.17386861994703</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>21.01897368038834</v>
       </c>
       <c r="L45" t="n">
-        <v>75.05304962701038</v>
+        <v>75.05304962701032</v>
       </c>
       <c r="M45" t="n">
-        <v>92.40082497114798</v>
+        <v>32.03858854051253</v>
       </c>
       <c r="N45" t="n">
-        <v>53.05756222090103</v>
+        <v>92.40082497114787</v>
       </c>
       <c r="O45" t="n">
-        <v>91.47227839234509</v>
+        <v>91.47227839234503</v>
       </c>
       <c r="P45" t="n">
-        <v>53.88621800768652</v>
+        <v>53.88621800768647</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
